--- a/upbitRecord.xlsx
+++ b/upbitRecord.xlsx
@@ -1,95 +1,62 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10111"/>
-  <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kuhojung/Documents/CodingWorkSpace/practice/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CC384A98-50B6-5449-94DF-C9BB3E80BF9C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="1360" yWindow="1320" windowWidth="27900" windowHeight="16820" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="1360" yWindow="1320" windowWidth="27900" windowHeight="16820" tabRatio="600" firstSheet="0" activeTab="1" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet2" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <definedNames/>
+  <calcPr calcId="0" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="14">
-  <si>
-    <t>날짜</t>
-  </si>
-  <si>
-    <t>시간</t>
-  </si>
-  <si>
-    <t>코인 종류</t>
-  </si>
-  <si>
-    <t>매수/매도</t>
-  </si>
-  <si>
-    <t>2022-02-06</t>
-  </si>
-  <si>
-    <t>19:18:34</t>
-  </si>
-  <si>
-    <t>이더리움</t>
-  </si>
-  <si>
-    <t>매수</t>
-  </si>
-  <si>
-    <t>11041.1707</t>
-  </si>
-  <si>
-    <t>19:26:52</t>
-  </si>
-  <si>
-    <t>매도</t>
-  </si>
-  <si>
-    <t>e61ed645-621c-4334-a144-aac86d49fc61</t>
-  </si>
-  <si>
-    <t>체결 코드</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>체결총금액</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="2">
+    <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd\ h:mm:ss"/>
+    <numFmt numFmtId="165" formatCode="yyyy-mm-dd h:mm:ss"/>
+  </numFmts>
+  <fonts count="4">
     <font>
+      <name val="맑은 고딕"/>
+      <charset val="129"/>
+      <family val="2"/>
+      <color theme="1"/>
       <sz val="12"/>
-      <color theme="1"/>
-      <name val="맑은 고딕"/>
-      <family val="2"/>
-      <charset val="129"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <name val="맑은 고딕"/>
+      <charset val="129"/>
+      <family val="2"/>
       <sz val="8"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <name val="맑은 고딕"/>
+      <charset val="129"/>
       <family val="2"/>
+      <i val="1"/>
+      <color theme="1"/>
+      <sz val="12"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="맑은 고딕"/>
       <charset val="129"/>
+      <family val="2"/>
+      <color theme="1"/>
+      <sz val="12"/>
       <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -104,29 +71,103 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+  <cellStyleXfs count="2">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="3" fillId="0" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+  <cellXfs count="8">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="3" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="표준" xfId="0" builtinId="0"/>
+    <cellStyle name="쉼표 [0]" xfId="1" builtinId="6"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -426,74 +467,228 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
   <dimension ref="A1:F3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="18"/>
   <cols>
-    <col min="6" max="6" width="37.28515625" bestFit="1" customWidth="1"/>
+    <col width="37.28515625" bestFit="1" customWidth="1" style="1" min="6" max="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" t="s">
-        <v>13</v>
-      </c>
-      <c r="F1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6">
-      <c r="A2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D2" t="s">
-        <v>7</v>
-      </c>
-      <c r="E2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6">
-      <c r="A3" t="s">
-        <v>4</v>
-      </c>
-      <c r="B3" t="s">
-        <v>9</v>
-      </c>
-      <c r="C3" t="s">
-        <v>6</v>
-      </c>
-      <c r="D3" t="s">
-        <v>10</v>
-      </c>
-      <c r="F3" t="s">
-        <v>11</v>
+    <row r="1">
+      <c r="A1" s="0" t="inlineStr">
+        <is>
+          <t>날짜</t>
+        </is>
+      </c>
+      <c r="B1" s="0" t="inlineStr">
+        <is>
+          <t>시간</t>
+        </is>
+      </c>
+      <c r="C1" s="0" t="inlineStr">
+        <is>
+          <t>코인 종류</t>
+        </is>
+      </c>
+      <c r="D1" s="0" t="inlineStr">
+        <is>
+          <t>매수/매도</t>
+        </is>
+      </c>
+      <c r="E1" s="0" t="inlineStr">
+        <is>
+          <t>체결총금액</t>
+        </is>
+      </c>
+      <c r="F1" s="0" t="inlineStr">
+        <is>
+          <t>체결 코드</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="0" t="inlineStr">
+        <is>
+          <t>2022-02-06</t>
+        </is>
+      </c>
+      <c r="B2" s="0" t="inlineStr">
+        <is>
+          <t>19:18:34</t>
+        </is>
+      </c>
+      <c r="C2" s="0" t="inlineStr">
+        <is>
+          <t>이더리움</t>
+        </is>
+      </c>
+      <c r="D2" s="0" t="inlineStr">
+        <is>
+          <t>매수</t>
+        </is>
+      </c>
+      <c r="E2" s="0" t="inlineStr">
+        <is>
+          <t>11041.1707</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="0" t="inlineStr">
+        <is>
+          <t>2022-02-06</t>
+        </is>
+      </c>
+      <c r="B3" s="0" t="inlineStr">
+        <is>
+          <t>19:26:52</t>
+        </is>
+      </c>
+      <c r="C3" s="0" t="inlineStr">
+        <is>
+          <t>이더리움</t>
+        </is>
+      </c>
+      <c r="D3" s="0" t="inlineStr">
+        <is>
+          <t>매도</t>
+        </is>
+      </c>
+      <c r="F3" s="0" t="inlineStr">
+        <is>
+          <t>e61ed645-621c-4334-a144-aac86d49fc61</t>
+        </is>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D6"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D2" sqref="D2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="18"/>
+  <cols>
+    <col width="11.7109375" bestFit="1" customWidth="1" style="3" min="2" max="3"/>
+    <col width="19.140625" bestFit="1" customWidth="1" style="1" min="4" max="4"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="0" t="inlineStr">
+        <is>
+          <t>Ticker</t>
+        </is>
+      </c>
+      <c r="B1" s="3" t="inlineStr">
+        <is>
+          <t>Target_Price</t>
+        </is>
+      </c>
+      <c r="C1" s="3" t="inlineStr">
+        <is>
+          <t>ma5</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>조회 시간</t>
+        </is>
+      </c>
+    </row>
+    <row r="2" customFormat="1" s="2">
+      <c r="A2" s="0" t="inlineStr">
+        <is>
+          <t>KRW-ETH</t>
+        </is>
+      </c>
+      <c r="B2" s="3" t="n">
+        <v>3804500</v>
+      </c>
+      <c r="C2" s="3" t="n">
+        <v>3537800</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="0" t="inlineStr">
+        <is>
+          <t>KRW-BTC</t>
+        </is>
+      </c>
+      <c r="B3" s="3" t="n">
+        <v>52543000</v>
+      </c>
+      <c r="C3" s="3" t="n">
+        <v>48901000</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="0" t="inlineStr">
+        <is>
+          <t>KRW-ETH</t>
+        </is>
+      </c>
+      <c r="B4" s="3" t="n">
+        <v>3804500</v>
+      </c>
+      <c r="C4" s="3" t="n">
+        <v>3537800</v>
+      </c>
+      <c r="D4" s="6" t="n">
+        <v>44599.42454641204</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="0" t="inlineStr">
+        <is>
+          <t>KRW-XRP</t>
+        </is>
+      </c>
+      <c r="B5" s="0" t="n">
+        <v>848.5</v>
+      </c>
+      <c r="C5" s="0" t="n">
+        <v>787.8</v>
+      </c>
+      <c r="D5" s="6" t="n">
+        <v>44599.42522819444</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>KRW-ETH</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>3804500</v>
+      </c>
+      <c r="C6" t="n">
+        <v>3537800</v>
+      </c>
+      <c r="D6" s="7" t="n">
+        <v>44599.42562908865</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/upbitRecord.xlsx
+++ b/upbitRecord.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="1360" yWindow="1320" windowWidth="27900" windowHeight="16820" tabRatio="600" firstSheet="0" activeTab="1" autoFilterDateGrouping="1"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="1360" yWindow="1320" windowWidth="27900" windowHeight="16820" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
@@ -472,9 +472,9 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:F5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
@@ -566,6 +566,70 @@
       <c r="F3" s="0" t="inlineStr">
         <is>
           <t>e61ed645-621c-4334-a144-aac86d49fc61</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="0" t="inlineStr">
+        <is>
+          <t>2022-02-08</t>
+        </is>
+      </c>
+      <c r="B4" s="0" t="inlineStr">
+        <is>
+          <t>00:04:02</t>
+        </is>
+      </c>
+      <c r="C4" s="0" t="inlineStr">
+        <is>
+          <t>이더리움</t>
+        </is>
+      </c>
+      <c r="D4" s="0" t="inlineStr">
+        <is>
+          <t>매수</t>
+        </is>
+      </c>
+      <c r="E4" s="0" t="inlineStr">
+        <is>
+          <t>109389.6805</t>
+        </is>
+      </c>
+      <c r="F4" s="0" t="inlineStr">
+        <is>
+          <t>2f103760-2744-4393-8220-b93fa0511f4d</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="0" t="inlineStr">
+        <is>
+          <t>2022-02-08</t>
+        </is>
+      </c>
+      <c r="B5" s="0" t="inlineStr">
+        <is>
+          <t>16:19:00</t>
+        </is>
+      </c>
+      <c r="C5" s="0" t="inlineStr">
+        <is>
+          <t>이더리움</t>
+        </is>
+      </c>
+      <c r="D5" s="0" t="inlineStr">
+        <is>
+          <t>매수</t>
+        </is>
+      </c>
+      <c r="E5" s="0" t="inlineStr">
+        <is>
+          <t>6302.1514</t>
+        </is>
+      </c>
+      <c r="F5" s="0" t="inlineStr">
+        <is>
+          <t>0d471df0-3a77-4c9c-a3e9-b56b1ddaf6c6</t>
         </is>
       </c>
     </row>
@@ -580,10 +644,10 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:D14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="18"/>
@@ -608,7 +672,7 @@
           <t>ma5</t>
         </is>
       </c>
-      <c r="D1" t="inlineStr">
+      <c r="D1" s="0" t="inlineStr">
         <is>
           <t>조회 시간</t>
         </is>
@@ -673,19 +737,123 @@
       </c>
     </row>
     <row r="6">
-      <c r="A6" t="inlineStr">
+      <c r="A6" s="0" t="inlineStr">
         <is>
           <t>KRW-ETH</t>
         </is>
       </c>
-      <c r="B6" t="n">
+      <c r="B6" s="0" t="n">
         <v>3804500</v>
       </c>
-      <c r="C6" t="n">
+      <c r="C6" s="0" t="n">
         <v>3537800</v>
       </c>
-      <c r="D6" s="7" t="n">
-        <v>44599.42562908865</v>
+      <c r="D6" s="6" t="n">
+        <v>44599.42562908565</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="0" t="inlineStr">
+        <is>
+          <t>KRW-ETH</t>
+        </is>
+      </c>
+      <c r="B7" s="0" t="n">
+        <v>3804500</v>
+      </c>
+      <c r="C7" s="0" t="n">
+        <v>3537800</v>
+      </c>
+      <c r="D7" s="6" t="n">
+        <v>44599.4650546875</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="0" t="inlineStr">
+        <is>
+          <t>KRW-ETH</t>
+        </is>
+      </c>
+      <c r="B8" s="0" t="n">
+        <v>3804500</v>
+      </c>
+      <c r="C8" s="0" t="n">
+        <v>3537800</v>
+      </c>
+      <c r="D8" s="6" t="n">
+        <v>44599.6000433912</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="0" t="inlineStr">
+        <is>
+          <t>KRW-ETH</t>
+        </is>
+      </c>
+      <c r="B9" s="0" t="n">
+        <v>3804500</v>
+      </c>
+      <c r="C9" s="0" t="n">
+        <v>3537800</v>
+      </c>
+      <c r="D9" s="6" t="n">
+        <v>44600.00278966435</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="0" t="inlineStr">
+        <is>
+          <t>KRW-ETH</t>
+        </is>
+      </c>
+      <c r="B10" s="0" t="n">
+        <v>3804500</v>
+      </c>
+      <c r="C10" s="0" t="n">
+        <v>3537800</v>
+      </c>
+      <c r="D10" s="6" t="n">
+        <v>44600.67982412037</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="B11" s="0" t="n"/>
+      <c r="C11" s="0" t="n"/>
+    </row>
+    <row r="12">
+      <c r="B12" s="0" t="n"/>
+      <c r="C12" s="0" t="n"/>
+    </row>
+    <row r="13">
+      <c r="A13" s="0" t="inlineStr">
+        <is>
+          <t>KRW-ETH</t>
+        </is>
+      </c>
+      <c r="B13" s="0" t="n">
+        <v>3935000</v>
+      </c>
+      <c r="C13" s="0" t="n">
+        <v>3643200</v>
+      </c>
+      <c r="D13" s="7" t="n">
+        <v>44600.77101048611</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>KRW-ETH</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>3935000</v>
+      </c>
+      <c r="C14" t="n">
+        <v>3643200</v>
+      </c>
+      <c r="D14" s="7" t="n">
+        <v>44600.95515894243</v>
       </c>
     </row>
   </sheetData>

--- a/upbitRecord.xlsx
+++ b/upbitRecord.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="1360" yWindow="1320" windowWidth="27900" windowHeight="16820" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="1360" yWindow="1320" windowWidth="27900" windowHeight="16820" tabRatio="600" firstSheet="0" activeTab="1" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
@@ -79,7 +79,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -90,7 +90,6 @@
     <xf numFmtId="41" fontId="3" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
@@ -472,10 +471,10 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A12" sqref="A12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="18"/>
@@ -512,6 +511,16 @@
       <c r="F1" s="0" t="inlineStr">
         <is>
           <t>체결 코드</t>
+        </is>
+      </c>
+      <c r="G1" s="0" t="inlineStr">
+        <is>
+          <t>평균 단가</t>
+        </is>
+      </c>
+      <c r="H1" s="0" t="inlineStr">
+        <is>
+          <t>수량</t>
         </is>
       </c>
     </row>
@@ -644,10 +653,10 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D14"/>
+  <dimension ref="A1:D24"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F20" sqref="F20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="18"/>
@@ -716,7 +725,7 @@
       <c r="C4" s="3" t="n">
         <v>3537800</v>
       </c>
-      <c r="D4" s="6" t="n">
+      <c r="D4" s="5" t="n">
         <v>44599.42454641204</v>
       </c>
     </row>
@@ -732,7 +741,7 @@
       <c r="C5" s="0" t="n">
         <v>787.8</v>
       </c>
-      <c r="D5" s="6" t="n">
+      <c r="D5" s="5" t="n">
         <v>44599.42522819444</v>
       </c>
     </row>
@@ -748,7 +757,7 @@
       <c r="C6" s="0" t="n">
         <v>3537800</v>
       </c>
-      <c r="D6" s="6" t="n">
+      <c r="D6" s="5" t="n">
         <v>44599.42562908565</v>
       </c>
     </row>
@@ -764,7 +773,7 @@
       <c r="C7" s="0" t="n">
         <v>3537800</v>
       </c>
-      <c r="D7" s="6" t="n">
+      <c r="D7" s="5" t="n">
         <v>44599.4650546875</v>
       </c>
     </row>
@@ -780,7 +789,7 @@
       <c r="C8" s="0" t="n">
         <v>3537800</v>
       </c>
-      <c r="D8" s="6" t="n">
+      <c r="D8" s="5" t="n">
         <v>44599.6000433912</v>
       </c>
     </row>
@@ -796,7 +805,7 @@
       <c r="C9" s="0" t="n">
         <v>3537800</v>
       </c>
-      <c r="D9" s="6" t="n">
+      <c r="D9" s="5" t="n">
         <v>44600.00278966435</v>
       </c>
     </row>
@@ -812,7 +821,7 @@
       <c r="C10" s="0" t="n">
         <v>3537800</v>
       </c>
-      <c r="D10" s="6" t="n">
+      <c r="D10" s="5" t="n">
         <v>44600.67982412037</v>
       </c>
     </row>
@@ -827,33 +836,193 @@
     <row r="13">
       <c r="A13" s="0" t="inlineStr">
         <is>
+          <t>KRW-XRP</t>
+        </is>
+      </c>
+      <c r="B13" s="0" t="n">
+        <v>1123.5</v>
+      </c>
+      <c r="C13" s="0" t="n">
+        <v>843.6</v>
+      </c>
+      <c r="D13" s="6" t="n">
+        <v>44601.27869145833</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="0" t="inlineStr">
+        <is>
+          <t>KRW-XRP</t>
+        </is>
+      </c>
+      <c r="B14" s="0" t="n">
+        <v>1123.5</v>
+      </c>
+      <c r="C14" s="0" t="n">
+        <v>843.6</v>
+      </c>
+      <c r="D14" s="6" t="n">
+        <v>44601.27900508102</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="0" t="inlineStr">
+        <is>
+          <t>KRW-XRP</t>
+        </is>
+      </c>
+      <c r="B15" s="0" t="n">
+        <v>1123.5</v>
+      </c>
+      <c r="C15" s="0" t="n">
+        <v>843.6</v>
+      </c>
+      <c r="D15" s="6" t="n">
+        <v>44601.28087266204</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="0" t="inlineStr">
+        <is>
+          <t>KRW-XRP</t>
+        </is>
+      </c>
+      <c r="B16" s="0" t="n">
+        <v>1123.5</v>
+      </c>
+      <c r="C16" s="0" t="n">
+        <v>843.6</v>
+      </c>
+      <c r="D16" s="6" t="n">
+        <v>44601.28141428241</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="0" t="inlineStr">
+        <is>
+          <t>KRW-XRP</t>
+        </is>
+      </c>
+      <c r="B17" s="0" t="n">
+        <v>1123.5</v>
+      </c>
+      <c r="C17" s="0" t="n">
+        <v>843.6</v>
+      </c>
+      <c r="D17" s="6" t="n">
+        <v>44601.28338670139</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="0" t="inlineStr">
+        <is>
+          <t>KRW-XRP</t>
+        </is>
+      </c>
+      <c r="B18" s="0" t="n">
+        <v>1123.5</v>
+      </c>
+      <c r="C18" s="0" t="n">
+        <v>843.6</v>
+      </c>
+      <c r="D18" s="6" t="n">
+        <v>44601.28395799769</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="0" t="inlineStr">
+        <is>
+          <t>KRW-XRP</t>
+        </is>
+      </c>
+      <c r="B19" s="0" t="n">
+        <v>1123.5</v>
+      </c>
+      <c r="C19" s="0" t="n">
+        <v>843.6</v>
+      </c>
+      <c r="D19" s="6" t="n">
+        <v>44601.28445681713</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="0" t="inlineStr">
+        <is>
+          <t>KRW-XRP</t>
+        </is>
+      </c>
+      <c r="B20" s="0" t="n">
+        <v>1123.5</v>
+      </c>
+      <c r="C20" s="0" t="n">
+        <v>843.6</v>
+      </c>
+      <c r="D20" s="6" t="n">
+        <v>44601.28552826389</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="0" t="inlineStr">
+        <is>
+          <t>KRW-XRP</t>
+        </is>
+      </c>
+      <c r="B21" s="0" t="n">
+        <v>1123.5</v>
+      </c>
+      <c r="C21" s="0" t="n">
+        <v>843.6</v>
+      </c>
+      <c r="D21" s="6" t="n">
+        <v>44601.29658157408</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="0" t="inlineStr">
+        <is>
           <t>KRW-ETH</t>
         </is>
       </c>
-      <c r="B13" s="0" t="n">
+      <c r="B22" s="0" t="n">
         <v>3935000</v>
       </c>
-      <c r="C13" s="0" t="n">
+      <c r="C22" s="0" t="n">
         <v>3643200</v>
       </c>
-      <c r="D13" s="7" t="n">
-        <v>44600.77101048611</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="inlineStr">
-        <is>
-          <t>KRW-ETH</t>
-        </is>
-      </c>
-      <c r="B14" t="n">
-        <v>3935000</v>
-      </c>
-      <c r="C14" t="n">
-        <v>3643200</v>
-      </c>
-      <c r="D14" s="7" t="n">
-        <v>44600.95515894243</v>
+      <c r="D22" s="6" t="n">
+        <v>44601.30462961805</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="0" t="inlineStr">
+        <is>
+          <t>KRW-XRP</t>
+        </is>
+      </c>
+      <c r="B23" s="0" t="n">
+        <v>1123.5</v>
+      </c>
+      <c r="C23" s="0" t="n">
+        <v>843.6</v>
+      </c>
+      <c r="D23" s="6" t="n">
+        <v>44601.30478611111</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>KRW-XRP</t>
+        </is>
+      </c>
+      <c r="B24" t="n">
+        <v>1135</v>
+      </c>
+      <c r="C24" t="n">
+        <v>907.8</v>
+      </c>
+      <c r="D24" s="6" t="n">
+        <v>44601.41838774146</v>
       </c>
     </row>
   </sheetData>

--- a/upbitRecord.xlsx
+++ b/upbitRecord.xlsx
@@ -653,7 +653,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D24"/>
+  <dimension ref="A1:D39"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="F20" sqref="F20"/>
@@ -1010,19 +1010,259 @@
       </c>
     </row>
     <row r="24">
-      <c r="A24" t="inlineStr">
-        <is>
-          <t>KRW-XRP</t>
-        </is>
-      </c>
-      <c r="B24" t="n">
-        <v>1135</v>
-      </c>
-      <c r="C24" t="n">
+      <c r="A24" s="0" t="inlineStr">
+        <is>
+          <t>KRW-XRP</t>
+        </is>
+      </c>
+      <c r="B24" s="0" t="n">
+        <v>1135</v>
+      </c>
+      <c r="C24" s="0" t="n">
         <v>907.8</v>
       </c>
       <c r="D24" s="6" t="n">
-        <v>44601.41838774146</v>
+        <v>44601.41838774306</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="0" t="inlineStr">
+        <is>
+          <t>KRW-ETH</t>
+        </is>
+      </c>
+      <c r="B25" s="0" t="n">
+        <v>3921500</v>
+      </c>
+      <c r="C25" s="0" t="n">
+        <v>3741800</v>
+      </c>
+      <c r="D25" s="6" t="n">
+        <v>44601.48277252315</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="0" t="inlineStr">
+        <is>
+          <t>KRW-XRP</t>
+        </is>
+      </c>
+      <c r="B26" s="0" t="n">
+        <v>1135</v>
+      </c>
+      <c r="C26" s="0" t="n">
+        <v>907.8</v>
+      </c>
+      <c r="D26" s="6" t="n">
+        <v>44601.4829409838</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="0" t="inlineStr">
+        <is>
+          <t>KRW-XRP</t>
+        </is>
+      </c>
+      <c r="B27" s="0" t="n">
+        <v>1135</v>
+      </c>
+      <c r="C27" s="0" t="n">
+        <v>907.8</v>
+      </c>
+      <c r="D27" s="6" t="n">
+        <v>44601.4837284375</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="0" t="inlineStr">
+        <is>
+          <t>KRW-XRP</t>
+        </is>
+      </c>
+      <c r="B28" s="0" t="n">
+        <v>1135</v>
+      </c>
+      <c r="C28" s="0" t="n">
+        <v>907.8</v>
+      </c>
+      <c r="D28" s="6" t="n">
+        <v>44601.48426935185</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="0" t="inlineStr">
+        <is>
+          <t>KRW-XRP</t>
+        </is>
+      </c>
+      <c r="B29" s="0" t="n">
+        <v>1135</v>
+      </c>
+      <c r="C29" s="0" t="n">
+        <v>907.8</v>
+      </c>
+      <c r="D29" s="6" t="n">
+        <v>44601.48440020833</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="0" t="inlineStr">
+        <is>
+          <t>KRW-XRP</t>
+        </is>
+      </c>
+      <c r="B30" s="0" t="n">
+        <v>1135</v>
+      </c>
+      <c r="C30" s="0" t="n">
+        <v>907.8</v>
+      </c>
+      <c r="D30" s="6" t="n">
+        <v>44601.48532177084</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="0" t="inlineStr">
+        <is>
+          <t>KRW-XRP</t>
+        </is>
+      </c>
+      <c r="B31" s="0" t="n">
+        <v>1135</v>
+      </c>
+      <c r="C31" s="0" t="n">
+        <v>907.8</v>
+      </c>
+      <c r="D31" s="6" t="n">
+        <v>44601.48579928241</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="0" t="inlineStr">
+        <is>
+          <t>KRW-ETH</t>
+        </is>
+      </c>
+      <c r="B32" s="0" t="n">
+        <v>3921500</v>
+      </c>
+      <c r="C32" s="0" t="n">
+        <v>3741800</v>
+      </c>
+      <c r="D32" s="6" t="n">
+        <v>44601.48601739584</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="0" t="inlineStr">
+        <is>
+          <t>KRW-XRP</t>
+        </is>
+      </c>
+      <c r="B33" s="0" t="n">
+        <v>1135</v>
+      </c>
+      <c r="C33" s="0" t="n">
+        <v>907.8</v>
+      </c>
+      <c r="D33" s="6" t="n">
+        <v>44601.48618549768</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="0" t="inlineStr">
+        <is>
+          <t>KRW-XRP</t>
+        </is>
+      </c>
+      <c r="B34" s="0" t="n">
+        <v>1135</v>
+      </c>
+      <c r="C34" s="0" t="n">
+        <v>907.8</v>
+      </c>
+      <c r="D34" s="6" t="n">
+        <v>44601.55492336806</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="0" t="inlineStr">
+        <is>
+          <t>KRW-XRP</t>
+        </is>
+      </c>
+      <c r="B35" s="0" t="n">
+        <v>1135</v>
+      </c>
+      <c r="C35" s="0" t="n">
+        <v>907.8</v>
+      </c>
+      <c r="D35" s="6" t="n">
+        <v>44601.55619089121</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="0" t="inlineStr">
+        <is>
+          <t>KRW-XRP</t>
+        </is>
+      </c>
+      <c r="B36" s="0" t="n">
+        <v>1135</v>
+      </c>
+      <c r="C36" s="0" t="n">
+        <v>907.8</v>
+      </c>
+      <c r="D36" s="6" t="n">
+        <v>44601.55749259259</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="0" t="inlineStr">
+        <is>
+          <t>KRW-XRP</t>
+        </is>
+      </c>
+      <c r="B37" s="0" t="n">
+        <v>1135</v>
+      </c>
+      <c r="C37" s="0" t="n">
+        <v>907.8</v>
+      </c>
+      <c r="D37" s="6" t="n">
+        <v>44601.55795956019</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="0" t="inlineStr">
+        <is>
+          <t>KRW-XRP</t>
+        </is>
+      </c>
+      <c r="B38" s="0" t="n">
+        <v>1135</v>
+      </c>
+      <c r="C38" s="0" t="n">
+        <v>907.8</v>
+      </c>
+      <c r="D38" s="6" t="n">
+        <v>44601.57141011574</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>KRW-XRP</t>
+        </is>
+      </c>
+      <c r="B39" t="n">
+        <v>1135</v>
+      </c>
+      <c r="C39" t="n">
+        <v>907.8</v>
+      </c>
+      <c r="D39" s="6" t="n">
+        <v>44601.57301973009</v>
       </c>
     </row>
   </sheetData>

--- a/upbitRecord.xlsx
+++ b/upbitRecord.xlsx
@@ -471,7 +471,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H5"/>
+  <dimension ref="A1:H10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A12" sqref="A12"/>
@@ -642,6 +642,176 @@
         </is>
       </c>
     </row>
+    <row r="6">
+      <c r="A6" s="0" t="inlineStr">
+        <is>
+          <t>2022-02-09</t>
+        </is>
+      </c>
+      <c r="B6" s="0" t="inlineStr">
+        <is>
+          <t>13:55:38</t>
+        </is>
+      </c>
+      <c r="C6" s="0" t="inlineStr">
+        <is>
+          <t>이더리움클래식</t>
+        </is>
+      </c>
+      <c r="D6" s="0" t="inlineStr">
+        <is>
+          <t>매수</t>
+        </is>
+      </c>
+      <c r="E6" s="0" t="inlineStr">
+        <is>
+          <t>110670.6658</t>
+        </is>
+      </c>
+      <c r="F6" s="0" t="inlineStr">
+        <is>
+          <t>082a421a-e786-4299-a80b-3e1073f8ea0e</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="0" t="inlineStr">
+        <is>
+          <t>2022-02-09</t>
+        </is>
+      </c>
+      <c r="B7" s="0" t="inlineStr">
+        <is>
+          <t>13:55:38</t>
+        </is>
+      </c>
+      <c r="C7" s="0" t="inlineStr">
+        <is>
+          <t>이더리움클래식</t>
+        </is>
+      </c>
+      <c r="D7" s="0" t="inlineStr">
+        <is>
+          <t>매수</t>
+        </is>
+      </c>
+      <c r="E7" s="0" t="inlineStr">
+        <is>
+          <t>110670.6658</t>
+        </is>
+      </c>
+      <c r="F7" s="0" t="inlineStr">
+        <is>
+          <t>082a421a-e786-4299-a80b-3e1073f8ea0e</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="0" t="inlineStr">
+        <is>
+          <t>2022-02-09</t>
+        </is>
+      </c>
+      <c r="B8" s="0" t="inlineStr">
+        <is>
+          <t>13:55:38</t>
+        </is>
+      </c>
+      <c r="C8" s="0" t="inlineStr">
+        <is>
+          <t>이더리움클래식</t>
+        </is>
+      </c>
+      <c r="D8" s="0" t="inlineStr">
+        <is>
+          <t>매수</t>
+        </is>
+      </c>
+      <c r="E8" s="0" t="inlineStr">
+        <is>
+          <t>110670.6658</t>
+        </is>
+      </c>
+      <c r="F8" s="0" t="inlineStr">
+        <is>
+          <t>082a421a-e786-4299-a80b-3e1073f8ea0e</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="0" t="inlineStr">
+        <is>
+          <t>2022-02-09</t>
+        </is>
+      </c>
+      <c r="B9" s="0" t="inlineStr">
+        <is>
+          <t>13:55:38</t>
+        </is>
+      </c>
+      <c r="C9" s="0" t="inlineStr">
+        <is>
+          <t>이더리움클래식</t>
+        </is>
+      </c>
+      <c r="D9" s="0" t="inlineStr">
+        <is>
+          <t>매수</t>
+        </is>
+      </c>
+      <c r="E9" s="0" t="inlineStr">
+        <is>
+          <t>110670.6658</t>
+        </is>
+      </c>
+      <c r="F9" s="0" t="inlineStr">
+        <is>
+          <t>082a421a-e786-4299-a80b-3e1073f8ea0e</t>
+        </is>
+      </c>
+      <c r="G9" s="0" t="inlineStr">
+        <is>
+          <t>1040</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="0" t="inlineStr">
+        <is>
+          <t>2022-02-09</t>
+        </is>
+      </c>
+      <c r="B10" s="0" t="inlineStr">
+        <is>
+          <t>13:55:38</t>
+        </is>
+      </c>
+      <c r="C10" s="0" t="inlineStr">
+        <is>
+          <t>이더리움클래식</t>
+        </is>
+      </c>
+      <c r="D10" s="0" t="inlineStr">
+        <is>
+          <t>매수</t>
+        </is>
+      </c>
+      <c r="E10" s="0" t="inlineStr">
+        <is>
+          <t>110670.6658</t>
+        </is>
+      </c>
+      <c r="F10" s="0" t="inlineStr">
+        <is>
+          <t>082a421a-e786-4299-a80b-3e1073f8ea0e</t>
+        </is>
+      </c>
+      <c r="G10" s="0" t="inlineStr">
+        <is>
+          <t>41160</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -653,7 +823,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D39"/>
+  <dimension ref="A1:D54"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="F20" sqref="F20"/>
@@ -1250,19 +1420,259 @@
       </c>
     </row>
     <row r="39">
-      <c r="A39" t="inlineStr">
-        <is>
-          <t>KRW-XRP</t>
-        </is>
-      </c>
-      <c r="B39" t="n">
+      <c r="A39" s="0" t="inlineStr">
+        <is>
+          <t>KRW-XRP</t>
+        </is>
+      </c>
+      <c r="B39" s="0" t="n">
         <v>1135</v>
       </c>
-      <c r="C39" t="n">
+      <c r="C39" s="0" t="n">
         <v>907.8</v>
       </c>
       <c r="D39" s="6" t="n">
-        <v>44601.57301973009</v>
+        <v>44601.5730197338</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="0" t="inlineStr">
+        <is>
+          <t>KRW-BORA</t>
+        </is>
+      </c>
+      <c r="B40" s="0" t="n">
+        <v>1692.5</v>
+      </c>
+      <c r="C40" s="0" t="n">
+        <v>1530</v>
+      </c>
+      <c r="D40" s="6" t="n">
+        <v>44601.57718226852</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="0" t="inlineStr">
+        <is>
+          <t>KRW-BORA</t>
+        </is>
+      </c>
+      <c r="B41" s="0" t="n">
+        <v>1692.5</v>
+      </c>
+      <c r="C41" s="0" t="n">
+        <v>1530</v>
+      </c>
+      <c r="D41" s="6" t="n">
+        <v>44601.5786025</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="0" t="inlineStr">
+        <is>
+          <t>KRW-XRP</t>
+        </is>
+      </c>
+      <c r="B42" s="0" t="n">
+        <v>1135</v>
+      </c>
+      <c r="C42" s="0" t="n">
+        <v>907.8</v>
+      </c>
+      <c r="D42" s="6" t="n">
+        <v>44601.63494277777</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="0" t="inlineStr">
+        <is>
+          <t>KRW-XRP</t>
+        </is>
+      </c>
+      <c r="B43" s="0" t="n">
+        <v>1135</v>
+      </c>
+      <c r="C43" s="0" t="n">
+        <v>907.8</v>
+      </c>
+      <c r="D43" s="6" t="n">
+        <v>44601.63601146991</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="0" t="inlineStr">
+        <is>
+          <t>KRW-ETH</t>
+        </is>
+      </c>
+      <c r="B44" s="0" t="n">
+        <v>3921500</v>
+      </c>
+      <c r="C44" s="0" t="n">
+        <v>3741800</v>
+      </c>
+      <c r="D44" s="6" t="n">
+        <v>44601.63768543981</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="0" t="inlineStr">
+        <is>
+          <t>KRW-ETH</t>
+        </is>
+      </c>
+      <c r="B45" s="0" t="n">
+        <v>3921500</v>
+      </c>
+      <c r="C45" s="0" t="n">
+        <v>3741800</v>
+      </c>
+      <c r="D45" s="6" t="n">
+        <v>44601.63831017361</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="0" t="inlineStr">
+        <is>
+          <t>KRW-WAVES</t>
+        </is>
+      </c>
+      <c r="B46" s="0" t="n">
+        <v>13540</v>
+      </c>
+      <c r="C46" s="0" t="n">
+        <v>12610</v>
+      </c>
+      <c r="D46" s="6" t="n">
+        <v>44601.64621123843</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="0" t="inlineStr">
+        <is>
+          <t>KRW-XRP</t>
+        </is>
+      </c>
+      <c r="B47" s="0" t="n">
+        <v>1135</v>
+      </c>
+      <c r="C47" s="0" t="n">
+        <v>907.8</v>
+      </c>
+      <c r="D47" s="6" t="n">
+        <v>44601.67166594908</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="0" t="inlineStr">
+        <is>
+          <t>KRW-ETC</t>
+        </is>
+      </c>
+      <c r="B48" s="0" t="n">
+        <v>40880</v>
+      </c>
+      <c r="C48" s="0" t="n">
+        <v>37570</v>
+      </c>
+      <c r="D48" s="6" t="n">
+        <v>44601.67844353009</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="0" t="inlineStr">
+        <is>
+          <t>KRW-WAVES</t>
+        </is>
+      </c>
+      <c r="B49" s="0" t="n">
+        <v>13540</v>
+      </c>
+      <c r="C49" s="0" t="n">
+        <v>12610</v>
+      </c>
+      <c r="D49" s="6" t="n">
+        <v>44601.68535065973</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="0" t="inlineStr">
+        <is>
+          <t>KRW-WAVES</t>
+        </is>
+      </c>
+      <c r="B50" s="0" t="n">
+        <v>13540</v>
+      </c>
+      <c r="C50" s="0" t="n">
+        <v>12610</v>
+      </c>
+      <c r="D50" s="6" t="n">
+        <v>44601.68640888889</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="0" t="inlineStr">
+        <is>
+          <t>KRW-WAVES</t>
+        </is>
+      </c>
+      <c r="B51" s="0" t="n">
+        <v>13540</v>
+      </c>
+      <c r="C51" s="0" t="n">
+        <v>12610</v>
+      </c>
+      <c r="D51" s="6" t="n">
+        <v>44601.68904278935</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="0" t="inlineStr">
+        <is>
+          <t>KRW-WAVES</t>
+        </is>
+      </c>
+      <c r="B52" s="0" t="n">
+        <v>13540</v>
+      </c>
+      <c r="C52" s="0" t="n">
+        <v>12610</v>
+      </c>
+      <c r="D52" s="6" t="n">
+        <v>44601.69303079861</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="0" t="inlineStr">
+        <is>
+          <t>KRW-WEMIX</t>
+        </is>
+      </c>
+      <c r="B53" s="0" t="n">
+        <v>8882.5</v>
+      </c>
+      <c r="C53" s="0" t="n">
+        <v>7750</v>
+      </c>
+      <c r="D53" s="6" t="n">
+        <v>44601.70851663194</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="inlineStr">
+        <is>
+          <t>KRW-WEMIX</t>
+        </is>
+      </c>
+      <c r="B54" t="n">
+        <v>10767.5</v>
+      </c>
+      <c r="C54" t="n">
+        <v>8503</v>
+      </c>
+      <c r="D54" s="6" t="n">
+        <v>44601.73158772704</v>
       </c>
     </row>
   </sheetData>

--- a/upbitRecord.xlsx
+++ b/upbitRecord.xlsx
@@ -471,7 +471,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H10"/>
+  <dimension ref="A1:H23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A12" sqref="A12"/>
@@ -812,6 +812,422 @@
         </is>
       </c>
     </row>
+    <row r="11">
+      <c r="A11" s="0" t="inlineStr">
+        <is>
+          <t>2022-02-09</t>
+        </is>
+      </c>
+      <c r="B11" s="0" t="inlineStr">
+        <is>
+          <t>21:44:34</t>
+        </is>
+      </c>
+      <c r="C11" s="0" t="inlineStr">
+        <is>
+          <t>KRW-XRP</t>
+        </is>
+      </c>
+      <c r="D11" s="0" t="inlineStr">
+        <is>
+          <t>매도</t>
+        </is>
+      </c>
+      <c r="E11" s="0" t="inlineStr">
+        <is>
+          <t>4.8534888</t>
+        </is>
+      </c>
+      <c r="F11" s="0" t="inlineStr">
+        <is>
+          <t>444a70da-0365-4607-a66a-73cdd45a4e21</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="0" t="inlineStr">
+        <is>
+          <t>2022-02-09</t>
+        </is>
+      </c>
+      <c r="B12" s="0" t="inlineStr">
+        <is>
+          <t>21:54:54</t>
+        </is>
+      </c>
+      <c r="C12" s="0" t="inlineStr">
+        <is>
+          <t>KRW-XRP</t>
+        </is>
+      </c>
+      <c r="D12" s="0" t="inlineStr">
+        <is>
+          <t>매수</t>
+        </is>
+      </c>
+      <c r="E12" s="0" t="inlineStr">
+        <is>
+          <t>5212.2153</t>
+        </is>
+      </c>
+      <c r="F12" s="0" t="inlineStr">
+        <is>
+          <t>6ff17436-f504-4e7f-b09a-264a09bf94c2</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="0" t="inlineStr">
+        <is>
+          <t>2022-02-10</t>
+        </is>
+      </c>
+      <c r="B13" s="0" t="inlineStr">
+        <is>
+          <t>07:06:22</t>
+        </is>
+      </c>
+      <c r="C13" s="0" t="inlineStr">
+        <is>
+          <t>KRW-WAVES</t>
+        </is>
+      </c>
+      <c r="D13" s="0" t="inlineStr">
+        <is>
+          <t>매수</t>
+        </is>
+      </c>
+      <c r="E13" s="0" t="inlineStr">
+        <is>
+          <t>10000.0</t>
+        </is>
+      </c>
+      <c r="F13" s="0" t="inlineStr">
+        <is>
+          <t>4c3d3cec-56e9-4eb9-b9f9-4383a3007b4f</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="0" t="inlineStr">
+        <is>
+          <t>2022-02-10</t>
+        </is>
+      </c>
+      <c r="B14" s="0" t="inlineStr">
+        <is>
+          <t>07:06:58</t>
+        </is>
+      </c>
+      <c r="C14" s="0" t="inlineStr">
+        <is>
+          <t>KRW-WAVES</t>
+        </is>
+      </c>
+      <c r="D14" s="0" t="inlineStr">
+        <is>
+          <t>매수</t>
+        </is>
+      </c>
+      <c r="E14" s="0" t="inlineStr">
+        <is>
+          <t>10000.0</t>
+        </is>
+      </c>
+      <c r="F14" s="0" t="inlineStr">
+        <is>
+          <t>ba08ce51-cb08-431b-b5ef-e0bacff45b25</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="0" t="inlineStr">
+        <is>
+          <t>2022-02-10</t>
+        </is>
+      </c>
+      <c r="B15" s="0" t="inlineStr">
+        <is>
+          <t>07:07:33</t>
+        </is>
+      </c>
+      <c r="C15" s="0" t="inlineStr">
+        <is>
+          <t>KRW-XRP</t>
+        </is>
+      </c>
+      <c r="D15" s="0" t="inlineStr">
+        <is>
+          <t>매수</t>
+        </is>
+      </c>
+      <c r="E15" s="0" t="inlineStr">
+        <is>
+          <t>10000.0</t>
+        </is>
+      </c>
+      <c r="F15" s="0" t="inlineStr">
+        <is>
+          <t>d8554c33-24fa-44d6-a94b-654648f993b7</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="0" t="inlineStr">
+        <is>
+          <t>2022-02-10</t>
+        </is>
+      </c>
+      <c r="B16" s="0" t="inlineStr">
+        <is>
+          <t>07:07:35</t>
+        </is>
+      </c>
+      <c r="C16" s="0" t="inlineStr">
+        <is>
+          <t>KRW-WAVES</t>
+        </is>
+      </c>
+      <c r="D16" s="0" t="inlineStr">
+        <is>
+          <t>매수</t>
+        </is>
+      </c>
+      <c r="E16" s="0" t="inlineStr">
+        <is>
+          <t>10000.0</t>
+        </is>
+      </c>
+      <c r="F16" s="0" t="inlineStr">
+        <is>
+          <t>76d4f85e-2a4d-4af8-b074-cb6b4346fae4</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="0" t="inlineStr">
+        <is>
+          <t>2022-02-10</t>
+        </is>
+      </c>
+      <c r="B17" s="0" t="inlineStr">
+        <is>
+          <t>07:07:36</t>
+        </is>
+      </c>
+      <c r="C17" s="0" t="inlineStr">
+        <is>
+          <t>KRW-SAND</t>
+        </is>
+      </c>
+      <c r="D17" s="0" t="inlineStr">
+        <is>
+          <t>매수</t>
+        </is>
+      </c>
+      <c r="E17" s="0" t="inlineStr">
+        <is>
+          <t>10000.0</t>
+        </is>
+      </c>
+      <c r="F17" s="0" t="inlineStr">
+        <is>
+          <t>f8681527-0c7a-40f1-ab31-37a46f547206</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="0" t="inlineStr">
+        <is>
+          <t>2022-02-10</t>
+        </is>
+      </c>
+      <c r="B18" s="0" t="inlineStr">
+        <is>
+          <t>07:08:09</t>
+        </is>
+      </c>
+      <c r="C18" s="0" t="inlineStr">
+        <is>
+          <t>KRW-XRP</t>
+        </is>
+      </c>
+      <c r="D18" s="0" t="inlineStr">
+        <is>
+          <t>매수</t>
+        </is>
+      </c>
+      <c r="E18" s="0" t="inlineStr">
+        <is>
+          <t>10000.0</t>
+        </is>
+      </c>
+      <c r="F18" s="0" t="inlineStr">
+        <is>
+          <t>1ab51fbf-78d0-46af-b163-57aa7466d865</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="0" t="inlineStr">
+        <is>
+          <t>2022-02-10</t>
+        </is>
+      </c>
+      <c r="B19" s="0" t="inlineStr">
+        <is>
+          <t>07:08:11</t>
+        </is>
+      </c>
+      <c r="C19" s="0" t="inlineStr">
+        <is>
+          <t>KRW-WAVES</t>
+        </is>
+      </c>
+      <c r="D19" s="0" t="inlineStr">
+        <is>
+          <t>매수</t>
+        </is>
+      </c>
+      <c r="E19" s="0" t="inlineStr">
+        <is>
+          <t>10000.0</t>
+        </is>
+      </c>
+      <c r="F19" s="0" t="inlineStr">
+        <is>
+          <t>b0db772e-8f0d-4191-b84b-7f4467d782ab</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="0" t="inlineStr">
+        <is>
+          <t>2022-02-10</t>
+        </is>
+      </c>
+      <c r="B20" s="0" t="inlineStr">
+        <is>
+          <t>07:08:12</t>
+        </is>
+      </c>
+      <c r="C20" s="0" t="inlineStr">
+        <is>
+          <t>KRW-SAND</t>
+        </is>
+      </c>
+      <c r="D20" s="0" t="inlineStr">
+        <is>
+          <t>매수</t>
+        </is>
+      </c>
+      <c r="E20" s="0" t="inlineStr">
+        <is>
+          <t>10000.0</t>
+        </is>
+      </c>
+      <c r="F20" s="0" t="inlineStr">
+        <is>
+          <t>f129d5d6-84b9-4287-862b-1b8c459e5492</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="0" t="inlineStr">
+        <is>
+          <t>2022-02-10</t>
+        </is>
+      </c>
+      <c r="B21" s="0" t="inlineStr">
+        <is>
+          <t>07:08:48</t>
+        </is>
+      </c>
+      <c r="C21" s="0" t="inlineStr">
+        <is>
+          <t>KRW-WAVES</t>
+        </is>
+      </c>
+      <c r="D21" s="0" t="inlineStr">
+        <is>
+          <t>매수</t>
+        </is>
+      </c>
+      <c r="E21" s="0" t="inlineStr">
+        <is>
+          <t>10000.0</t>
+        </is>
+      </c>
+      <c r="F21" s="0" t="inlineStr">
+        <is>
+          <t>397023da-cbc6-445b-a575-44d8fe385c19</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="0" t="inlineStr">
+        <is>
+          <t>2022-02-10</t>
+        </is>
+      </c>
+      <c r="B22" s="0" t="inlineStr">
+        <is>
+          <t>07:09:25</t>
+        </is>
+      </c>
+      <c r="C22" s="0" t="inlineStr">
+        <is>
+          <t>KRW-WAVES</t>
+        </is>
+      </c>
+      <c r="D22" s="0" t="inlineStr">
+        <is>
+          <t>매수</t>
+        </is>
+      </c>
+      <c r="E22" s="0" t="inlineStr">
+        <is>
+          <t>10000.0</t>
+        </is>
+      </c>
+      <c r="F22" s="0" t="inlineStr">
+        <is>
+          <t>184b5087-0041-45cc-bd75-3d302b749511</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="0" t="inlineStr">
+        <is>
+          <t>2022-02-10</t>
+        </is>
+      </c>
+      <c r="B23" s="0" t="inlineStr">
+        <is>
+          <t>07:09:26</t>
+        </is>
+      </c>
+      <c r="C23" s="0" t="inlineStr">
+        <is>
+          <t>KRW-SAND</t>
+        </is>
+      </c>
+      <c r="D23" s="0" t="inlineStr">
+        <is>
+          <t>매수</t>
+        </is>
+      </c>
+      <c r="E23" s="0" t="inlineStr">
+        <is>
+          <t>10000.0</t>
+        </is>
+      </c>
+      <c r="F23" s="0" t="inlineStr">
+        <is>
+          <t>d545f2f0-2389-4109-a313-97e5fef2fff9</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -823,7 +1239,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D54"/>
+  <dimension ref="A1:D69"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="F20" sqref="F20"/>
@@ -1660,19 +2076,259 @@
       </c>
     </row>
     <row r="54">
-      <c r="A54" t="inlineStr">
+      <c r="A54" s="0" t="inlineStr">
         <is>
           <t>KRW-WEMIX</t>
         </is>
       </c>
-      <c r="B54" t="n">
+      <c r="B54" s="0" t="n">
         <v>10767.5</v>
       </c>
-      <c r="C54" t="n">
+      <c r="C54" s="0" t="n">
         <v>8503</v>
       </c>
       <c r="D54" s="6" t="n">
-        <v>44601.73158772704</v>
+        <v>44601.73158773148</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="0" t="inlineStr">
+        <is>
+          <t>KRW-WEMIX</t>
+        </is>
+      </c>
+      <c r="B55" s="0" t="n">
+        <v>10767.5</v>
+      </c>
+      <c r="C55" s="0" t="n">
+        <v>8503</v>
+      </c>
+      <c r="D55" s="6" t="n">
+        <v>44601.73961967593</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="0" t="inlineStr">
+        <is>
+          <t>KRW-WEMIX</t>
+        </is>
+      </c>
+      <c r="B56" s="0" t="n">
+        <v>9447.5</v>
+      </c>
+      <c r="C56" s="0" t="n">
+        <v>8652</v>
+      </c>
+      <c r="D56" s="6" t="n">
+        <v>44601.77413966435</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="0" t="inlineStr">
+        <is>
+          <t>KRW-FLOW</t>
+        </is>
+      </c>
+      <c r="B57" s="0" t="n">
+        <v>9840</v>
+      </c>
+      <c r="C57" s="0" t="n">
+        <v>8943</v>
+      </c>
+      <c r="D57" s="6" t="n">
+        <v>44601.89916591435</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="0" t="inlineStr">
+        <is>
+          <t>KRW-XRP</t>
+        </is>
+      </c>
+      <c r="B58" s="0" t="n">
+        <v>1047.5</v>
+      </c>
+      <c r="C58" s="0" t="n">
+        <v>1039</v>
+      </c>
+      <c r="D58" s="6" t="n">
+        <v>44601.91312703703</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="0" t="inlineStr">
+        <is>
+          <t>KRW-WAVES</t>
+        </is>
+      </c>
+      <c r="B59" s="0" t="n">
+        <v>14390</v>
+      </c>
+      <c r="C59" s="0" t="n">
+        <v>14234</v>
+      </c>
+      <c r="D59" s="6" t="n">
+        <v>44602.29608865741</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="0" t="inlineStr">
+        <is>
+          <t>KRW-WAVES</t>
+        </is>
+      </c>
+      <c r="B60" s="0" t="n">
+        <v>14390</v>
+      </c>
+      <c r="C60" s="0" t="n">
+        <v>14234</v>
+      </c>
+      <c r="D60" s="6" t="n">
+        <v>44602.29650474537</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="0" t="inlineStr">
+        <is>
+          <t>KRW-XRP</t>
+        </is>
+      </c>
+      <c r="B61" s="0" t="n">
+        <v>1080</v>
+      </c>
+      <c r="C61" s="0" t="n">
+        <v>1078</v>
+      </c>
+      <c r="D61" s="6" t="n">
+        <v>44602.29691423611</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="0" t="inlineStr">
+        <is>
+          <t>KRW-WAVES</t>
+        </is>
+      </c>
+      <c r="B62" s="0" t="n">
+        <v>14390</v>
+      </c>
+      <c r="C62" s="0" t="n">
+        <v>14234</v>
+      </c>
+      <c r="D62" s="6" t="n">
+        <v>44602.29693200231</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="0" t="inlineStr">
+        <is>
+          <t>KRW-SAND</t>
+        </is>
+      </c>
+      <c r="B63" s="0" t="n">
+        <v>5765</v>
+      </c>
+      <c r="C63" s="0" t="n">
+        <v>5716</v>
+      </c>
+      <c r="D63" s="6" t="n">
+        <v>44602.29694398148</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="0" t="inlineStr">
+        <is>
+          <t>KRW-XRP</t>
+        </is>
+      </c>
+      <c r="B64" s="0" t="n">
+        <v>1080</v>
+      </c>
+      <c r="C64" s="0" t="n">
+        <v>1078</v>
+      </c>
+      <c r="D64" s="6" t="n">
+        <v>44602.29733469908</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="0" t="inlineStr">
+        <is>
+          <t>KRW-WAVES</t>
+        </is>
+      </c>
+      <c r="B65" s="0" t="n">
+        <v>14390</v>
+      </c>
+      <c r="C65" s="0" t="n">
+        <v>14234</v>
+      </c>
+      <c r="D65" s="6" t="n">
+        <v>44602.29735072917</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="0" t="inlineStr">
+        <is>
+          <t>KRW-SAND</t>
+        </is>
+      </c>
+      <c r="B66" s="0" t="n">
+        <v>5765</v>
+      </c>
+      <c r="C66" s="0" t="n">
+        <v>5716</v>
+      </c>
+      <c r="D66" s="6" t="n">
+        <v>44602.29736428241</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="0" t="inlineStr">
+        <is>
+          <t>KRW-WAVES</t>
+        </is>
+      </c>
+      <c r="B67" s="0" t="n">
+        <v>14390</v>
+      </c>
+      <c r="C67" s="0" t="n">
+        <v>14234</v>
+      </c>
+      <c r="D67" s="6" t="n">
+        <v>44602.29778336806</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="0" t="inlineStr">
+        <is>
+          <t>KRW-WAVES</t>
+        </is>
+      </c>
+      <c r="B68" s="0" t="n">
+        <v>14390</v>
+      </c>
+      <c r="C68" s="0" t="n">
+        <v>14234</v>
+      </c>
+      <c r="D68" s="6" t="n">
+        <v>44602.2982105787</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="inlineStr">
+        <is>
+          <t>KRW-SAND</t>
+        </is>
+      </c>
+      <c r="B69" t="n">
+        <v>5765</v>
+      </c>
+      <c r="C69" t="n">
+        <v>5716</v>
+      </c>
+      <c r="D69" s="6" t="n">
+        <v>44602.29822403163</v>
       </c>
     </row>
   </sheetData>

--- a/upbitRecord.xlsx
+++ b/upbitRecord.xlsx
@@ -471,7 +471,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H23"/>
+  <dimension ref="A1:H25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A12" sqref="A12"/>
@@ -1228,6 +1228,70 @@
         </is>
       </c>
     </row>
+    <row r="24">
+      <c r="A24" s="0" t="inlineStr">
+        <is>
+          <t>2022-02-12</t>
+        </is>
+      </c>
+      <c r="B24" s="0" t="inlineStr">
+        <is>
+          <t>21:46:56</t>
+        </is>
+      </c>
+      <c r="C24" s="0" t="inlineStr">
+        <is>
+          <t>KRW-STRK</t>
+        </is>
+      </c>
+      <c r="D24" s="0" t="inlineStr">
+        <is>
+          <t>매수</t>
+        </is>
+      </c>
+      <c r="E24" s="0" t="inlineStr">
+        <is>
+          <t>10731.0</t>
+        </is>
+      </c>
+      <c r="F24" s="0" t="inlineStr">
+        <is>
+          <t>e2e09f78-b451-4430-af97-abef1dd5b7f1</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>2022-02-13</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>09:04:22</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>KRW-STRK</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>매도</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>0.48524233</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>88d9f1b0-be10-4cb2-aa72-fa3eeb406b2d</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1239,7 +1303,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D69"/>
+  <dimension ref="A1:E70"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="F20" sqref="F20"/>
@@ -2316,19 +2380,38 @@
       </c>
     </row>
     <row r="69">
-      <c r="A69" t="inlineStr">
+      <c r="A69" s="0" t="inlineStr">
         <is>
           <t>KRW-SAND</t>
         </is>
       </c>
-      <c r="B69" t="n">
+      <c r="B69" s="0" t="n">
         <v>5765</v>
       </c>
-      <c r="C69" t="n">
+      <c r="C69" s="0" t="n">
         <v>5716</v>
       </c>
       <c r="D69" s="6" t="n">
-        <v>44602.29822403163</v>
+        <v>44602.29822402778</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="0" t="inlineStr">
+        <is>
+          <t>KRW-STRK</t>
+        </is>
+      </c>
+      <c r="B70" s="0" t="n">
+        <v>44810</v>
+      </c>
+      <c r="C70" s="0" t="n">
+        <v>44758</v>
+      </c>
+      <c r="D70" s="6" t="n">
+        <v>44604.90759403935</v>
+      </c>
+      <c r="E70" s="0" t="n">
+        <v>10731</v>
       </c>
     </row>
   </sheetData>

--- a/upbitRecord.xlsx
+++ b/upbitRecord.xlsx
@@ -473,7 +473,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H43"/>
+  <dimension ref="A1:H50"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A12" sqref="A12"/>
@@ -1870,6 +1870,230 @@
         </is>
       </c>
     </row>
+    <row r="44">
+      <c r="A44" s="0" t="inlineStr">
+        <is>
+          <t>2022-02-14</t>
+        </is>
+      </c>
+      <c r="B44" s="0" t="inlineStr">
+        <is>
+          <t>17:39:36</t>
+        </is>
+      </c>
+      <c r="C44" s="0" t="inlineStr">
+        <is>
+          <t>KRW-XRP</t>
+        </is>
+      </c>
+      <c r="D44" s="0" t="inlineStr">
+        <is>
+          <t>매수</t>
+        </is>
+      </c>
+      <c r="E44" s="0" t="inlineStr">
+        <is>
+          <t>10627.0</t>
+        </is>
+      </c>
+      <c r="F44" s="0" t="inlineStr">
+        <is>
+          <t>9c68a327-011f-40c7-aaab-7fb3e6a82e24</t>
+        </is>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="0" t="inlineStr">
+        <is>
+          <t>2022-02-14</t>
+        </is>
+      </c>
+      <c r="B45" s="0" t="inlineStr">
+        <is>
+          <t>17:53:00</t>
+        </is>
+      </c>
+      <c r="C45" s="0" t="inlineStr">
+        <is>
+          <t>KRW-XRP</t>
+        </is>
+      </c>
+      <c r="D45" s="0" t="inlineStr">
+        <is>
+          <t>매수</t>
+        </is>
+      </c>
+      <c r="E45" s="0" t="inlineStr">
+        <is>
+          <t>10622.0</t>
+        </is>
+      </c>
+      <c r="F45" s="0" t="inlineStr">
+        <is>
+          <t>3ec23625-253e-4bd9-b121-c553c77e79bd</t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="0" t="inlineStr">
+        <is>
+          <t>2022-02-14</t>
+        </is>
+      </c>
+      <c r="B46" s="0" t="inlineStr">
+        <is>
+          <t>17:55:37</t>
+        </is>
+      </c>
+      <c r="C46" s="0" t="inlineStr">
+        <is>
+          <t>KRW-XRP</t>
+        </is>
+      </c>
+      <c r="D46" s="0" t="inlineStr">
+        <is>
+          <t>매수</t>
+        </is>
+      </c>
+      <c r="E46" s="0" t="inlineStr">
+        <is>
+          <t>10620.0</t>
+        </is>
+      </c>
+      <c r="F46" s="0" t="inlineStr">
+        <is>
+          <t>14c6b3c8-7d34-451c-a15a-8ed956e43efb</t>
+        </is>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="0" t="inlineStr">
+        <is>
+          <t>2022-02-14</t>
+        </is>
+      </c>
+      <c r="B47" s="0" t="inlineStr">
+        <is>
+          <t>18:00:08</t>
+        </is>
+      </c>
+      <c r="C47" s="0" t="inlineStr">
+        <is>
+          <t>KRW-XRP</t>
+        </is>
+      </c>
+      <c r="D47" s="0" t="inlineStr">
+        <is>
+          <t>매수</t>
+        </is>
+      </c>
+      <c r="E47" s="0" t="inlineStr">
+        <is>
+          <t>10616.0</t>
+        </is>
+      </c>
+      <c r="F47" s="0" t="inlineStr">
+        <is>
+          <t>76bf3d98-ba17-4ff7-8d9f-04374860f020</t>
+        </is>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="0" t="inlineStr">
+        <is>
+          <t>2022-02-14</t>
+        </is>
+      </c>
+      <c r="B48" s="0" t="inlineStr">
+        <is>
+          <t>18:18:03</t>
+        </is>
+      </c>
+      <c r="C48" s="0" t="inlineStr">
+        <is>
+          <t>KRW-XRP</t>
+        </is>
+      </c>
+      <c r="D48" s="0" t="inlineStr">
+        <is>
+          <t>매수</t>
+        </is>
+      </c>
+      <c r="E48" s="0" t="inlineStr">
+        <is>
+          <t>10612.0</t>
+        </is>
+      </c>
+      <c r="F48" s="0" t="inlineStr">
+        <is>
+          <t>aad39f65-ab99-4622-ae22-ab2a8973cc35</t>
+        </is>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="0" t="inlineStr">
+        <is>
+          <t>2022-02-14</t>
+        </is>
+      </c>
+      <c r="B49" s="0" t="inlineStr">
+        <is>
+          <t>21:45:42</t>
+        </is>
+      </c>
+      <c r="C49" s="0" t="inlineStr">
+        <is>
+          <t>KRW-XRP</t>
+        </is>
+      </c>
+      <c r="D49" s="0" t="inlineStr">
+        <is>
+          <t>매도</t>
+        </is>
+      </c>
+      <c r="E49" s="0" t="inlineStr">
+        <is>
+          <t>11.06569343</t>
+        </is>
+      </c>
+      <c r="F49" s="0" t="inlineStr">
+        <is>
+          <t>57369706-ab8a-4304-bcde-a3509bb94f63</t>
+        </is>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="0" t="inlineStr">
+        <is>
+          <t>2022-02-14</t>
+        </is>
+      </c>
+      <c r="B50" s="0" t="inlineStr">
+        <is>
+          <t>21:45:45</t>
+        </is>
+      </c>
+      <c r="C50" s="0" t="inlineStr">
+        <is>
+          <t>KRW-XRP</t>
+        </is>
+      </c>
+      <c r="D50" s="0" t="inlineStr">
+        <is>
+          <t>매수</t>
+        </is>
+      </c>
+      <c r="E50" s="0" t="inlineStr">
+        <is>
+          <t>10626.0</t>
+        </is>
+      </c>
+      <c r="F50" s="0" t="inlineStr">
+        <is>
+          <t>3489bed7-7dae-4a51-bff0-8a3b4f842c7b</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1881,7 +2105,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E86"/>
+  <dimension ref="A1:E92"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="F20" sqref="F20"/>
@@ -3296,6 +3520,120 @@
         <v>10632</v>
       </c>
     </row>
+    <row r="87">
+      <c r="A87" s="0" t="inlineStr">
+        <is>
+          <t>KRW-XRP</t>
+        </is>
+      </c>
+      <c r="B87" s="0" t="n">
+        <v>1017.5</v>
+      </c>
+      <c r="C87" s="0" t="n">
+        <v>996.4</v>
+      </c>
+      <c r="D87" s="7" t="n">
+        <v>44606.73583745371</v>
+      </c>
+      <c r="E87" s="0" t="n">
+        <v>10627</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" s="0" t="inlineStr">
+        <is>
+          <t>KRW-XRP</t>
+        </is>
+      </c>
+      <c r="B88" s="0" t="n">
+        <v>1017.5</v>
+      </c>
+      <c r="C88" s="0" t="n">
+        <v>996.4</v>
+      </c>
+      <c r="D88" s="7" t="n">
+        <v>44606.74513364583</v>
+      </c>
+      <c r="E88" s="0" t="n">
+        <v>10622</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" s="0" t="inlineStr">
+        <is>
+          <t>KRW-XRP</t>
+        </is>
+      </c>
+      <c r="B89" s="0" t="n">
+        <v>1017.5</v>
+      </c>
+      <c r="C89" s="0" t="n">
+        <v>996.4</v>
+      </c>
+      <c r="D89" s="7" t="n">
+        <v>44606.74695302083</v>
+      </c>
+      <c r="E89" s="0" t="n">
+        <v>10620</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" s="0" t="inlineStr">
+        <is>
+          <t>KRW-XRP</t>
+        </is>
+      </c>
+      <c r="B90" s="0" t="n">
+        <v>1017.5</v>
+      </c>
+      <c r="C90" s="0" t="n">
+        <v>996.4</v>
+      </c>
+      <c r="D90" s="7" t="n">
+        <v>44606.75009982639</v>
+      </c>
+      <c r="E90" s="0" t="n">
+        <v>10616</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" s="0" t="inlineStr">
+        <is>
+          <t>KRW-XRP</t>
+        </is>
+      </c>
+      <c r="B91" s="0" t="n">
+        <v>1017.5</v>
+      </c>
+      <c r="C91" s="0" t="n">
+        <v>996.4</v>
+      </c>
+      <c r="D91" s="7" t="n">
+        <v>44606.76253762731</v>
+      </c>
+      <c r="E91" s="0" t="n">
+        <v>10612</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" s="0" t="inlineStr">
+        <is>
+          <t>KRW-XRP</t>
+        </is>
+      </c>
+      <c r="B92" s="0" t="n">
+        <v>1017.5</v>
+      </c>
+      <c r="C92" s="0" t="n">
+        <v>996.4</v>
+      </c>
+      <c r="D92" s="7" t="n">
+        <v>44606.90676508102</v>
+      </c>
+      <c r="E92" s="0" t="n">
+        <v>10626</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -3307,7 +3645,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F10"/>
+  <dimension ref="A1:F42"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A120" sqref="A120"/>
@@ -3353,234 +3691,1066 @@
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="inlineStr">
+      <c r="A2" s="0" t="inlineStr">
         <is>
           <t>f553fb4e-614d-4dcd-b3be-3ca7a8c9c19e</t>
         </is>
       </c>
       <c r="B2" s="7" t="n">
-        <v>44606.71858867691</v>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>KRW-XRP</t>
-        </is>
-      </c>
-      <c r="D2" t="n">
+        <v>44606.71858868055</v>
+      </c>
+      <c r="C2" s="0" t="inlineStr">
+        <is>
+          <t>KRW-XRP</t>
+        </is>
+      </c>
+      <c r="D2" s="0" t="n">
         <v>969</v>
       </c>
-      <c r="E2" t="n">
+      <c r="E2" s="0" t="n">
         <v>10.86006129</v>
       </c>
-      <c r="F2" t="inlineStr">
+      <c r="F2" s="0" t="inlineStr">
         <is>
           <t>거미줄매수</t>
         </is>
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="inlineStr">
+      <c r="A3" s="0" t="inlineStr">
         <is>
           <t>cef7c6f3-7440-4d71-9978-758c9431264c</t>
         </is>
       </c>
       <c r="B3" s="7" t="n">
-        <v>44606.71858867691</v>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>KRW-XRP</t>
-        </is>
-      </c>
-      <c r="D3" t="n">
+        <v>44606.71858868055</v>
+      </c>
+      <c r="C3" s="0" t="inlineStr">
+        <is>
+          <t>KRW-XRP</t>
+        </is>
+      </c>
+      <c r="D3" s="0" t="n">
         <v>959</v>
       </c>
-      <c r="E3" t="n">
+      <c r="E3" s="0" t="n">
         <v>10.86006129</v>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" s="0" t="inlineStr">
         <is>
           <t>거미줄매수</t>
         </is>
       </c>
     </row>
     <row r="4">
-      <c r="A4" t="inlineStr">
+      <c r="A4" s="0" t="inlineStr">
         <is>
           <t>43315dc0-2a7a-4b19-b4fd-c370a529a888</t>
         </is>
       </c>
       <c r="B4" s="7" t="n">
-        <v>44606.71858867691</v>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>KRW-XRP</t>
-        </is>
-      </c>
-      <c r="D4" t="n">
+        <v>44606.71858868055</v>
+      </c>
+      <c r="C4" s="0" t="inlineStr">
+        <is>
+          <t>KRW-XRP</t>
+        </is>
+      </c>
+      <c r="D4" s="0" t="n">
         <v>949</v>
       </c>
-      <c r="E4" t="n">
+      <c r="E4" s="0" t="n">
         <v>10.86006129</v>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" s="0" t="inlineStr">
         <is>
           <t>거미줄매수</t>
         </is>
       </c>
     </row>
     <row r="5">
-      <c r="A5" t="inlineStr">
+      <c r="A5" s="0" t="inlineStr">
         <is>
           <t>525d3676-4ab7-4c80-9c2c-ce09f6014136</t>
         </is>
       </c>
       <c r="B5" s="7" t="n">
-        <v>44606.71858867691</v>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>KRW-XRP</t>
-        </is>
-      </c>
-      <c r="D5" t="n">
+        <v>44606.71858868055</v>
+      </c>
+      <c r="C5" s="0" t="inlineStr">
+        <is>
+          <t>KRW-XRP</t>
+        </is>
+      </c>
+      <c r="D5" s="0" t="n">
         <v>939</v>
       </c>
-      <c r="E5" t="n">
+      <c r="E5" s="0" t="n">
         <v>10.86006129</v>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" s="0" t="inlineStr">
         <is>
           <t>거미줄매수</t>
         </is>
       </c>
     </row>
     <row r="6">
-      <c r="A6" t="inlineStr">
+      <c r="A6" s="0" t="inlineStr">
         <is>
           <t>89f153b2-9a89-4b6d-ab1e-d5e292367119</t>
         </is>
       </c>
       <c r="B6" s="7" t="n">
-        <v>44606.71858867691</v>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>KRW-XRP</t>
-        </is>
-      </c>
-      <c r="D6" t="n">
+        <v>44606.71858868055</v>
+      </c>
+      <c r="C6" s="0" t="inlineStr">
+        <is>
+          <t>KRW-XRP</t>
+        </is>
+      </c>
+      <c r="D6" s="0" t="n">
         <v>929</v>
       </c>
-      <c r="E6" t="n">
+      <c r="E6" s="0" t="n">
         <v>10.86006129</v>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" s="0" t="inlineStr">
         <is>
           <t>거미줄매수</t>
         </is>
       </c>
     </row>
     <row r="7">
-      <c r="A7" t="inlineStr">
+      <c r="A7" s="0" t="inlineStr">
         <is>
           <t>960ee5e0-75fb-44c5-9be6-457494a736ae</t>
         </is>
       </c>
       <c r="B7" s="7" t="n">
-        <v>44606.71858867691</v>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>KRW-XRP</t>
-        </is>
-      </c>
-      <c r="D7" t="n">
+        <v>44606.71858868055</v>
+      </c>
+      <c r="C7" s="0" t="inlineStr">
+        <is>
+          <t>KRW-XRP</t>
+        </is>
+      </c>
+      <c r="D7" s="0" t="n">
         <v>919</v>
       </c>
-      <c r="E7" t="n">
+      <c r="E7" s="0" t="n">
         <v>10.86006129</v>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" s="0" t="inlineStr">
         <is>
           <t>거미줄매수</t>
         </is>
       </c>
     </row>
     <row r="8">
-      <c r="A8" t="inlineStr">
+      <c r="A8" s="0" t="inlineStr">
         <is>
           <t>9b1917c0-18dd-4519-8ae8-3794ec6c7ecf</t>
         </is>
       </c>
       <c r="B8" s="7" t="n">
-        <v>44606.71858867691</v>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>KRW-XRP</t>
-        </is>
-      </c>
-      <c r="D8" t="n">
+        <v>44606.71858868055</v>
+      </c>
+      <c r="C8" s="0" t="inlineStr">
+        <is>
+          <t>KRW-XRP</t>
+        </is>
+      </c>
+      <c r="D8" s="0" t="n">
         <v>909</v>
       </c>
-      <c r="E8" t="n">
+      <c r="E8" s="0" t="n">
         <v>10.86006129</v>
       </c>
-      <c r="F8" t="inlineStr">
+      <c r="F8" s="0" t="inlineStr">
         <is>
           <t>거미줄매수</t>
         </is>
       </c>
     </row>
     <row r="9">
-      <c r="A9" t="inlineStr">
+      <c r="A9" s="0" t="inlineStr">
         <is>
           <t>ec2b0e9f-ff19-4ef9-a71a-29932fa4a750</t>
         </is>
       </c>
       <c r="B9" s="7" t="n">
-        <v>44606.71858867691</v>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>KRW-XRP</t>
-        </is>
-      </c>
-      <c r="D9" t="n">
+        <v>44606.71858868055</v>
+      </c>
+      <c r="C9" s="0" t="inlineStr">
+        <is>
+          <t>KRW-XRP</t>
+        </is>
+      </c>
+      <c r="D9" s="0" t="n">
         <v>899</v>
       </c>
-      <c r="E9" t="n">
+      <c r="E9" s="0" t="n">
         <v>10.86006129</v>
       </c>
-      <c r="F9" t="inlineStr">
+      <c r="F9" s="0" t="inlineStr">
         <is>
           <t>거미줄매수</t>
         </is>
       </c>
     </row>
     <row r="10">
-      <c r="A10" t="inlineStr">
+      <c r="A10" s="0" t="inlineStr">
         <is>
           <t>d43bfe99-995d-4eed-a3dc-75c38a253587</t>
         </is>
       </c>
       <c r="B10" s="7" t="n">
-        <v>44606.71858867691</v>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>KRW-XRP</t>
-        </is>
-      </c>
-      <c r="D10" t="n">
+        <v>44606.71858868055</v>
+      </c>
+      <c r="C10" s="0" t="inlineStr">
+        <is>
+          <t>KRW-XRP</t>
+        </is>
+      </c>
+      <c r="D10" s="0" t="n">
         <v>889</v>
       </c>
-      <c r="E10" t="n">
+      <c r="E10" s="0" t="n">
         <v>10.86006129</v>
       </c>
-      <c r="F10" t="inlineStr">
+      <c r="F10" s="0" t="inlineStr">
+        <is>
+          <t>거미줄매수</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="0" t="inlineStr">
+        <is>
+          <t>5f673a41-10ef-4150-abc3-89de1a1558e0</t>
+        </is>
+      </c>
+      <c r="B11" s="7" t="n">
+        <v>44606.74695302083</v>
+      </c>
+      <c r="C11" s="0" t="inlineStr">
+        <is>
+          <t>KRW-XRP</t>
+        </is>
+      </c>
+      <c r="D11" s="0" t="n">
+        <v>954</v>
+      </c>
+      <c r="E11" s="0" t="n">
+        <v>11.13207547</v>
+      </c>
+      <c r="F11" s="0" t="inlineStr">
+        <is>
+          <t>거미줄매수</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="0" t="inlineStr">
+        <is>
+          <t>cd64496b-1603-47de-9320-046220dc17c5</t>
+        </is>
+      </c>
+      <c r="B12" s="7" t="n">
+        <v>44606.74695302083</v>
+      </c>
+      <c r="C12" s="0" t="inlineStr">
+        <is>
+          <t>KRW-XRP</t>
+        </is>
+      </c>
+      <c r="D12" s="0" t="n">
+        <v>944</v>
+      </c>
+      <c r="E12" s="0" t="n">
+        <v>11.25</v>
+      </c>
+      <c r="F12" s="0" t="inlineStr">
+        <is>
+          <t>거미줄매수</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="0" t="inlineStr">
+        <is>
+          <t>77f3b3c1-2353-4e00-a524-f6300d079d09</t>
+        </is>
+      </c>
+      <c r="B13" s="7" t="n">
+        <v>44606.74695302083</v>
+      </c>
+      <c r="C13" s="0" t="inlineStr">
+        <is>
+          <t>KRW-XRP</t>
+        </is>
+      </c>
+      <c r="D13" s="0" t="n">
+        <v>934</v>
+      </c>
+      <c r="E13" s="0" t="n">
+        <v>11.37044968</v>
+      </c>
+      <c r="F13" s="0" t="inlineStr">
+        <is>
+          <t>거미줄매수</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="0" t="inlineStr">
+        <is>
+          <t>3980c2c4-14f5-40c8-94f2-6a11b76f4293</t>
+        </is>
+      </c>
+      <c r="B14" s="7" t="n">
+        <v>44606.74695302083</v>
+      </c>
+      <c r="C14" s="0" t="inlineStr">
+        <is>
+          <t>KRW-XRP</t>
+        </is>
+      </c>
+      <c r="D14" s="0" t="n">
+        <v>924</v>
+      </c>
+      <c r="E14" s="0" t="n">
+        <v>11.49350649</v>
+      </c>
+      <c r="F14" s="0" t="inlineStr">
+        <is>
+          <t>거미줄매수</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="0" t="inlineStr">
+        <is>
+          <t>8cac5837-a8d5-43f4-99e0-49d37d7e45ad</t>
+        </is>
+      </c>
+      <c r="B15" s="7" t="n">
+        <v>44606.74695302083</v>
+      </c>
+      <c r="C15" s="0" t="inlineStr">
+        <is>
+          <t>KRW-XRP</t>
+        </is>
+      </c>
+      <c r="D15" s="0" t="n">
+        <v>914</v>
+      </c>
+      <c r="E15" s="0" t="n">
+        <v>11.61925602</v>
+      </c>
+      <c r="F15" s="0" t="inlineStr">
+        <is>
+          <t>거미줄매수</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="0" t="inlineStr">
+        <is>
+          <t>57b9dd92-de85-481c-a404-4b4a1d395402</t>
+        </is>
+      </c>
+      <c r="B16" s="7" t="n">
+        <v>44606.74695302083</v>
+      </c>
+      <c r="C16" s="0" t="inlineStr">
+        <is>
+          <t>KRW-XRP</t>
+        </is>
+      </c>
+      <c r="D16" s="0" t="n">
+        <v>904</v>
+      </c>
+      <c r="E16" s="0" t="n">
+        <v>11.74778761</v>
+      </c>
+      <c r="F16" s="0" t="inlineStr">
+        <is>
+          <t>거미줄매수</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="0" t="inlineStr">
+        <is>
+          <t>fb729d80-1c8f-476b-b06c-bd471334787e</t>
+        </is>
+      </c>
+      <c r="B17" s="7" t="n">
+        <v>44606.74695302083</v>
+      </c>
+      <c r="C17" s="0" t="inlineStr">
+        <is>
+          <t>KRW-XRP</t>
+        </is>
+      </c>
+      <c r="D17" s="0" t="n">
+        <v>894</v>
+      </c>
+      <c r="E17" s="0" t="n">
+        <v>11.87919463</v>
+      </c>
+      <c r="F17" s="0" t="inlineStr">
+        <is>
+          <t>거미줄매수</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="0" t="inlineStr">
+        <is>
+          <t>bb3d5e05-052e-4b18-a56a-d23cd0d752d6</t>
+        </is>
+      </c>
+      <c r="B18" s="7" t="n">
+        <v>44606.74695302083</v>
+      </c>
+      <c r="C18" s="0" t="inlineStr">
+        <is>
+          <t>KRW-XRP</t>
+        </is>
+      </c>
+      <c r="D18" s="0" t="n">
+        <v>884</v>
+      </c>
+      <c r="E18" s="0" t="n">
+        <v>12.01357466</v>
+      </c>
+      <c r="F18" s="0" t="inlineStr">
+        <is>
+          <t>거미줄매수</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="0" t="inlineStr">
+        <is>
+          <t>c6634c1c-6ce6-4387-987f-b29d3fcbb9fa</t>
+        </is>
+      </c>
+      <c r="B19" s="7" t="n">
+        <v>44606.75009982639</v>
+      </c>
+      <c r="C19" s="0" t="inlineStr">
+        <is>
+          <t>KRW-XRP</t>
+        </is>
+      </c>
+      <c r="D19" s="0" t="n">
+        <v>951</v>
+      </c>
+      <c r="E19" s="0" t="n">
+        <v>11.16298633</v>
+      </c>
+      <c r="F19" s="0" t="inlineStr">
+        <is>
+          <t>거미줄매수</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="0" t="inlineStr">
+        <is>
+          <t>76b8c985-17f6-41cf-a214-8ece4905cac0</t>
+        </is>
+      </c>
+      <c r="B20" s="7" t="n">
+        <v>44606.75009982639</v>
+      </c>
+      <c r="C20" s="0" t="inlineStr">
+        <is>
+          <t>KRW-XRP</t>
+        </is>
+      </c>
+      <c r="D20" s="0" t="n">
+        <v>941</v>
+      </c>
+      <c r="E20" s="0" t="n">
+        <v>11.2816153</v>
+      </c>
+      <c r="F20" s="0" t="inlineStr">
+        <is>
+          <t>거미줄매수</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="0" t="inlineStr">
+        <is>
+          <t>84cdb964-a28b-4199-95ae-bcb473b33625</t>
+        </is>
+      </c>
+      <c r="B21" s="7" t="n">
+        <v>44606.75009982639</v>
+      </c>
+      <c r="C21" s="0" t="inlineStr">
+        <is>
+          <t>KRW-XRP</t>
+        </is>
+      </c>
+      <c r="D21" s="0" t="n">
+        <v>931</v>
+      </c>
+      <c r="E21" s="0" t="n">
+        <v>11.4027927</v>
+      </c>
+      <c r="F21" s="0" t="inlineStr">
+        <is>
+          <t>거미줄매수</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="0" t="inlineStr">
+        <is>
+          <t>5526f364-7ec4-4b67-9b5f-916c535e7a79</t>
+        </is>
+      </c>
+      <c r="B22" s="7" t="n">
+        <v>44606.75009982639</v>
+      </c>
+      <c r="C22" s="0" t="inlineStr">
+        <is>
+          <t>KRW-XRP</t>
+        </is>
+      </c>
+      <c r="D22" s="0" t="n">
+        <v>921</v>
+      </c>
+      <c r="E22" s="0" t="n">
+        <v>11.52660152</v>
+      </c>
+      <c r="F22" s="0" t="inlineStr">
+        <is>
+          <t>거미줄매수</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="0" t="inlineStr">
+        <is>
+          <t>22f101a6-48c6-47ab-ad65-a8f49aec66a0</t>
+        </is>
+      </c>
+      <c r="B23" s="7" t="n">
+        <v>44606.75009982639</v>
+      </c>
+      <c r="C23" s="0" t="inlineStr">
+        <is>
+          <t>KRW-XRP</t>
+        </is>
+      </c>
+      <c r="D23" s="0" t="n">
+        <v>911</v>
+      </c>
+      <c r="E23" s="0" t="n">
+        <v>11.65312843</v>
+      </c>
+      <c r="F23" s="0" t="inlineStr">
+        <is>
+          <t>거미줄매수</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="0" t="inlineStr">
+        <is>
+          <t>8fa36280-55fc-4574-9bf7-78cfdf41f6dd</t>
+        </is>
+      </c>
+      <c r="B24" s="7" t="n">
+        <v>44606.75009982639</v>
+      </c>
+      <c r="C24" s="0" t="inlineStr">
+        <is>
+          <t>KRW-XRP</t>
+        </is>
+      </c>
+      <c r="D24" s="0" t="n">
+        <v>901</v>
+      </c>
+      <c r="E24" s="0" t="n">
+        <v>11.78246393</v>
+      </c>
+      <c r="F24" s="0" t="inlineStr">
+        <is>
+          <t>거미줄매수</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="0" t="inlineStr">
+        <is>
+          <t>0ddf733e-cd6a-40fc-ac22-7b7e8635ceb2</t>
+        </is>
+      </c>
+      <c r="B25" s="7" t="n">
+        <v>44606.75009982639</v>
+      </c>
+      <c r="C25" s="0" t="inlineStr">
+        <is>
+          <t>KRW-XRP</t>
+        </is>
+      </c>
+      <c r="D25" s="0" t="n">
+        <v>891</v>
+      </c>
+      <c r="E25" s="0" t="n">
+        <v>11.91470258</v>
+      </c>
+      <c r="F25" s="0" t="inlineStr">
+        <is>
+          <t>거미줄매수</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="0" t="inlineStr">
+        <is>
+          <t>2d2ffca8-42ca-4436-b14d-90b67b69d667</t>
+        </is>
+      </c>
+      <c r="B26" s="7" t="n">
+        <v>44606.75009982639</v>
+      </c>
+      <c r="C26" s="0" t="inlineStr">
+        <is>
+          <t>KRW-XRP</t>
+        </is>
+      </c>
+      <c r="D26" s="0" t="n">
+        <v>881</v>
+      </c>
+      <c r="E26" s="0" t="n">
+        <v>12.04994325</v>
+      </c>
+      <c r="F26" s="0" t="inlineStr">
+        <is>
+          <t>거미줄매수</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="0" t="inlineStr">
+        <is>
+          <t>af6f754f-d82b-4326-99d1-336171ead12e</t>
+        </is>
+      </c>
+      <c r="B27" s="7" t="n">
+        <v>44606.76253762731</v>
+      </c>
+      <c r="C27" s="0" t="inlineStr">
+        <is>
+          <t>KRW-XRP</t>
+        </is>
+      </c>
+      <c r="D27" s="0" t="n">
+        <v>949</v>
+      </c>
+      <c r="E27" s="0" t="n">
+        <v>11.18229715</v>
+      </c>
+      <c r="F27" s="0" t="inlineStr">
+        <is>
+          <t>거미줄매수</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="0" t="inlineStr">
+        <is>
+          <t>b794ad80-9cc1-41bb-8d7a-f1830c011d8b</t>
+        </is>
+      </c>
+      <c r="B28" s="7" t="n">
+        <v>44606.76253762731</v>
+      </c>
+      <c r="C28" s="0" t="inlineStr">
+        <is>
+          <t>KRW-XRP</t>
+        </is>
+      </c>
+      <c r="D28" s="0" t="n">
+        <v>939</v>
+      </c>
+      <c r="E28" s="0" t="n">
+        <v>11.30138445</v>
+      </c>
+      <c r="F28" s="0" t="inlineStr">
+        <is>
+          <t>거미줄매수</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="0" t="inlineStr">
+        <is>
+          <t>ef67044a-52d5-4200-a18a-b38e1207a5e8</t>
+        </is>
+      </c>
+      <c r="B29" s="7" t="n">
+        <v>44606.76253762731</v>
+      </c>
+      <c r="C29" s="0" t="inlineStr">
+        <is>
+          <t>KRW-XRP</t>
+        </is>
+      </c>
+      <c r="D29" s="0" t="n">
+        <v>929</v>
+      </c>
+      <c r="E29" s="0" t="n">
+        <v>11.42303552</v>
+      </c>
+      <c r="F29" s="0" t="inlineStr">
+        <is>
+          <t>거미줄매수</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="0" t="inlineStr">
+        <is>
+          <t>2ddb74b3-21ed-48bf-939e-a55f5afdc5a3</t>
+        </is>
+      </c>
+      <c r="B30" s="7" t="n">
+        <v>44606.76253762731</v>
+      </c>
+      <c r="C30" s="0" t="inlineStr">
+        <is>
+          <t>KRW-XRP</t>
+        </is>
+      </c>
+      <c r="D30" s="0" t="n">
+        <v>919</v>
+      </c>
+      <c r="E30" s="0" t="n">
+        <v>11.54733406</v>
+      </c>
+      <c r="F30" s="0" t="inlineStr">
+        <is>
+          <t>거미줄매수</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="0" t="inlineStr">
+        <is>
+          <t>4eeba694-b6e2-4c28-b00c-574394f61fa0</t>
+        </is>
+      </c>
+      <c r="B31" s="7" t="n">
+        <v>44606.76253762731</v>
+      </c>
+      <c r="C31" s="0" t="inlineStr">
+        <is>
+          <t>KRW-XRP</t>
+        </is>
+      </c>
+      <c r="D31" s="0" t="n">
+        <v>909</v>
+      </c>
+      <c r="E31" s="0" t="n">
+        <v>11.67436744</v>
+      </c>
+      <c r="F31" s="0" t="inlineStr">
+        <is>
+          <t>거미줄매수</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="0" t="inlineStr">
+        <is>
+          <t>d3d71dc4-52b6-4cbe-b1c1-ad008659e9cf</t>
+        </is>
+      </c>
+      <c r="B32" s="7" t="n">
+        <v>44606.76253762731</v>
+      </c>
+      <c r="C32" s="0" t="inlineStr">
+        <is>
+          <t>KRW-XRP</t>
+        </is>
+      </c>
+      <c r="D32" s="0" t="n">
+        <v>899</v>
+      </c>
+      <c r="E32" s="0" t="n">
+        <v>11.80422692</v>
+      </c>
+      <c r="F32" s="0" t="inlineStr">
+        <is>
+          <t>거미줄매수</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="0" t="inlineStr">
+        <is>
+          <t>d942da04-1e6c-4126-a50e-af5568642412</t>
+        </is>
+      </c>
+      <c r="B33" s="7" t="n">
+        <v>44606.76253762731</v>
+      </c>
+      <c r="C33" s="0" t="inlineStr">
+        <is>
+          <t>KRW-XRP</t>
+        </is>
+      </c>
+      <c r="D33" s="0" t="n">
+        <v>889</v>
+      </c>
+      <c r="E33" s="0" t="n">
+        <v>11.93700787</v>
+      </c>
+      <c r="F33" s="0" t="inlineStr">
+        <is>
+          <t>거미줄매수</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="0" t="inlineStr">
+        <is>
+          <t>84d24548-83b8-4490-9056-7da682f89848</t>
+        </is>
+      </c>
+      <c r="B34" s="7" t="n">
+        <v>44606.76253762731</v>
+      </c>
+      <c r="C34" s="0" t="inlineStr">
+        <is>
+          <t>KRW-XRP</t>
+        </is>
+      </c>
+      <c r="D34" s="0" t="n">
+        <v>879</v>
+      </c>
+      <c r="E34" s="0" t="n">
+        <v>12.07281001</v>
+      </c>
+      <c r="F34" s="0" t="inlineStr">
+        <is>
+          <t>거미줄매수</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>8c092722-bcbb-4ec8-8875-a747e5562788</t>
+        </is>
+      </c>
+      <c r="B35" s="7" t="n">
+        <v>44606.90676508552</v>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>KRW-XRP</t>
+        </is>
+      </c>
+      <c r="D35" t="n">
+        <v>964</v>
+      </c>
+      <c r="E35" t="n">
+        <v>11.02282158</v>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>거미줄매수</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>ea9dbef9-816b-41e1-ba64-0dc8e4a7d538</t>
+        </is>
+      </c>
+      <c r="B36" s="7" t="n">
+        <v>44606.90676508552</v>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>KRW-XRP</t>
+        </is>
+      </c>
+      <c r="D36" t="n">
+        <v>954</v>
+      </c>
+      <c r="E36" t="n">
+        <v>11.13836478</v>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>거미줄매수</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>3b6071a7-bd42-435c-9156-f30f6a4e5e7a</t>
+        </is>
+      </c>
+      <c r="B37" s="7" t="n">
+        <v>44606.90676508552</v>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>KRW-XRP</t>
+        </is>
+      </c>
+      <c r="D37" t="n">
+        <v>944</v>
+      </c>
+      <c r="E37" t="n">
+        <v>11.25635593</v>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>거미줄매수</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>f90b2e0f-3190-48e3-8682-a76f53ba65f4</t>
+        </is>
+      </c>
+      <c r="B38" s="7" t="n">
+        <v>44606.90676508552</v>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>KRW-XRP</t>
+        </is>
+      </c>
+      <c r="D38" t="n">
+        <v>934</v>
+      </c>
+      <c r="E38" t="n">
+        <v>11.37687366</v>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>거미줄매수</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>2fd25e05-8c8e-4eb8-bfe1-f60063cb9518</t>
+        </is>
+      </c>
+      <c r="B39" s="7" t="n">
+        <v>44606.90676508552</v>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>KRW-XRP</t>
+        </is>
+      </c>
+      <c r="D39" t="n">
+        <v>924</v>
+      </c>
+      <c r="E39" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>거미줄매수</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>059556c0-fd1d-450d-9e5e-b0bf6ee5f66f</t>
+        </is>
+      </c>
+      <c r="B40" s="7" t="n">
+        <v>44606.90676508552</v>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>KRW-XRP</t>
+        </is>
+      </c>
+      <c r="D40" t="n">
+        <v>914</v>
+      </c>
+      <c r="E40" t="n">
+        <v>11.62582057</v>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>거미줄매수</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>a17f984b-3214-4c88-bd19-446ae82bc9ce</t>
+        </is>
+      </c>
+      <c r="B41" s="7" t="n">
+        <v>44606.90676508552</v>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>KRW-XRP</t>
+        </is>
+      </c>
+      <c r="D41" t="n">
+        <v>904</v>
+      </c>
+      <c r="E41" t="n">
+        <v>11.75442478</v>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>거미줄매수</t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>fe66ac79-57ab-440f-a792-a64a9c68bb35</t>
+        </is>
+      </c>
+      <c r="B42" s="7" t="n">
+        <v>44606.90676508552</v>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>KRW-XRP</t>
+        </is>
+      </c>
+      <c r="D42" t="n">
+        <v>894</v>
+      </c>
+      <c r="E42" t="n">
+        <v>11.88590604</v>
+      </c>
+      <c r="F42" t="inlineStr">
         <is>
           <t>거미줄매수</t>
         </is>

--- a/upbitRecord.xlsx
+++ b/upbitRecord.xlsx
@@ -473,13 +473,13 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H50"/>
+  <dimension ref="A1:H52"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A12" sqref="A12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="18" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="18"/>
   <cols>
     <col width="37.28515625" bestFit="1" customWidth="1" style="1" min="6" max="6"/>
   </cols>
@@ -2091,6 +2091,70 @@
       <c r="F50" s="0" t="inlineStr">
         <is>
           <t>3489bed7-7dae-4a51-bff0-8a3b4f842c7b</t>
+        </is>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="0" t="inlineStr">
+        <is>
+          <t>2022-02-15</t>
+        </is>
+      </c>
+      <c r="B51" s="0" t="inlineStr">
+        <is>
+          <t>10:21:59</t>
+        </is>
+      </c>
+      <c r="C51" s="0" t="inlineStr">
+        <is>
+          <t>KRW-XRP</t>
+        </is>
+      </c>
+      <c r="D51" s="0" t="inlineStr">
+        <is>
+          <t>매도</t>
+        </is>
+      </c>
+      <c r="E51" s="0" t="inlineStr">
+        <is>
+          <t>11.67606225</t>
+        </is>
+      </c>
+      <c r="F51" s="0" t="inlineStr">
+        <is>
+          <t>9cd6b065-59c6-4079-9d01-6552963a6f63</t>
+        </is>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="0" t="inlineStr">
+        <is>
+          <t>2022-02-15</t>
+        </is>
+      </c>
+      <c r="B52" s="0" t="inlineStr">
+        <is>
+          <t>23:52:01</t>
+        </is>
+      </c>
+      <c r="C52" s="0" t="inlineStr">
+        <is>
+          <t>KRW-BTC</t>
+        </is>
+      </c>
+      <c r="D52" s="0" t="inlineStr">
+        <is>
+          <t>매수</t>
+        </is>
+      </c>
+      <c r="E52" s="0" t="inlineStr">
+        <is>
+          <t>10604.0</t>
+        </is>
+      </c>
+      <c r="F52" s="0" t="inlineStr">
+        <is>
+          <t>62f5a1a6-e346-47a6-bf80-a5850eec89c5</t>
         </is>
       </c>
     </row>
@@ -2105,13 +2169,13 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E92"/>
+  <dimension ref="A1:E93"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="F20" sqref="F20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="18" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="18"/>
   <cols>
     <col width="11.7109375" bestFit="1" customWidth="1" style="3" min="2" max="3"/>
     <col width="19.140625" bestFit="1" customWidth="1" style="1" min="4" max="4"/>
@@ -3632,6 +3696,25 @@
       </c>
       <c r="E92" s="0" t="n">
         <v>10626</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="inlineStr">
+        <is>
+          <t>KRW-BTC</t>
+        </is>
+      </c>
+      <c r="B93" t="n">
+        <v>52234500</v>
+      </c>
+      <c r="C93" t="n">
+        <v>51947600</v>
+      </c>
+      <c r="D93" s="7" t="n">
+        <v>44607.99442908435</v>
+      </c>
+      <c r="E93" t="n">
+        <v>10604</v>
       </c>
     </row>
   </sheetData>
@@ -3651,7 +3734,7 @@
       <selection activeCell="A120" sqref="A120"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="18" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="18"/>
   <cols>
     <col width="37.140625" bestFit="1" customWidth="1" style="1" min="1" max="1"/>
     <col width="10.5703125" bestFit="1" customWidth="1" style="1" min="4" max="4"/>
@@ -4549,208 +4632,208 @@
       </c>
     </row>
     <row r="35">
-      <c r="A35" t="inlineStr">
+      <c r="A35" s="0" t="inlineStr">
         <is>
           <t>8c092722-bcbb-4ec8-8875-a747e5562788</t>
         </is>
       </c>
       <c r="B35" s="7" t="n">
-        <v>44606.90676508552</v>
-      </c>
-      <c r="C35" t="inlineStr">
-        <is>
-          <t>KRW-XRP</t>
-        </is>
-      </c>
-      <c r="D35" t="n">
+        <v>44606.90676508102</v>
+      </c>
+      <c r="C35" s="0" t="inlineStr">
+        <is>
+          <t>KRW-XRP</t>
+        </is>
+      </c>
+      <c r="D35" s="0" t="n">
         <v>964</v>
       </c>
-      <c r="E35" t="n">
+      <c r="E35" s="0" t="n">
         <v>11.02282158</v>
       </c>
-      <c r="F35" t="inlineStr">
+      <c r="F35" s="0" t="inlineStr">
         <is>
           <t>거미줄매수</t>
         </is>
       </c>
     </row>
     <row r="36">
-      <c r="A36" t="inlineStr">
+      <c r="A36" s="0" t="inlineStr">
         <is>
           <t>ea9dbef9-816b-41e1-ba64-0dc8e4a7d538</t>
         </is>
       </c>
       <c r="B36" s="7" t="n">
-        <v>44606.90676508552</v>
-      </c>
-      <c r="C36" t="inlineStr">
-        <is>
-          <t>KRW-XRP</t>
-        </is>
-      </c>
-      <c r="D36" t="n">
+        <v>44606.90676508102</v>
+      </c>
+      <c r="C36" s="0" t="inlineStr">
+        <is>
+          <t>KRW-XRP</t>
+        </is>
+      </c>
+      <c r="D36" s="0" t="n">
         <v>954</v>
       </c>
-      <c r="E36" t="n">
+      <c r="E36" s="0" t="n">
         <v>11.13836478</v>
       </c>
-      <c r="F36" t="inlineStr">
+      <c r="F36" s="0" t="inlineStr">
         <is>
           <t>거미줄매수</t>
         </is>
       </c>
     </row>
     <row r="37">
-      <c r="A37" t="inlineStr">
+      <c r="A37" s="0" t="inlineStr">
         <is>
           <t>3b6071a7-bd42-435c-9156-f30f6a4e5e7a</t>
         </is>
       </c>
       <c r="B37" s="7" t="n">
-        <v>44606.90676508552</v>
-      </c>
-      <c r="C37" t="inlineStr">
-        <is>
-          <t>KRW-XRP</t>
-        </is>
-      </c>
-      <c r="D37" t="n">
+        <v>44606.90676508102</v>
+      </c>
+      <c r="C37" s="0" t="inlineStr">
+        <is>
+          <t>KRW-XRP</t>
+        </is>
+      </c>
+      <c r="D37" s="0" t="n">
         <v>944</v>
       </c>
-      <c r="E37" t="n">
+      <c r="E37" s="0" t="n">
         <v>11.25635593</v>
       </c>
-      <c r="F37" t="inlineStr">
+      <c r="F37" s="0" t="inlineStr">
         <is>
           <t>거미줄매수</t>
         </is>
       </c>
     </row>
     <row r="38">
-      <c r="A38" t="inlineStr">
+      <c r="A38" s="0" t="inlineStr">
         <is>
           <t>f90b2e0f-3190-48e3-8682-a76f53ba65f4</t>
         </is>
       </c>
       <c r="B38" s="7" t="n">
-        <v>44606.90676508552</v>
-      </c>
-      <c r="C38" t="inlineStr">
-        <is>
-          <t>KRW-XRP</t>
-        </is>
-      </c>
-      <c r="D38" t="n">
+        <v>44606.90676508102</v>
+      </c>
+      <c r="C38" s="0" t="inlineStr">
+        <is>
+          <t>KRW-XRP</t>
+        </is>
+      </c>
+      <c r="D38" s="0" t="n">
         <v>934</v>
       </c>
-      <c r="E38" t="n">
+      <c r="E38" s="0" t="n">
         <v>11.37687366</v>
       </c>
-      <c r="F38" t="inlineStr">
+      <c r="F38" s="0" t="inlineStr">
         <is>
           <t>거미줄매수</t>
         </is>
       </c>
     </row>
     <row r="39">
-      <c r="A39" t="inlineStr">
+      <c r="A39" s="0" t="inlineStr">
         <is>
           <t>2fd25e05-8c8e-4eb8-bfe1-f60063cb9518</t>
         </is>
       </c>
       <c r="B39" s="7" t="n">
-        <v>44606.90676508552</v>
-      </c>
-      <c r="C39" t="inlineStr">
-        <is>
-          <t>KRW-XRP</t>
-        </is>
-      </c>
-      <c r="D39" t="n">
+        <v>44606.90676508102</v>
+      </c>
+      <c r="C39" s="0" t="inlineStr">
+        <is>
+          <t>KRW-XRP</t>
+        </is>
+      </c>
+      <c r="D39" s="0" t="n">
         <v>924</v>
       </c>
-      <c r="E39" t="n">
+      <c r="E39" s="0" t="n">
         <v>11.5</v>
       </c>
-      <c r="F39" t="inlineStr">
+      <c r="F39" s="0" t="inlineStr">
         <is>
           <t>거미줄매수</t>
         </is>
       </c>
     </row>
     <row r="40">
-      <c r="A40" t="inlineStr">
+      <c r="A40" s="0" t="inlineStr">
         <is>
           <t>059556c0-fd1d-450d-9e5e-b0bf6ee5f66f</t>
         </is>
       </c>
       <c r="B40" s="7" t="n">
-        <v>44606.90676508552</v>
-      </c>
-      <c r="C40" t="inlineStr">
-        <is>
-          <t>KRW-XRP</t>
-        </is>
-      </c>
-      <c r="D40" t="n">
+        <v>44606.90676508102</v>
+      </c>
+      <c r="C40" s="0" t="inlineStr">
+        <is>
+          <t>KRW-XRP</t>
+        </is>
+      </c>
+      <c r="D40" s="0" t="n">
         <v>914</v>
       </c>
-      <c r="E40" t="n">
+      <c r="E40" s="0" t="n">
         <v>11.62582057</v>
       </c>
-      <c r="F40" t="inlineStr">
+      <c r="F40" s="0" t="inlineStr">
         <is>
           <t>거미줄매수</t>
         </is>
       </c>
     </row>
     <row r="41">
-      <c r="A41" t="inlineStr">
+      <c r="A41" s="0" t="inlineStr">
         <is>
           <t>a17f984b-3214-4c88-bd19-446ae82bc9ce</t>
         </is>
       </c>
       <c r="B41" s="7" t="n">
-        <v>44606.90676508552</v>
-      </c>
-      <c r="C41" t="inlineStr">
-        <is>
-          <t>KRW-XRP</t>
-        </is>
-      </c>
-      <c r="D41" t="n">
+        <v>44606.90676508102</v>
+      </c>
+      <c r="C41" s="0" t="inlineStr">
+        <is>
+          <t>KRW-XRP</t>
+        </is>
+      </c>
+      <c r="D41" s="0" t="n">
         <v>904</v>
       </c>
-      <c r="E41" t="n">
+      <c r="E41" s="0" t="n">
         <v>11.75442478</v>
       </c>
-      <c r="F41" t="inlineStr">
+      <c r="F41" s="0" t="inlineStr">
         <is>
           <t>거미줄매수</t>
         </is>
       </c>
     </row>
     <row r="42">
-      <c r="A42" t="inlineStr">
+      <c r="A42" s="0" t="inlineStr">
         <is>
           <t>fe66ac79-57ab-440f-a792-a64a9c68bb35</t>
         </is>
       </c>
       <c r="B42" s="7" t="n">
-        <v>44606.90676508552</v>
-      </c>
-      <c r="C42" t="inlineStr">
-        <is>
-          <t>KRW-XRP</t>
-        </is>
-      </c>
-      <c r="D42" t="n">
+        <v>44606.90676508102</v>
+      </c>
+      <c r="C42" s="0" t="inlineStr">
+        <is>
+          <t>KRW-XRP</t>
+        </is>
+      </c>
+      <c r="D42" s="0" t="n">
         <v>894</v>
       </c>
-      <c r="E42" t="n">
+      <c r="E42" s="0" t="n">
         <v>11.88590604</v>
       </c>
-      <c r="F42" t="inlineStr">
+      <c r="F42" s="0" t="inlineStr">
         <is>
           <t>거미줄매수</t>
         </is>

--- a/upbitRecord.xlsx
+++ b/upbitRecord.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="1360" yWindow="1320" windowWidth="27900" windowHeight="16820" tabRatio="600" firstSheet="0" activeTab="2" autoFilterDateGrouping="1"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="1360" yWindow="1320" windowWidth="27900" windowHeight="16820" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
@@ -12,7 +12,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet4" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
-  <calcPr calcId="0" fullCalcOnLoad="1"/>
+  <calcPr calcId="191029" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
@@ -510,16 +510,16 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H95"/>
+  <dimension ref="A1:H127"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane xSplit="6" ySplit="1" topLeftCell="G57" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="6" ySplit="1" topLeftCell="G111" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="G1" sqref="G1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="F71" sqref="F71:F82"/>
+      <selection pane="bottomRight" activeCell="C134" sqref="C134"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="18"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="18" outlineLevelCol="0"/>
   <cols>
     <col width="17" bestFit="1" customWidth="1" style="1" min="5" max="5"/>
     <col width="37.28515625" bestFit="1" customWidth="1" style="1" min="6" max="6"/>
@@ -3663,6 +3663,1126 @@
       </c>
       <c r="G95" s="4" t="n">
         <v>1017606.7580248</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" s="4" t="inlineStr">
+        <is>
+          <t>2022-03-29</t>
+        </is>
+      </c>
+      <c r="B96" s="4" t="inlineStr">
+        <is>
+          <t>20:04:16</t>
+        </is>
+      </c>
+      <c r="C96" s="4" t="inlineStr">
+        <is>
+          <t>KRW-XRP</t>
+        </is>
+      </c>
+      <c r="D96" s="4" t="inlineStr">
+        <is>
+          <t>매수</t>
+        </is>
+      </c>
+      <c r="E96" s="4" t="inlineStr">
+        <is>
+          <t>100592.51</t>
+        </is>
+      </c>
+      <c r="F96" s="4" t="inlineStr">
+        <is>
+          <t>2e62e7b7-5ee6-458a-9d5c-084aa1a67f6e</t>
+        </is>
+      </c>
+      <c r="G96" s="4" t="n">
+        <v>1010986.29909927</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" s="4" t="inlineStr">
+        <is>
+          <t>2022-03-29</t>
+        </is>
+      </c>
+      <c r="B97" s="4" t="inlineStr">
+        <is>
+          <t>20:08:06</t>
+        </is>
+      </c>
+      <c r="C97" s="4" t="inlineStr">
+        <is>
+          <t>KRW-XRP</t>
+        </is>
+      </c>
+      <c r="D97" s="4" t="inlineStr">
+        <is>
+          <t>매수</t>
+        </is>
+      </c>
+      <c r="E97" s="4" t="inlineStr">
+        <is>
+          <t>100534.8</t>
+        </is>
+      </c>
+      <c r="F97" s="4" t="inlineStr">
+        <is>
+          <t>6f2bf445-0c30-4253-8086-aeb6ce1b3754</t>
+        </is>
+      </c>
+      <c r="G97" s="4" t="n">
+        <v>1010409.2032066</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" s="4" t="inlineStr">
+        <is>
+          <t>2022-03-29</t>
+        </is>
+      </c>
+      <c r="B98" s="4" t="inlineStr">
+        <is>
+          <t>20:12:46</t>
+        </is>
+      </c>
+      <c r="C98" s="4" t="inlineStr">
+        <is>
+          <t>KRW-WAVES</t>
+        </is>
+      </c>
+      <c r="D98" s="4" t="inlineStr">
+        <is>
+          <t>매수</t>
+        </is>
+      </c>
+      <c r="E98" s="4" t="inlineStr">
+        <is>
+          <t>99973.17</t>
+        </is>
+      </c>
+      <c r="F98" s="4" t="inlineStr">
+        <is>
+          <t>94a37776-fa4b-49bb-8a5f-6196d7e0a454</t>
+        </is>
+      </c>
+      <c r="G98" s="4" t="n">
+        <v>1009832.43839433</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" s="4" t="inlineStr">
+        <is>
+          <t>2022-03-29</t>
+        </is>
+      </c>
+      <c r="B99" s="4" t="inlineStr">
+        <is>
+          <t>20:16:44</t>
+        </is>
+      </c>
+      <c r="C99" s="4" t="inlineStr">
+        <is>
+          <t>KRW-WAVES</t>
+        </is>
+      </c>
+      <c r="D99" s="4" t="inlineStr">
+        <is>
+          <t>매수</t>
+        </is>
+      </c>
+      <c r="E99" s="4" t="inlineStr">
+        <is>
+          <t>100407.44</t>
+        </is>
+      </c>
+      <c r="F99" s="4" t="inlineStr">
+        <is>
+          <t>52a42613-0614-415e-9b3d-72228d30cc85</t>
+        </is>
+      </c>
+      <c r="G99" s="4" t="n">
+        <v>1009127.34035862</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" s="4" t="inlineStr">
+        <is>
+          <t>2022-03-30</t>
+        </is>
+      </c>
+      <c r="B100" s="4" t="inlineStr">
+        <is>
+          <t>01:12:26</t>
+        </is>
+      </c>
+      <c r="C100" s="4" t="inlineStr">
+        <is>
+          <t>KRW-WAVES</t>
+        </is>
+      </c>
+      <c r="D100" s="4" t="inlineStr">
+        <is>
+          <t>매도</t>
+        </is>
+      </c>
+      <c r="E100" s="4" t="inlineStr">
+        <is>
+          <t>3.31805295</t>
+        </is>
+      </c>
+      <c r="F100" s="4" t="inlineStr">
+        <is>
+          <t>54270fb7-7b1b-4cd8-8faa-263c473f42cd</t>
+        </is>
+      </c>
+      <c r="G100" s="4" t="n">
+        <v>4350.08883634</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" s="4" t="inlineStr">
+        <is>
+          <t>2022-03-30</t>
+        </is>
+      </c>
+      <c r="B101" s="4" t="inlineStr">
+        <is>
+          <t>01:17:53</t>
+        </is>
+      </c>
+      <c r="C101" s="4" t="inlineStr">
+        <is>
+          <t>KRW-WAVES</t>
+        </is>
+      </c>
+      <c r="D101" s="4" t="inlineStr">
+        <is>
+          <t>매수</t>
+        </is>
+      </c>
+      <c r="E101" s="4" t="inlineStr">
+        <is>
+          <t>100897.975</t>
+        </is>
+      </c>
+      <c r="F101" s="4" t="inlineStr">
+        <is>
+          <t>d40fda7b-0c1c-41a9-9c9a-3d61ed1f5b8a</t>
+        </is>
+      </c>
+      <c r="G101" s="4" t="n">
+        <v>1014058.79312318</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" s="4" t="inlineStr">
+        <is>
+          <t>2022-03-30</t>
+        </is>
+      </c>
+      <c r="B102" s="4" t="inlineStr">
+        <is>
+          <t>07:34:59</t>
+        </is>
+      </c>
+      <c r="C102" s="4" t="inlineStr">
+        <is>
+          <t>KRW-WAVES</t>
+        </is>
+      </c>
+      <c r="D102" s="4" t="inlineStr">
+        <is>
+          <t>매도</t>
+        </is>
+      </c>
+      <c r="E102" s="4" t="inlineStr">
+        <is>
+          <t>1.74061428</t>
+        </is>
+      </c>
+      <c r="F102" s="4" t="inlineStr">
+        <is>
+          <t>ef515d0a-70c6-4846-a716-bac28a5c01f5</t>
+        </is>
+      </c>
+      <c r="G102" s="4" t="n">
+        <v>4473.65472919</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" s="4" t="inlineStr">
+        <is>
+          <t>2022-03-30</t>
+        </is>
+      </c>
+      <c r="B103" s="4" t="inlineStr">
+        <is>
+          <t>07:40:31</t>
+        </is>
+      </c>
+      <c r="C103" s="4" t="inlineStr">
+        <is>
+          <t>KRW-BTC</t>
+        </is>
+      </c>
+      <c r="D103" s="4" t="inlineStr">
+        <is>
+          <t>매수</t>
+        </is>
+      </c>
+      <c r="E103" s="4" t="inlineStr">
+        <is>
+          <t>101501.94</t>
+        </is>
+      </c>
+      <c r="F103" s="4" t="inlineStr">
+        <is>
+          <t>3f90f0e5-c0a4-49f4-8591-cc95fad9311b</t>
+        </is>
+      </c>
+      <c r="G103" s="4" t="n">
+        <v>1020128.99385442</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" s="4" t="inlineStr">
+        <is>
+          <t>2022-04-02</t>
+        </is>
+      </c>
+      <c r="B104" s="4" t="inlineStr">
+        <is>
+          <t>00:01:56</t>
+        </is>
+      </c>
+      <c r="C104" s="4" t="inlineStr">
+        <is>
+          <t>KRW-BTC</t>
+        </is>
+      </c>
+      <c r="D104" s="4" t="inlineStr">
+        <is>
+          <t>매도</t>
+        </is>
+      </c>
+      <c r="E104" s="4" t="inlineStr">
+        <is>
+          <t>0.00363356</t>
+        </is>
+      </c>
+      <c r="F104" s="4" t="inlineStr">
+        <is>
+          <t>951c3208-155c-4608-805a-386beb8a4895</t>
+        </is>
+      </c>
+      <c r="G104" s="4" t="n">
+        <v>4602.765655</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" s="4" t="inlineStr">
+        <is>
+          <t>2022-04-02</t>
+        </is>
+      </c>
+      <c r="B105" s="4" t="inlineStr">
+        <is>
+          <t>00:04:50</t>
+        </is>
+      </c>
+      <c r="C105" s="4" t="inlineStr">
+        <is>
+          <t>KRW-SOL</t>
+        </is>
+      </c>
+      <c r="D105" s="4" t="inlineStr">
+        <is>
+          <t>매수</t>
+        </is>
+      </c>
+      <c r="E105" s="4" t="inlineStr">
+        <is>
+          <t>101687.01</t>
+        </is>
+      </c>
+      <c r="F105" s="4" t="inlineStr">
+        <is>
+          <t>46ee5517-13d1-448c-97dd-5ea06ccbc7b0</t>
+        </is>
+      </c>
+      <c r="G105" s="4" t="n">
+        <v>1021988.67862877</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" s="4" t="inlineStr">
+        <is>
+          <t>2022-04-02</t>
+        </is>
+      </c>
+      <c r="B106" s="4" t="inlineStr">
+        <is>
+          <t>01:19:08</t>
+        </is>
+      </c>
+      <c r="C106" s="4" t="inlineStr">
+        <is>
+          <t>KRW-SOL</t>
+        </is>
+      </c>
+      <c r="D106" s="4" t="inlineStr">
+        <is>
+          <t>매도</t>
+        </is>
+      </c>
+      <c r="E106" s="4" t="inlineStr">
+        <is>
+          <t>0.62866775</t>
+        </is>
+      </c>
+      <c r="F106" s="4" t="inlineStr">
+        <is>
+          <t>47d26d2f-35b1-45de-a1ff-5197d4005aa4</t>
+        </is>
+      </c>
+      <c r="G106" s="4" t="n">
+        <v>4610.14755375</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" s="4" t="inlineStr">
+        <is>
+          <t>2022-04-02</t>
+        </is>
+      </c>
+      <c r="B107" s="4" t="inlineStr">
+        <is>
+          <t>01:19:49</t>
+        </is>
+      </c>
+      <c r="C107" s="4" t="inlineStr">
+        <is>
+          <t>KRW-ETH</t>
+        </is>
+      </c>
+      <c r="D107" s="4" t="inlineStr">
+        <is>
+          <t>매수</t>
+        </is>
+      </c>
+      <c r="E107" s="4" t="inlineStr">
+        <is>
+          <t>101783.525</t>
+        </is>
+      </c>
+      <c r="F107" s="4" t="inlineStr">
+        <is>
+          <t>ea8967b4-e47a-4425-9859-7bdf87593d2b</t>
+        </is>
+      </c>
+      <c r="G107" s="4" t="n">
+        <v>1022955.19242762</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" s="4" t="inlineStr">
+        <is>
+          <t>2022-04-02</t>
+        </is>
+      </c>
+      <c r="B108" s="4" t="inlineStr">
+        <is>
+          <t>03:05:05</t>
+        </is>
+      </c>
+      <c r="C108" s="4" t="inlineStr">
+        <is>
+          <t>KRW-ETH</t>
+        </is>
+      </c>
+      <c r="D108" s="4" t="inlineStr">
+        <is>
+          <t>매도</t>
+        </is>
+      </c>
+      <c r="E108" s="4" t="inlineStr">
+        <is>
+          <t>0.02438512</t>
+        </is>
+      </c>
+      <c r="F108" s="4" t="inlineStr">
+        <is>
+          <t>559baf34-a528-4e27-b0d5-10bb66bb4b63</t>
+        </is>
+      </c>
+      <c r="G108" s="4" t="n">
+        <v>4611.06035038</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" s="4" t="inlineStr">
+        <is>
+          <t>2022-04-02</t>
+        </is>
+      </c>
+      <c r="B109" s="4" t="inlineStr">
+        <is>
+          <t>03:05:47</t>
+        </is>
+      </c>
+      <c r="C109" s="4" t="inlineStr">
+        <is>
+          <t>KRW-SOL</t>
+        </is>
+      </c>
+      <c r="D109" s="4" t="inlineStr">
+        <is>
+          <t>매수</t>
+        </is>
+      </c>
+      <c r="E109" s="4" t="inlineStr">
+        <is>
+          <t>101875.065</t>
+        </is>
+      </c>
+      <c r="F109" s="4" t="inlineStr">
+        <is>
+          <t>aa49267c-8bdd-4524-9bfb-f19001cbedd1</t>
+        </is>
+      </c>
+      <c r="G109" s="4" t="n">
+        <v>1023877.07188922</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" s="4" t="inlineStr">
+        <is>
+          <t>2022-04-02</t>
+        </is>
+      </c>
+      <c r="B110" s="4" t="inlineStr">
+        <is>
+          <t>09:12:15</t>
+        </is>
+      </c>
+      <c r="C110" s="4" t="inlineStr">
+        <is>
+          <t>KRW-SOL</t>
+        </is>
+      </c>
+      <c r="D110" s="4" t="inlineStr">
+        <is>
+          <t>매도</t>
+        </is>
+      </c>
+      <c r="E110" s="4" t="inlineStr">
+        <is>
+          <t>0.62081087</t>
+        </is>
+      </c>
+      <c r="F110" s="4" t="inlineStr">
+        <is>
+          <t>3c7f10d1-eb8f-4d74-a094-2c01c7182437</t>
+        </is>
+      </c>
+      <c r="G110" s="4" t="n">
+        <v>921951.0705903301</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" s="4" t="inlineStr">
+        <is>
+          <t>2022-04-02</t>
+        </is>
+      </c>
+      <c r="B111" s="4" t="inlineStr">
+        <is>
+          <t>09:12:52</t>
+        </is>
+      </c>
+      <c r="C111" s="4" t="inlineStr">
+        <is>
+          <t>KRW-ZIL</t>
+        </is>
+      </c>
+      <c r="D111" s="4" t="inlineStr">
+        <is>
+          <t>매수</t>
+        </is>
+      </c>
+      <c r="E111" s="4" t="inlineStr">
+        <is>
+          <t>101954.665</t>
+        </is>
+      </c>
+      <c r="F111" s="4" t="inlineStr">
+        <is>
+          <t>fd078a3d-31a1-4dfa-9d3c-60566d8f51fd</t>
+        </is>
+      </c>
+      <c r="G111" s="4" t="n">
+        <v>1024674.92249907</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" s="4" t="inlineStr">
+        <is>
+          <t>2022-04-02</t>
+        </is>
+      </c>
+      <c r="B112" s="4" t="inlineStr">
+        <is>
+          <t>09:33:03</t>
+        </is>
+      </c>
+      <c r="C112" s="4" t="inlineStr">
+        <is>
+          <t>KRW-ZIL</t>
+        </is>
+      </c>
+      <c r="D112" s="4" t="inlineStr">
+        <is>
+          <t>매도</t>
+        </is>
+      </c>
+      <c r="E112" s="4" t="inlineStr">
+        <is>
+          <t>900.47695934</t>
+        </is>
+      </c>
+      <c r="F112" s="4" t="inlineStr">
+        <is>
+          <t>7e09f3d9-87c8-4361-aca0-1f6907cea42f</t>
+        </is>
+      </c>
+      <c r="G112" s="4" t="n">
+        <v>4618.49917544</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" s="4" t="inlineStr">
+        <is>
+          <t>2022-04-02</t>
+        </is>
+      </c>
+      <c r="B113" s="4" t="inlineStr">
+        <is>
+          <t>09:33:50</t>
+        </is>
+      </c>
+      <c r="C113" s="4" t="inlineStr">
+        <is>
+          <t>KRW-AXS</t>
+        </is>
+      </c>
+      <c r="D113" s="4" t="inlineStr">
+        <is>
+          <t>매수</t>
+        </is>
+      </c>
+      <c r="E113" s="4" t="inlineStr">
+        <is>
+          <t>102073.0699</t>
+        </is>
+      </c>
+      <c r="F113" s="4" t="inlineStr">
+        <is>
+          <t>eb17cbdc-16de-426d-8294-6285b8a98ba5</t>
+        </is>
+      </c>
+      <c r="G113" s="4" t="n">
+        <v>1025869.73019221</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" s="4" t="inlineStr">
+        <is>
+          <t>2022-04-02</t>
+        </is>
+      </c>
+      <c r="B114" s="4" t="inlineStr">
+        <is>
+          <t>10:17:51</t>
+        </is>
+      </c>
+      <c r="C114" s="4" t="inlineStr">
+        <is>
+          <t>KRW-AXS</t>
+        </is>
+      </c>
+      <c r="D114" s="4" t="inlineStr">
+        <is>
+          <t>매도</t>
+        </is>
+      </c>
+      <c r="E114" s="4" t="inlineStr">
+        <is>
+          <t>2.34020581</t>
+        </is>
+      </c>
+      <c r="F114" s="4" t="inlineStr">
+        <is>
+          <t>5aea306a-6cdd-4caf-a3ad-10b02d21f0b3</t>
+        </is>
+      </c>
+      <c r="G114" s="4" t="n">
+        <v>4628.66653796</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" s="4" t="inlineStr">
+        <is>
+          <t>2022-04-02</t>
+        </is>
+      </c>
+      <c r="B115" s="4" t="inlineStr">
+        <is>
+          <t>10:20:03</t>
+        </is>
+      </c>
+      <c r="C115" s="4" t="inlineStr">
+        <is>
+          <t>KRW-FLOW</t>
+        </is>
+      </c>
+      <c r="D115" s="4" t="inlineStr">
+        <is>
+          <t>매수</t>
+        </is>
+      </c>
+      <c r="E115" s="4" t="inlineStr">
+        <is>
+          <t>102280.03</t>
+        </is>
+      </c>
+      <c r="F115" s="4" t="inlineStr">
+        <is>
+          <t>c5727487-b5f0-4e8a-a696-9c229cbc0565</t>
+        </is>
+      </c>
+      <c r="G115" s="4" t="n">
+        <v>1027947.85749579</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" s="4" t="inlineStr">
+        <is>
+          <t>2022-04-02</t>
+        </is>
+      </c>
+      <c r="B116" s="4" t="inlineStr">
+        <is>
+          <t>17:13:49</t>
+        </is>
+      </c>
+      <c r="C116" s="4" t="inlineStr">
+        <is>
+          <t>KRW-FLOW</t>
+        </is>
+      </c>
+      <c r="D116" s="4" t="inlineStr">
+        <is>
+          <t>매도</t>
+        </is>
+      </c>
+      <c r="E116" s="4" t="inlineStr">
+        <is>
+          <t>11.45353079</t>
+        </is>
+      </c>
+      <c r="F116" s="4" t="inlineStr">
+        <is>
+          <t>f48522ac-9926-4d17-b88c-75ddb38eae0b</t>
+        </is>
+      </c>
+      <c r="G116" s="4" t="n">
+        <v>4636.15746165</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" s="4" t="inlineStr">
+        <is>
+          <t>2022-04-02</t>
+        </is>
+      </c>
+      <c r="B117" s="4" t="inlineStr">
+        <is>
+          <t>17:14:28</t>
+        </is>
+      </c>
+      <c r="C117" s="4" t="inlineStr">
+        <is>
+          <t>KRW-MED</t>
+        </is>
+      </c>
+      <c r="D117" s="4" t="inlineStr">
+        <is>
+          <t>매수</t>
+        </is>
+      </c>
+      <c r="E117" s="4" t="inlineStr">
+        <is>
+          <t>102389.48</t>
+        </is>
+      </c>
+      <c r="F117" s="4" t="inlineStr">
+        <is>
+          <t>db313432-b2c0-46c5-ba44-87f06c1af05b</t>
+        </is>
+      </c>
+      <c r="G117" s="4" t="n">
+        <v>1029047.59688842</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" s="4" t="inlineStr">
+        <is>
+          <t>2022-04-02</t>
+        </is>
+      </c>
+      <c r="B118" s="4" t="inlineStr">
+        <is>
+          <t>17:15:07</t>
+        </is>
+      </c>
+      <c r="C118" s="4" t="inlineStr">
+        <is>
+          <t>KRW-MED</t>
+        </is>
+      </c>
+      <c r="D118" s="4" t="inlineStr">
+        <is>
+          <t>매도</t>
+        </is>
+      </c>
+      <c r="E118" s="4" t="inlineStr">
+        <is>
+          <t>1294.43084702</t>
+        </is>
+      </c>
+      <c r="F118" s="4" t="inlineStr">
+        <is>
+          <t>4b8742a3-239c-4998-9d08-415f14867eeb</t>
+        </is>
+      </c>
+      <c r="G118" s="4" t="n">
+        <v>4640.84948919</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" s="4" t="inlineStr">
+        <is>
+          <t>2022-04-02</t>
+        </is>
+      </c>
+      <c r="B119" s="4" t="inlineStr">
+        <is>
+          <t>17:15:46</t>
+        </is>
+      </c>
+      <c r="C119" s="4" t="inlineStr">
+        <is>
+          <t>KRW-MED</t>
+        </is>
+      </c>
+      <c r="D119" s="4" t="inlineStr">
+        <is>
+          <t>매수</t>
+        </is>
+      </c>
+      <c r="E119" s="4" t="inlineStr">
+        <is>
+          <t>102494.95</t>
+        </is>
+      </c>
+      <c r="F119" s="4" t="inlineStr">
+        <is>
+          <t>bb33650f-f825-4d60-b237-4746b748f7e4</t>
+        </is>
+      </c>
+      <c r="G119" s="4" t="n">
+        <v>1030109.61267686</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" s="4" t="inlineStr">
+        <is>
+          <t>2022-04-02</t>
+        </is>
+      </c>
+      <c r="B120" s="4" t="inlineStr">
+        <is>
+          <t>17:17:59</t>
+        </is>
+      </c>
+      <c r="C120" s="4" t="inlineStr">
+        <is>
+          <t>KRW-MED</t>
+        </is>
+      </c>
+      <c r="D120" s="4" t="inlineStr">
+        <is>
+          <t>매도</t>
+        </is>
+      </c>
+      <c r="E120" s="4" t="inlineStr">
+        <is>
+          <t>1276.40037359</t>
+        </is>
+      </c>
+      <c r="F120" s="4" t="inlineStr">
+        <is>
+          <t>8a498663-ba50-41ad-9b7b-0718a780870a</t>
+        </is>
+      </c>
+      <c r="G120" s="4" t="n">
+        <v>4647.63792755</v>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" s="4" t="inlineStr">
+        <is>
+          <t>2022-04-02</t>
+        </is>
+      </c>
+      <c r="B121" s="4" t="inlineStr">
+        <is>
+          <t>17:18:37</t>
+        </is>
+      </c>
+      <c r="C121" s="4" t="inlineStr">
+        <is>
+          <t>KRW-MED</t>
+        </is>
+      </c>
+      <c r="D121" s="4" t="inlineStr">
+        <is>
+          <t>매수</t>
+        </is>
+      </c>
+      <c r="E121" s="4" t="inlineStr">
+        <is>
+          <t>102625.295</t>
+        </is>
+      </c>
+      <c r="F121" s="4" t="inlineStr">
+        <is>
+          <t>18d28a1a-dd2e-40f8-86f7-96fcbea19ce9</t>
+        </is>
+      </c>
+      <c r="G121" s="4" t="n">
+        <v>1031410.4561176</v>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" s="4" t="inlineStr">
+        <is>
+          <t>2022-04-02</t>
+        </is>
+      </c>
+      <c r="B122" s="4" t="inlineStr">
+        <is>
+          <t>17:23:39</t>
+        </is>
+      </c>
+      <c r="C122" s="4" t="inlineStr">
+        <is>
+          <t>KRW-MED</t>
+        </is>
+      </c>
+      <c r="D122" s="4" t="inlineStr">
+        <is>
+          <t>매도</t>
+        </is>
+      </c>
+      <c r="E122" s="4" t="inlineStr">
+        <is>
+          <t>1265.41670776</t>
+        </is>
+      </c>
+      <c r="F122" s="4" t="inlineStr">
+        <is>
+          <t>3892e605-0abe-4b5d-87c7-781c30e29ac8</t>
+        </is>
+      </c>
+      <c r="G122" s="4" t="n">
+        <v>4644.37964359</v>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" s="4" t="inlineStr">
+        <is>
+          <t>2022-04-02</t>
+        </is>
+      </c>
+      <c r="B123" s="4" t="inlineStr">
+        <is>
+          <t>17:24:21</t>
+        </is>
+      </c>
+      <c r="C123" s="4" t="inlineStr">
+        <is>
+          <t>KRW-FLOW</t>
+        </is>
+      </c>
+      <c r="D123" s="4" t="inlineStr">
+        <is>
+          <t>매수</t>
+        </is>
+      </c>
+      <c r="E123" s="4" t="inlineStr">
+        <is>
+          <t>102702.905</t>
+        </is>
+      </c>
+      <c r="F123" s="4" t="inlineStr">
+        <is>
+          <t>33f2d874-1ee2-420a-b784-26416d6dc64e</t>
+        </is>
+      </c>
+      <c r="G123" s="4" t="n">
+        <v>1032193.17962218</v>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" s="4" t="inlineStr">
+        <is>
+          <t>2022-04-02</t>
+        </is>
+      </c>
+      <c r="B124" s="4" t="inlineStr">
+        <is>
+          <t>19:14:07</t>
+        </is>
+      </c>
+      <c r="C124" s="4" t="inlineStr">
+        <is>
+          <t>KRW-FLOW</t>
+        </is>
+      </c>
+      <c r="D124" s="4" t="inlineStr">
+        <is>
+          <t>매도</t>
+        </is>
+      </c>
+      <c r="E124" s="4" t="inlineStr">
+        <is>
+          <t>11.34838729</t>
+        </is>
+      </c>
+      <c r="F124" s="4" t="inlineStr">
+        <is>
+          <t>38e7911a-ebfd-413e-a769-2491c66178e5</t>
+        </is>
+      </c>
+      <c r="G124" s="4" t="n">
+        <v>4650.61517923</v>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" s="4" t="inlineStr">
+        <is>
+          <t>2022-04-02</t>
+        </is>
+      </c>
+      <c r="B125" s="4" t="inlineStr">
+        <is>
+          <t>19:20:33</t>
+        </is>
+      </c>
+      <c r="C125" s="4" t="inlineStr">
+        <is>
+          <t>KRW-SRM</t>
+        </is>
+      </c>
+      <c r="D125" s="4" t="inlineStr">
+        <is>
+          <t>매수</t>
+        </is>
+      </c>
+      <c r="E125" s="4" t="inlineStr">
+        <is>
+          <t>102794.4449</t>
+        </is>
+      </c>
+      <c r="F125" s="4" t="inlineStr">
+        <is>
+          <t>00ec8b6f-46e0-4c3f-b8ed-6b159297b926</t>
+        </is>
+      </c>
+      <c r="G125" s="4" t="n">
+        <v>1033111.32089588</v>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" s="4" t="inlineStr">
+        <is>
+          <t>2022-04-02</t>
+        </is>
+      </c>
+      <c r="B126" s="4" t="inlineStr">
+        <is>
+          <t>19:37:23</t>
+        </is>
+      </c>
+      <c r="C126" s="4" t="inlineStr">
+        <is>
+          <t>KRW-SRM</t>
+        </is>
+      </c>
+      <c r="D126" s="4" t="inlineStr">
+        <is>
+          <t>매도</t>
+        </is>
+      </c>
+      <c r="E126" s="4" t="inlineStr">
+        <is>
+          <t>24.18692821</t>
+        </is>
+      </c>
+      <c r="F126" s="4" t="inlineStr">
+        <is>
+          <t>00121b7b-afd9-4c30-9cea-cc479b73e319</t>
+        </is>
+      </c>
+      <c r="G126" s="4" t="n">
+        <v>4652.89874402</v>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" s="4" t="inlineStr">
+        <is>
+          <t>2022-04-02</t>
+        </is>
+      </c>
+      <c r="B127" s="4" t="inlineStr">
+        <is>
+          <t>19:38:06</t>
+        </is>
+      </c>
+      <c r="C127" s="4" t="inlineStr">
+        <is>
+          <t>KRW-XRP</t>
+        </is>
+      </c>
+      <c r="D127" s="4" t="inlineStr">
+        <is>
+          <t>매수</t>
+        </is>
+      </c>
+      <c r="E127" s="4" t="inlineStr">
+        <is>
+          <t>102880.015</t>
+        </is>
+      </c>
+      <c r="F127" s="4" t="inlineStr">
+        <is>
+          <t>fe89a807-f235-40a6-a890-a008fa37d683</t>
+        </is>
+      </c>
+      <c r="G127" s="4" t="n">
+        <v>1033975.51984083</v>
       </c>
     </row>
   </sheetData>
@@ -3676,16 +4796,16 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F117"/>
+  <dimension ref="A1:F134"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="6" ySplit="1" topLeftCell="G89" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="6" ySplit="1" topLeftCell="G105" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="G1" sqref="G1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
       <selection pane="bottomRight" activeCell="D106" sqref="D106"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="18"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="18" outlineLevelCol="0"/>
   <cols>
     <col width="11.7109375" bestFit="1" customWidth="1" style="8" min="2" max="3"/>
     <col width="19.140625" bestFit="1" customWidth="1" style="1" min="4" max="4"/>
@@ -5720,25 +6840,297 @@
       </c>
     </row>
     <row r="117">
-      <c r="A117" t="inlineStr">
+      <c r="A117" s="4" t="inlineStr">
         <is>
           <t>KRW-SXP</t>
         </is>
       </c>
-      <c r="B117" t="n">
+      <c r="B117" s="4" t="n">
         <v>2130</v>
       </c>
-      <c r="C117" t="n">
+      <c r="C117" s="4" t="n">
         <v>2021</v>
       </c>
-      <c r="D117" s="12" t="n">
-        <v>44648.65413270563</v>
-      </c>
-      <c r="E117" t="n">
+      <c r="D117" s="11" t="n">
+        <v>44648.65413270833</v>
+      </c>
+      <c r="E117" s="4" t="n">
         <v>101251.2</v>
       </c>
-      <c r="F117" t="n">
+      <c r="F117" s="4" t="n">
         <v>1017606.7580248</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" s="4" t="inlineStr">
+        <is>
+          <t>KRW-XRP</t>
+        </is>
+      </c>
+      <c r="B118" s="11" t="n">
+        <v>44649.83895396991</v>
+      </c>
+      <c r="C118" s="4" t="n">
+        <v>100534.8</v>
+      </c>
+      <c r="D118" s="4" t="n">
+        <v>1010409.2032066</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" s="4" t="inlineStr">
+        <is>
+          <t>KRW-WAVES</t>
+        </is>
+      </c>
+      <c r="B119" s="11" t="n">
+        <v>44649.84219458333</v>
+      </c>
+      <c r="C119" s="4" t="n">
+        <v>99973.17</v>
+      </c>
+      <c r="D119" s="4" t="n">
+        <v>1009832.43839433</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" s="4" t="inlineStr">
+        <is>
+          <t>KRW-WAVES</t>
+        </is>
+      </c>
+      <c r="B120" s="11" t="n">
+        <v>44649.84495008102</v>
+      </c>
+      <c r="C120" s="4" t="n">
+        <v>100407.44</v>
+      </c>
+      <c r="D120" s="4" t="n">
+        <v>1009127.34035862</v>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" s="4" t="inlineStr">
+        <is>
+          <t>KRW-WAVES</t>
+        </is>
+      </c>
+      <c r="B121" s="11" t="n">
+        <v>44650.05405233796</v>
+      </c>
+      <c r="C121" s="4" t="n">
+        <v>100897.975</v>
+      </c>
+      <c r="D121" s="4" t="n">
+        <v>1014058.79312318</v>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" s="4" t="inlineStr">
+        <is>
+          <t>KRW-BTC</t>
+        </is>
+      </c>
+      <c r="B122" s="11" t="n">
+        <v>44650.31980175926</v>
+      </c>
+      <c r="C122" s="4" t="n">
+        <v>101501.94</v>
+      </c>
+      <c r="D122" s="4" t="n">
+        <v>1020128.99385442</v>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" s="4" t="inlineStr">
+        <is>
+          <t>KRW-SOL</t>
+        </is>
+      </c>
+      <c r="B123" s="11" t="n">
+        <v>44653.00335386574</v>
+      </c>
+      <c r="C123" s="4" t="n">
+        <v>101687.01</v>
+      </c>
+      <c r="D123" s="4" t="n">
+        <v>1021988.67862877</v>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" s="4" t="inlineStr">
+        <is>
+          <t>KRW-ETH</t>
+        </is>
+      </c>
+      <c r="B124" s="11" t="n">
+        <v>44653.0554040162</v>
+      </c>
+      <c r="C124" s="4" t="n">
+        <v>101783.525</v>
+      </c>
+      <c r="D124" s="4" t="n">
+        <v>1022955.19242762</v>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" s="4" t="inlineStr">
+        <is>
+          <t>KRW-SOL</t>
+        </is>
+      </c>
+      <c r="B125" s="11" t="n">
+        <v>44653.1290149074</v>
+      </c>
+      <c r="C125" s="4" t="n">
+        <v>101875.065</v>
+      </c>
+      <c r="D125" s="4" t="n">
+        <v>1023877.07188922</v>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" s="4" t="inlineStr">
+        <is>
+          <t>KRW-ZIL</t>
+        </is>
+      </c>
+      <c r="B126" s="11" t="n">
+        <v>44653.38393679398</v>
+      </c>
+      <c r="C126" s="4" t="n">
+        <v>101954.665</v>
+      </c>
+      <c r="D126" s="4" t="n">
+        <v>1024674.92249907</v>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" s="4" t="inlineStr">
+        <is>
+          <t>KRW-AXS</t>
+        </is>
+      </c>
+      <c r="B127" s="11" t="n">
+        <v>44653.39849383102</v>
+      </c>
+      <c r="C127" s="4" t="n">
+        <v>102073.07</v>
+      </c>
+      <c r="D127" s="4" t="n">
+        <v>1025869.73019221</v>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" s="4" t="inlineStr">
+        <is>
+          <t>KRW-FLOW</t>
+        </is>
+      </c>
+      <c r="B128" s="11" t="n">
+        <v>44653.43058582176</v>
+      </c>
+      <c r="C128" s="4" t="n">
+        <v>102280.03</v>
+      </c>
+      <c r="D128" s="4" t="n">
+        <v>1027947.85749579</v>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" s="4" t="inlineStr">
+        <is>
+          <t>KRW-MED</t>
+        </is>
+      </c>
+      <c r="B129" s="11" t="n">
+        <v>44653.71838363426</v>
+      </c>
+      <c r="C129" s="4" t="n">
+        <v>102389.48</v>
+      </c>
+      <c r="D129" s="4" t="n">
+        <v>1029047.59688842</v>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" s="4" t="inlineStr">
+        <is>
+          <t>KRW-MED</t>
+        </is>
+      </c>
+      <c r="B130" s="11" t="n">
+        <v>44653.71928302084</v>
+      </c>
+      <c r="C130" s="4" t="n">
+        <v>102494.95</v>
+      </c>
+      <c r="D130" s="4" t="n">
+        <v>1030109.61267686</v>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" s="4" t="inlineStr">
+        <is>
+          <t>KRW-MED</t>
+        </is>
+      </c>
+      <c r="B131" s="11" t="n">
+        <v>44653.72125877315</v>
+      </c>
+      <c r="C131" s="4" t="n">
+        <v>102625.295</v>
+      </c>
+      <c r="D131" s="4" t="n">
+        <v>1031410.4561176</v>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" s="4" t="inlineStr">
+        <is>
+          <t>KRW-FLOW</t>
+        </is>
+      </c>
+      <c r="B132" s="11" t="n">
+        <v>44653.72521373843</v>
+      </c>
+      <c r="C132" s="4" t="n">
+        <v>102702.905</v>
+      </c>
+      <c r="D132" s="4" t="n">
+        <v>1032193.17962218</v>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" s="4" t="inlineStr">
+        <is>
+          <t>KRW-SRM</t>
+        </is>
+      </c>
+      <c r="B133" s="11" t="n">
+        <v>44653.80593075231</v>
+      </c>
+      <c r="C133" s="4" t="n">
+        <v>102794.445</v>
+      </c>
+      <c r="D133" s="4" t="n">
+        <v>1033111.32089588</v>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" s="4" t="inlineStr">
+        <is>
+          <t>KRW-XRP</t>
+        </is>
+      </c>
+      <c r="B134" s="11" t="n">
+        <v>44653.81812458333</v>
+      </c>
+      <c r="C134" s="4" t="n">
+        <v>102880.015</v>
+      </c>
+      <c r="D134" s="4" t="n">
+        <v>1033975.51984083</v>
       </c>
     </row>
   </sheetData>
@@ -5752,16 +7144,16 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F1"/>
+  <dimension ref="A1:F19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="6" ySplit="1" topLeftCell="H2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="G1" sqref="G1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A14" sqref="A14"/>
+      <selection pane="bottomRight" activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="18"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="18" outlineLevelCol="0"/>
   <cols>
     <col width="37.140625" bestFit="1" customWidth="1" style="1" min="1" max="1"/>
     <col width="19.140625" bestFit="1" customWidth="1" style="1" min="2" max="2"/>
@@ -5798,6 +7190,474 @@
       <c r="F1" s="7" t="inlineStr">
         <is>
           <t>매수 / 매도</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="4" t="inlineStr">
+        <is>
+          <t>b51e7553-9b00-433a-9353-130e262a6f5f</t>
+        </is>
+      </c>
+      <c r="B2" s="11" t="n">
+        <v>44653.81812458333</v>
+      </c>
+      <c r="C2" s="4" t="inlineStr">
+        <is>
+          <t>KRW-XRP</t>
+        </is>
+      </c>
+      <c r="D2" s="4" t="n">
+        <v>1000</v>
+      </c>
+      <c r="E2" s="4" t="n">
+        <v>102.880015</v>
+      </c>
+      <c r="F2" s="4" t="inlineStr">
+        <is>
+          <t>거미줄매수</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="4" t="inlineStr">
+        <is>
+          <t>80eff433-5f1a-4df5-b887-4cdb4b2ca120</t>
+        </is>
+      </c>
+      <c r="B3" s="11" t="n">
+        <v>44653.81812458333</v>
+      </c>
+      <c r="C3" s="4" t="inlineStr">
+        <is>
+          <t>KRW-XRP</t>
+        </is>
+      </c>
+      <c r="D3" s="4" t="n">
+        <v>970</v>
+      </c>
+      <c r="E3" s="4" t="n">
+        <v>106.06187113</v>
+      </c>
+      <c r="F3" s="4" t="inlineStr">
+        <is>
+          <t>거미줄매수</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="4" t="inlineStr">
+        <is>
+          <t>55c6329b-7b38-4883-8dec-2041cea0b5f8</t>
+        </is>
+      </c>
+      <c r="B4" s="11" t="n">
+        <v>44653.81812458333</v>
+      </c>
+      <c r="C4" s="4" t="inlineStr">
+        <is>
+          <t>KRW-XRP</t>
+        </is>
+      </c>
+      <c r="D4" s="4" t="n">
+        <v>940</v>
+      </c>
+      <c r="E4" s="4" t="n">
+        <v>109.44682447</v>
+      </c>
+      <c r="F4" s="4" t="inlineStr">
+        <is>
+          <t>거미줄매수</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="4" t="inlineStr">
+        <is>
+          <t>d1f9b64c-c867-4a58-a02b-ce232237a3a5</t>
+        </is>
+      </c>
+      <c r="B5" s="11" t="n">
+        <v>44653.81812458333</v>
+      </c>
+      <c r="C5" s="4" t="inlineStr">
+        <is>
+          <t>KRW-XRP</t>
+        </is>
+      </c>
+      <c r="D5" s="4" t="n">
+        <v>910</v>
+      </c>
+      <c r="E5" s="4" t="n">
+        <v>113.05496154</v>
+      </c>
+      <c r="F5" s="4" t="inlineStr">
+        <is>
+          <t>거미줄매수</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="4" t="inlineStr">
+        <is>
+          <t>aee93e96-c201-49a3-8ef3-aeb8d1c5ab9c</t>
+        </is>
+      </c>
+      <c r="B6" s="11" t="n">
+        <v>44653.81812458333</v>
+      </c>
+      <c r="C6" s="4" t="inlineStr">
+        <is>
+          <t>KRW-XRP</t>
+        </is>
+      </c>
+      <c r="D6" s="4" t="n">
+        <v>880</v>
+      </c>
+      <c r="E6" s="4" t="n">
+        <v>116.90910795</v>
+      </c>
+      <c r="F6" s="4" t="inlineStr">
+        <is>
+          <t>거미줄매수</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="4" t="inlineStr">
+        <is>
+          <t>933ec712-baf2-48e5-b3b5-e8f734233836</t>
+        </is>
+      </c>
+      <c r="B7" s="11" t="n">
+        <v>44653.81812458333</v>
+      </c>
+      <c r="C7" s="4" t="inlineStr">
+        <is>
+          <t>KRW-XRP</t>
+        </is>
+      </c>
+      <c r="D7" s="4" t="n">
+        <v>850</v>
+      </c>
+      <c r="E7" s="4" t="n">
+        <v>121.03531176</v>
+      </c>
+      <c r="F7" s="4" t="inlineStr">
+        <is>
+          <t>거미줄매수</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="4" t="inlineStr">
+        <is>
+          <t>612dd51d-f523-4505-98b8-7c5bfed16924</t>
+        </is>
+      </c>
+      <c r="B8" s="11" t="n">
+        <v>44653.81812458333</v>
+      </c>
+      <c r="C8" s="4" t="inlineStr">
+        <is>
+          <t>KRW-XRP</t>
+        </is>
+      </c>
+      <c r="D8" s="4" t="n">
+        <v>820</v>
+      </c>
+      <c r="E8" s="4" t="n">
+        <v>125.46343293</v>
+      </c>
+      <c r="F8" s="4" t="inlineStr">
+        <is>
+          <t>거미줄매수</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="4" t="inlineStr">
+        <is>
+          <t>2cc2dfce-287c-4680-ac87-ef686c9469fc</t>
+        </is>
+      </c>
+      <c r="B9" s="11" t="n">
+        <v>44653.81812458333</v>
+      </c>
+      <c r="C9" s="4" t="inlineStr">
+        <is>
+          <t>KRW-XRP</t>
+        </is>
+      </c>
+      <c r="D9" s="4" t="n">
+        <v>790</v>
+      </c>
+      <c r="E9" s="4" t="n">
+        <v>130.22786709</v>
+      </c>
+      <c r="F9" s="4" t="inlineStr">
+        <is>
+          <t>거미줄매수</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="4" t="inlineStr">
+        <is>
+          <t>001d1fda-97d2-4505-875b-715e6699bbf4</t>
+        </is>
+      </c>
+      <c r="B10" s="11" t="n">
+        <v>44653.81812458333</v>
+      </c>
+      <c r="C10" s="4" t="inlineStr">
+        <is>
+          <t>KRW-XRP</t>
+        </is>
+      </c>
+      <c r="D10" s="4" t="n">
+        <v>760</v>
+      </c>
+      <c r="E10" s="4" t="n">
+        <v>135.36844079</v>
+      </c>
+      <c r="F10" s="4" t="inlineStr">
+        <is>
+          <t>거미줄매수</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>17d390b5-8eb2-47e8-9583-98153ea7adba</t>
+        </is>
+      </c>
+      <c r="B11" s="12" t="n">
+        <v>44653.86655512063</v>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>KRW-XRP</t>
+        </is>
+      </c>
+      <c r="D11" t="n">
+        <v>1000</v>
+      </c>
+      <c r="E11" t="n">
+        <v>102.880015</v>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>거미줄매수</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>39f4a988-ae04-4336-aa8f-1d9b7a3c3c66</t>
+        </is>
+      </c>
+      <c r="B12" s="12" t="n">
+        <v>44653.86655512063</v>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>KRW-XRP</t>
+        </is>
+      </c>
+      <c r="D12" t="n">
+        <v>970</v>
+      </c>
+      <c r="E12" t="n">
+        <v>106.06187113</v>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>거미줄매수</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>ac08dc6d-59b0-4002-8dd1-4bd75da93e23</t>
+        </is>
+      </c>
+      <c r="B13" s="12" t="n">
+        <v>44653.86655512063</v>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>KRW-XRP</t>
+        </is>
+      </c>
+      <c r="D13" t="n">
+        <v>940</v>
+      </c>
+      <c r="E13" t="n">
+        <v>109.44682447</v>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>거미줄매수</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>57e2e48f-398d-42ed-9c4e-82fbca63daec</t>
+        </is>
+      </c>
+      <c r="B14" s="12" t="n">
+        <v>44653.86655512063</v>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>KRW-XRP</t>
+        </is>
+      </c>
+      <c r="D14" t="n">
+        <v>910</v>
+      </c>
+      <c r="E14" t="n">
+        <v>113.05496154</v>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>거미줄매수</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>d18bdce4-694b-4a13-9bba-3ead8563e2db</t>
+        </is>
+      </c>
+      <c r="B15" s="12" t="n">
+        <v>44653.86655512063</v>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>KRW-XRP</t>
+        </is>
+      </c>
+      <c r="D15" t="n">
+        <v>880</v>
+      </c>
+      <c r="E15" t="n">
+        <v>116.90910795</v>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>거미줄매수</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>29b24350-775e-4f09-999e-47a502ce9728</t>
+        </is>
+      </c>
+      <c r="B16" s="12" t="n">
+        <v>44653.86655512063</v>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>KRW-XRP</t>
+        </is>
+      </c>
+      <c r="D16" t="n">
+        <v>850</v>
+      </c>
+      <c r="E16" t="n">
+        <v>121.03531176</v>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>거미줄매수</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>7347431e-9b14-41eb-9725-a583a5a593fa</t>
+        </is>
+      </c>
+      <c r="B17" s="12" t="n">
+        <v>44653.86655512063</v>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>KRW-XRP</t>
+        </is>
+      </c>
+      <c r="D17" t="n">
+        <v>820</v>
+      </c>
+      <c r="E17" t="n">
+        <v>125.46343293</v>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>거미줄매수</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>db9621c6-fd3f-4859-abf4-206f63c55846</t>
+        </is>
+      </c>
+      <c r="B18" s="12" t="n">
+        <v>44653.86655512063</v>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>KRW-XRP</t>
+        </is>
+      </c>
+      <c r="D18" t="n">
+        <v>790</v>
+      </c>
+      <c r="E18" t="n">
+        <v>130.22786709</v>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>거미줄매수</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>52145c83-2aed-421a-b4ae-85d752b7dfb8</t>
+        </is>
+      </c>
+      <c r="B19" s="12" t="n">
+        <v>44653.86655512063</v>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>KRW-XRP</t>
+        </is>
+      </c>
+      <c r="D19" t="n">
+        <v>760</v>
+      </c>
+      <c r="E19" t="n">
+        <v>135.36844079</v>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>거미줄매수</t>
         </is>
       </c>
     </row>
@@ -5812,13 +7672,13 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B7"/>
+  <dimension ref="A1:C25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D21" sqref="D21"/>
+      <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="18"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="18" outlineLevelCol="0"/>
   <cols>
     <col width="19.140625" bestFit="1" customWidth="1" style="1" min="1" max="1"/>
     <col width="10.7109375" customWidth="1" style="8" min="2" max="2"/>
@@ -5877,11 +7737,207 @@
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="12" t="n">
+      <c r="A7" s="11" t="n">
         <v>44648.65413270833</v>
       </c>
       <c r="B7" s="4" t="n">
         <v>1017606.7580248</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="11" t="n">
+        <v>44649.83629413194</v>
+      </c>
+      <c r="B8" s="4" t="n">
+        <v>1010986.29909927</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="11" t="n">
+        <v>44649.83895396991</v>
+      </c>
+      <c r="B9" s="4" t="n">
+        <v>1010409.2032066</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="11" t="n">
+        <v>44649.84219458333</v>
+      </c>
+      <c r="B10" s="4" t="n">
+        <v>1009832.43839433</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="11" t="n">
+        <v>44649.84495008102</v>
+      </c>
+      <c r="B11" s="4" t="n">
+        <v>1009127.34035862</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="11" t="n">
+        <v>44650.05405233796</v>
+      </c>
+      <c r="B12" s="4" t="n">
+        <v>1014058.79312318</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="11" t="n">
+        <v>44650.31980175926</v>
+      </c>
+      <c r="B13" s="4" t="n">
+        <v>1020128.99385442</v>
+      </c>
+      <c r="C13" s="4">
+        <f>B13-B12</f>
+        <v/>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="11" t="n">
+        <v>44653.00335386574</v>
+      </c>
+      <c r="B14" s="4" t="n">
+        <v>1021988.67862877</v>
+      </c>
+      <c r="C14" s="4">
+        <f>B14-B13</f>
+        <v/>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="11" t="n">
+        <v>44653.0554040162</v>
+      </c>
+      <c r="B15" s="4" t="n">
+        <v>1022955.19242762</v>
+      </c>
+      <c r="C15" s="4">
+        <f>B15-B14</f>
+        <v/>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="11" t="n">
+        <v>44653.1290149074</v>
+      </c>
+      <c r="B16" s="4" t="n">
+        <v>1023877.07188922</v>
+      </c>
+      <c r="C16" s="4">
+        <f>B16-B15</f>
+        <v/>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="11" t="n">
+        <v>44653.38393679398</v>
+      </c>
+      <c r="B17" s="4" t="n">
+        <v>1024674.92249907</v>
+      </c>
+      <c r="C17" s="4">
+        <f>B17-B16</f>
+        <v/>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="11" t="n">
+        <v>44653.39849383102</v>
+      </c>
+      <c r="B18" s="4" t="n">
+        <v>1025869.73019221</v>
+      </c>
+      <c r="C18" s="4">
+        <f>B18-B17</f>
+        <v/>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="11" t="n">
+        <v>44653.43058582176</v>
+      </c>
+      <c r="B19" s="4" t="n">
+        <v>1027947.85749579</v>
+      </c>
+      <c r="C19" s="4">
+        <f>B19-B18</f>
+        <v/>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="11" t="n">
+        <v>44653.71838363426</v>
+      </c>
+      <c r="B20" s="4" t="n">
+        <v>1029047.59688842</v>
+      </c>
+      <c r="C20" s="4">
+        <f>B20-B19</f>
+        <v/>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="11" t="n">
+        <v>44653.71928302084</v>
+      </c>
+      <c r="B21" s="4" t="n">
+        <v>1030109.61267686</v>
+      </c>
+      <c r="C21" s="4">
+        <f>B21-B20</f>
+        <v/>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="11" t="n">
+        <v>44653.72125877315</v>
+      </c>
+      <c r="B22" s="4" t="n">
+        <v>1031410.4561176</v>
+      </c>
+      <c r="C22" s="4">
+        <f>B22-B21</f>
+        <v/>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="11" t="n">
+        <v>44653.72521373843</v>
+      </c>
+      <c r="B23" s="4" t="n">
+        <v>1032193.17962218</v>
+      </c>
+      <c r="C23" s="4">
+        <f>B23-B22</f>
+        <v/>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="11" t="n">
+        <v>44653.80593075231</v>
+      </c>
+      <c r="B24" s="4" t="n">
+        <v>1033111.32089588</v>
+      </c>
+      <c r="C24" s="4">
+        <f>B24-B23</f>
+        <v/>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="11" t="n">
+        <v>44653.81812458333</v>
+      </c>
+      <c r="B25" s="4" t="n">
+        <v>1033975.51984083</v>
+      </c>
+      <c r="C25" s="4">
+        <f>B25-B24</f>
+        <v/>
       </c>
     </row>
   </sheetData>

--- a/upbitRecord.xlsx
+++ b/upbitRecord.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kuhojung/Documents/CodingWorkSpace/practice/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2D79701C-3F4C-2742-9C9D-203497BFD21C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C38F3253-A7FC-E946-B5D8-A4C481E50460}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1360" yWindow="1320" windowWidth="27900" windowHeight="16820" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1233" uniqueCount="614">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1549" uniqueCount="792">
   <si>
     <t>날짜</t>
   </si>
@@ -1586,6 +1586,141 @@
     <t>1a85f5fb-57db-4bc8-99c2-09c7ec79e03b</t>
   </si>
   <si>
+    <t>2022-04-18</t>
+  </si>
+  <si>
+    <t>01:33:03</t>
+  </si>
+  <si>
+    <t>592e35fc-4c5b-4d80-a1d0-76dad504b014</t>
+  </si>
+  <si>
+    <t>01:34:01</t>
+  </si>
+  <si>
+    <t>1152ba16-7bae-4bd1-9641-cd4df1a4b211</t>
+  </si>
+  <si>
+    <t>13:20:10</t>
+  </si>
+  <si>
+    <t>ed900298-0982-4c2b-8b78-98271e63f1ac</t>
+  </si>
+  <si>
+    <t>20:17:48</t>
+  </si>
+  <si>
+    <t>83730934-bc38-45dc-b455-953ca67e510b</t>
+  </si>
+  <si>
+    <t>2022-04-19</t>
+  </si>
+  <si>
+    <t>09:14:07</t>
+  </si>
+  <si>
+    <t>1382bf4a-1b45-472e-9aff-c4d8a1a33b5d</t>
+  </si>
+  <si>
+    <t>09:15:01</t>
+  </si>
+  <si>
+    <t>c274d137-413d-4cda-82d1-cd2a4106d4fd</t>
+  </si>
+  <si>
+    <t>1700.0</t>
+  </si>
+  <si>
+    <t>026dfb7f-c85c-4087-be58-12118d923f12</t>
+  </si>
+  <si>
+    <t>10:06:22</t>
+  </si>
+  <si>
+    <t>79e3c3bb-ba2c-46cd-8fd0-fabaf8d77808</t>
+  </si>
+  <si>
+    <t>10:25:28</t>
+  </si>
+  <si>
+    <t>75c7e836-b646-4f67-91cd-340a8457ef15</t>
+  </si>
+  <si>
+    <t>10:30:28</t>
+  </si>
+  <si>
+    <t>293e8508-8843-4d9d-bfb7-425a675abaa8</t>
+  </si>
+  <si>
+    <t>1710.0</t>
+  </si>
+  <si>
+    <t>3be47703-8907-4555-b0ed-0b007adbd863</t>
+  </si>
+  <si>
+    <t>15:11:33</t>
+  </si>
+  <si>
+    <t>6cd0f724-baf9-435e-a05a-e3d21d05dd6d</t>
+  </si>
+  <si>
+    <t>15:49:18</t>
+  </si>
+  <si>
+    <t>6a83924c-2960-49c1-be61-90c716fb96c8</t>
+  </si>
+  <si>
+    <t>15:50:04</t>
+  </si>
+  <si>
+    <t>74d83757-4916-4eaf-ab0d-a159abbebfe6</t>
+  </si>
+  <si>
+    <t>15:51:09</t>
+  </si>
+  <si>
+    <t>78643611-f635-473c-8f1e-1cf974ee89e4</t>
+  </si>
+  <si>
+    <t>15:58:18</t>
+  </si>
+  <si>
+    <t>968d3178-6a9f-4421-a71a-4fef94a7c812</t>
+  </si>
+  <si>
+    <t>16:16:19</t>
+  </si>
+  <si>
+    <t>78b5894e-dd2e-4d15-895f-acf47535391e</t>
+  </si>
+  <si>
+    <t>16:17:10</t>
+  </si>
+  <si>
+    <t>5a5ced8d-4e5f-4b8f-b105-23ed6d04dd79</t>
+  </si>
+  <si>
+    <t>17:11:37</t>
+  </si>
+  <si>
+    <t>17fc2459-a7d1-4c8c-8023-54b821852ccf</t>
+  </si>
+  <si>
+    <t>17:30:15</t>
+  </si>
+  <si>
+    <t>30ac508e-e112-4405-ae56-72bc01fc29f9</t>
+  </si>
+  <si>
+    <t>17:30:16</t>
+  </si>
+  <si>
+    <t>1770.0</t>
+  </si>
+  <si>
+    <t>b2df9f52-3cf6-4880-84bc-a71a55d4f960</t>
+  </si>
+  <si>
     <t>16:07:46</t>
   </si>
   <si>
@@ -1736,6 +1871,426 @@
     <t>bf4b203c-c027-4219-8d31-bcdc094e8431</t>
   </si>
   <si>
+    <t>01:33:04.026041</t>
+  </si>
+  <si>
+    <t>46720.0</t>
+  </si>
+  <si>
+    <t>635e7077-6bd6-4d7b-a2e9-ecb316dc6647</t>
+  </si>
+  <si>
+    <t>01:33:05.238793</t>
+  </si>
+  <si>
+    <t>36640.0</t>
+  </si>
+  <si>
+    <t>ecea20c4-5f32-4ff6-9a22-3ead60dac3e3</t>
+  </si>
+  <si>
+    <t>01:33:06.461595</t>
+  </si>
+  <si>
+    <t>38080.0</t>
+  </si>
+  <si>
+    <t>ef9eff3e-25af-4ce0-a275-d6e6e5f60f82</t>
+  </si>
+  <si>
+    <t>01:33:07.677318</t>
+  </si>
+  <si>
+    <t>39520.0</t>
+  </si>
+  <si>
+    <t>caa72f0a-3a1a-4580-a613-18a66e740545</t>
+  </si>
+  <si>
+    <t>01:33:08.897710</t>
+  </si>
+  <si>
+    <t>40960.0</t>
+  </si>
+  <si>
+    <t>00a67576-a0c4-436a-b550-7e2f91bc01ce</t>
+  </si>
+  <si>
+    <t>01:33:10.134567</t>
+  </si>
+  <si>
+    <t>42400.0</t>
+  </si>
+  <si>
+    <t>fb58f052-5fc0-4d5e-8223-8030119f60af</t>
+  </si>
+  <si>
+    <t>01:33:11.394413</t>
+  </si>
+  <si>
+    <t>43840.0</t>
+  </si>
+  <si>
+    <t>d518dba7-1d52-44ec-95f7-d7e2c20d4504</t>
+  </si>
+  <si>
+    <t>01:33:12.614891</t>
+  </si>
+  <si>
+    <t>45280.0</t>
+  </si>
+  <si>
+    <t>f3172d97-650a-4bf4-8031-494a3f119446</t>
+  </si>
+  <si>
+    <t>09:14:07.952429</t>
+  </si>
+  <si>
+    <t>100100.0</t>
+  </si>
+  <si>
+    <t>50fe49c2-0a53-430e-9737-565c0f0b8c16</t>
+  </si>
+  <si>
+    <t>09:14:09.225291</t>
+  </si>
+  <si>
+    <t>104000.0</t>
+  </si>
+  <si>
+    <t>07a1b8e7-cc85-460e-bb03-4382ce86f582</t>
+  </si>
+  <si>
+    <t>09:14:10.413342</t>
+  </si>
+  <si>
+    <t>107900.0</t>
+  </si>
+  <si>
+    <t>2b70c09e-5d9b-4c97-b6e2-0a16fedaa6fe</t>
+  </si>
+  <si>
+    <t>09:14:11.630008</t>
+  </si>
+  <si>
+    <t>111800.0</t>
+  </si>
+  <si>
+    <t>57209421-73b6-42ef-81fe-5c37aedef8c0</t>
+  </si>
+  <si>
+    <t>09:14:12.796033</t>
+  </si>
+  <si>
+    <t>115700.0</t>
+  </si>
+  <si>
+    <t>582d9d37-3ee2-4afb-b55e-7f4db6f2562d</t>
+  </si>
+  <si>
+    <t>09:14:14.002394</t>
+  </si>
+  <si>
+    <t>119600.0</t>
+  </si>
+  <si>
+    <t>086f6d8b-a0f9-46f6-b98a-4dbbd81e29e2</t>
+  </si>
+  <si>
+    <t>09:14:15.192929</t>
+  </si>
+  <si>
+    <t>123600.0</t>
+  </si>
+  <si>
+    <t>6a0225c3-c138-438b-afd8-8dbc32ab6ccf</t>
+  </si>
+  <si>
+    <t>10:25:28.453977</t>
+  </si>
+  <si>
+    <t>1650.0</t>
+  </si>
+  <si>
+    <t>764f6537-75ed-4293-9dcd-a03aae9e5dff</t>
+  </si>
+  <si>
+    <t>10:25:29.654737</t>
+  </si>
+  <si>
+    <t>1600.0</t>
+  </si>
+  <si>
+    <t>794de97d-8720-46a9-b18b-86c5cd76977f</t>
+  </si>
+  <si>
+    <t>10:25:30.872097</t>
+  </si>
+  <si>
+    <t>1550.0</t>
+  </si>
+  <si>
+    <t>0298cd86-1945-45fd-9f7a-471440e76255</t>
+  </si>
+  <si>
+    <t>10:25:32.103219</t>
+  </si>
+  <si>
+    <t>1500.0</t>
+  </si>
+  <si>
+    <t>fb754c1e-a620-4e58-bb31-fcdef3d3a083</t>
+  </si>
+  <si>
+    <t>10:25:33.330020</t>
+  </si>
+  <si>
+    <t>1450.0</t>
+  </si>
+  <si>
+    <t>f0f36fc6-3f14-4c78-b397-4841f051d61f</t>
+  </si>
+  <si>
+    <t>10:25:34.573174</t>
+  </si>
+  <si>
+    <t>1400.0</t>
+  </si>
+  <si>
+    <t>ec5c166e-f086-4442-9a3c-47af086bd5e9</t>
+  </si>
+  <si>
+    <t>10:25:35.779343</t>
+  </si>
+  <si>
+    <t>1350.0</t>
+  </si>
+  <si>
+    <t>b2f868e9-8d93-49ee-95c1-d0f950e22715</t>
+  </si>
+  <si>
+    <t>10:25:37.002175</t>
+  </si>
+  <si>
+    <t>2e3fb6f3-243a-415b-bf60-eead46486b70</t>
+  </si>
+  <si>
+    <t>15:11:34.012677</t>
+  </si>
+  <si>
+    <t>1660.0</t>
+  </si>
+  <si>
+    <t>5c470fc9-5151-4f0a-9324-516db7505e9c</t>
+  </si>
+  <si>
+    <t>15:11:35.185459</t>
+  </si>
+  <si>
+    <t>1610.0</t>
+  </si>
+  <si>
+    <t>9408ae12-2710-4b1d-86a5-be5546cd9a6e</t>
+  </si>
+  <si>
+    <t>15:11:36.405934</t>
+  </si>
+  <si>
+    <t>1560.0</t>
+  </si>
+  <si>
+    <t>42f4d120-4700-40ec-a13c-3ca76a75d404</t>
+  </si>
+  <si>
+    <t>15:11:37.588864</t>
+  </si>
+  <si>
+    <t>1510.0</t>
+  </si>
+  <si>
+    <t>ce949974-0939-4259-9935-3ccc017408f6</t>
+  </si>
+  <si>
+    <t>15:11:38.838457</t>
+  </si>
+  <si>
+    <t>1460.0</t>
+  </si>
+  <si>
+    <t>1bc52eb9-4ed4-4387-8065-f6e89a9bf840</t>
+  </si>
+  <si>
+    <t>15:11:40.043455</t>
+  </si>
+  <si>
+    <t>1410.0</t>
+  </si>
+  <si>
+    <t>a5178b00-2a50-4d7a-86f0-16941e218c20</t>
+  </si>
+  <si>
+    <t>15:11:41.211925</t>
+  </si>
+  <si>
+    <t>1360.0</t>
+  </si>
+  <si>
+    <t>363e476a-f489-48bb-8aed-6fb64fc8eede</t>
+  </si>
+  <si>
+    <t>15:11:42.390894</t>
+  </si>
+  <si>
+    <t>56.81818182</t>
+  </si>
+  <si>
+    <t>8745eac5-158a-44b7-8d40-f73d122d31c3</t>
+  </si>
+  <si>
+    <t>16:16:19.460271</t>
+  </si>
+  <si>
+    <t>20380.0</t>
+  </si>
+  <si>
+    <t>f26488be-044a-424c-9b4f-31ecb0a195e6</t>
+  </si>
+  <si>
+    <t>16:16:20.640357</t>
+  </si>
+  <si>
+    <t>19750.0</t>
+  </si>
+  <si>
+    <t>1b9a0893-f9fd-419a-b8ca-5239e83a550d</t>
+  </si>
+  <si>
+    <t>16:16:21.832980</t>
+  </si>
+  <si>
+    <t>19120.0</t>
+  </si>
+  <si>
+    <t>f2daafca-6017-4d08-81b6-e0058fd317f5</t>
+  </si>
+  <si>
+    <t>16:16:23.076982</t>
+  </si>
+  <si>
+    <t>18490.0</t>
+  </si>
+  <si>
+    <t>e6a44e35-eaa5-493f-a1e3-fd13f3f5bbef</t>
+  </si>
+  <si>
+    <t>16:16:24.288392</t>
+  </si>
+  <si>
+    <t>17860.0</t>
+  </si>
+  <si>
+    <t>5b2a50a6-852a-446d-bf6a-757db18d9793</t>
+  </si>
+  <si>
+    <t>16:16:25.478558</t>
+  </si>
+  <si>
+    <t>17230.0</t>
+  </si>
+  <si>
+    <t>5f56677d-a3e3-41a5-9690-c0bdca439aa1</t>
+  </si>
+  <si>
+    <t>16:16:26.667510</t>
+  </si>
+  <si>
+    <t>16600.0</t>
+  </si>
+  <si>
+    <t>0f80e167-d90c-42c4-88a4-bda2ece03ecf</t>
+  </si>
+  <si>
+    <t>16:16:27.892714</t>
+  </si>
+  <si>
+    <t>15970.0</t>
+  </si>
+  <si>
+    <t>fb509742-2314-4a26-8c99-f43a7a7f51ef</t>
+  </si>
+  <si>
+    <t>17:11:37.969284</t>
+  </si>
+  <si>
+    <t>1745.0</t>
+  </si>
+  <si>
+    <t>0cb63f8d-bb95-4900-b27d-3632da658840</t>
+  </si>
+  <si>
+    <t>17:11:39.164175</t>
+  </si>
+  <si>
+    <t>1695.0</t>
+  </si>
+  <si>
+    <t>63306abd-c1b8-4872-aa34-e94949a0d3c5</t>
+  </si>
+  <si>
+    <t>17:11:40.414662</t>
+  </si>
+  <si>
+    <t>1645.0</t>
+  </si>
+  <si>
+    <t>c259938a-947f-4bc9-9348-ccffe3364bb8</t>
+  </si>
+  <si>
+    <t>17:11:41.671376</t>
+  </si>
+  <si>
+    <t>1595.0</t>
+  </si>
+  <si>
+    <t>5410d87e-5090-468e-8f16-094c3d904ded</t>
+  </si>
+  <si>
+    <t>17:11:42.868422</t>
+  </si>
+  <si>
+    <t>1545.0</t>
+  </si>
+  <si>
+    <t>4dd14078-a368-4718-af90-349b3ddfc09f</t>
+  </si>
+  <si>
+    <t>17:11:44.056113</t>
+  </si>
+  <si>
+    <t>1495.0</t>
+  </si>
+  <si>
+    <t>764ef319-e790-4519-8202-552b89aaf1b5</t>
+  </si>
+  <si>
+    <t>17:11:45.246812</t>
+  </si>
+  <si>
+    <t>1445.0</t>
+  </si>
+  <si>
+    <t>9c6df298-d014-44e9-b813-ddad77f8abdc</t>
+  </si>
+  <si>
+    <t>17:11:46.467561</t>
+  </si>
+  <si>
+    <t>1395.0</t>
+  </si>
+  <si>
+    <t>38feb75f-4d7e-4161-abd1-4915cd520e78</t>
+  </si>
+  <si>
     <t>UUID</t>
   </si>
   <si>
@@ -1760,6 +2315,18 @@
     <t>매수 / 매도</t>
   </si>
   <si>
+    <t>61888508-8c93-4d5b-bd59-4b10a51b76c2</t>
+  </si>
+  <si>
+    <t>49197000.0</t>
+  </si>
+  <si>
+    <t>bid</t>
+  </si>
+  <si>
+    <t>limit</t>
+  </si>
+  <si>
     <t>e3bb102d-029f-4337-901f-1eeedbf3cb33</t>
   </si>
   <si>
@@ -1769,18 +2336,12 @@
     <t>ask</t>
   </si>
   <si>
-    <t>limit</t>
-  </si>
-  <si>
     <t>83dd2d6f-577e-48fa-ba6f-f449817b8bbe</t>
   </si>
   <si>
     <t>39502000.0</t>
   </si>
   <si>
-    <t>bid</t>
-  </si>
-  <si>
     <t>57f533de-e135-41d8-b9c7-d54e12115c6b</t>
   </si>
   <si>
@@ -1811,70 +2372,44 @@
     <t>47622000.0</t>
   </si>
   <si>
-    <t>d6be473f-a4b1-496a-8c48-314ffa7abcb9</t>
-  </si>
-  <si>
-    <t>49246000.0</t>
-  </si>
-  <si>
-    <t>67111e0d-fb97-4d1d-95d7-98c4396eeb61</t>
-  </si>
-  <si>
-    <t>142.0</t>
-  </si>
-  <si>
-    <t>316c9d89-3725-4f4e-a3fa-bf0c35dde872</t>
-  </si>
-  <si>
-    <t>154.0</t>
-  </si>
-  <si>
-    <t>96d52bee-cdb7-4fc2-8ac4-8c235c0896ac</t>
-  </si>
-  <si>
-    <t>166.0</t>
-  </si>
-  <si>
-    <t>a09247b6-cab4-4a95-adfd-96e3dbde1613</t>
-  </si>
-  <si>
-    <t>153.0</t>
-  </si>
-  <si>
-    <t>추가 거미줄매수</t>
-  </si>
-  <si>
-    <t>8d1ba0f9-5a67-4f68-b698-754d28a4924c</t>
+    <t>7a934a56-3031-41f9-b634-a7fb29d8f62b</t>
   </si>
   <si>
     <t>거미줄매수</t>
   </si>
   <si>
-    <t>f3172d97-650a-4bf4-8031-494a3f119446</t>
-  </si>
-  <si>
-    <t>d518dba7-1d52-44ec-95f7-d7e2c20d4504</t>
-  </si>
-  <si>
-    <t>fb58f052-5fc0-4d5e-8223-8030119f60af</t>
-  </si>
-  <si>
-    <t>00a67576-a0c4-436a-b550-7e2f91bc01ce</t>
-  </si>
-  <si>
-    <t>caa72f0a-3a1a-4580-a613-18a66e740545</t>
-  </si>
-  <si>
-    <t>ef9eff3e-25af-4ce0-a275-d6e6e5f60f82</t>
-  </si>
-  <si>
-    <t>ecea20c4-5f32-4ff6-9a22-3ead60dac3e3</t>
+    <t>e0a3790f-e905-4993-8301-97a54bb16ce4</t>
+  </si>
+  <si>
+    <t>8957221d-a6d5-4336-93af-0880166651da</t>
+  </si>
+  <si>
+    <t>1df66a9e-8e4e-4abe-ac92-75aa33203721</t>
+  </si>
+  <si>
+    <t>cc867ab9-c77f-4035-bd37-6b086a1a40a6</t>
+  </si>
+  <si>
+    <t>79b99e0e-db6a-4682-b8e2-341f5273950b</t>
+  </si>
+  <si>
+    <t>a8446e5d-229f-4656-b157-43e6bcdea9cc</t>
+  </si>
+  <si>
+    <t>9f3c950b-b2ff-4bf6-96cf-3c564875fc93</t>
+  </si>
+  <si>
+    <t>추가 거미줄매도</t>
   </si>
   <si>
     <t>Date</t>
   </si>
   <si>
     <t>Balance</t>
+  </si>
+  <si>
+    <t>Locked</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -2297,18 +2832,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H160"/>
+  <dimension ref="A1:H181"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="6" ySplit="1" topLeftCell="G138" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="6" ySplit="1" topLeftCell="G160" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="G1" sqref="G1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="C164" sqref="C164"/>
+      <selection pane="bottomRight" activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="18"/>
   <cols>
-    <col min="5" max="5" width="17" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="17" style="6" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="37.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="10.7109375" style="6" customWidth="1"/>
   </cols>
@@ -2335,7 +2870,9 @@
       <c r="G1" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="2"/>
+      <c r="H1" s="3" t="s">
+        <v>791</v>
+      </c>
     </row>
     <row r="2" spans="1:8">
       <c r="A2" s="2" t="s">
@@ -2350,7 +2887,7 @@
       <c r="D2" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="E2" s="2" t="s">
+      <c r="E2" s="6" t="s">
         <v>11</v>
       </c>
     </row>
@@ -2384,7 +2921,7 @@
       <c r="D4" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="E4" s="2" t="s">
+      <c r="E4" s="6" t="s">
         <v>17</v>
       </c>
       <c r="F4" s="2" t="s">
@@ -2404,7 +2941,7 @@
       <c r="D5" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="E5" s="2" t="s">
+      <c r="E5" s="6" t="s">
         <v>20</v>
       </c>
       <c r="F5" s="2" t="s">
@@ -2424,7 +2961,7 @@
       <c r="D6" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="E6" s="2" t="s">
+      <c r="E6" s="6" t="s">
         <v>25</v>
       </c>
       <c r="F6" s="2" t="s">
@@ -2444,7 +2981,7 @@
       <c r="D7" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="E7" s="2" t="s">
+      <c r="E7" s="6" t="s">
         <v>25</v>
       </c>
       <c r="F7" s="2" t="s">
@@ -2464,7 +3001,7 @@
       <c r="D8" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="E8" s="2" t="s">
+      <c r="E8" s="6" t="s">
         <v>25</v>
       </c>
       <c r="F8" s="2" t="s">
@@ -2484,7 +3021,7 @@
       <c r="D9" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="E9" s="2" t="s">
+      <c r="E9" s="6" t="s">
         <v>25</v>
       </c>
       <c r="F9" s="2" t="s">
@@ -2504,7 +3041,7 @@
       <c r="D10" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="E10" s="2" t="s">
+      <c r="E10" s="6" t="s">
         <v>25</v>
       </c>
       <c r="F10" s="2" t="s">
@@ -2524,7 +3061,7 @@
       <c r="D11" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="E11" s="2" t="s">
+      <c r="E11" s="6" t="s">
         <v>29</v>
       </c>
       <c r="F11" s="2" t="s">
@@ -2544,7 +3081,7 @@
       <c r="D12" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="E12" s="2" t="s">
+      <c r="E12" s="6" t="s">
         <v>32</v>
       </c>
       <c r="F12" s="2" t="s">
@@ -2564,7 +3101,7 @@
       <c r="D13" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="E13" s="2" t="s">
+      <c r="E13" s="6" t="s">
         <v>37</v>
       </c>
       <c r="F13" s="2" t="s">
@@ -2584,7 +3121,7 @@
       <c r="D14" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="E14" s="2" t="s">
+      <c r="E14" s="6" t="s">
         <v>37</v>
       </c>
       <c r="F14" s="2" t="s">
@@ -2604,7 +3141,7 @@
       <c r="D15" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="E15" s="2" t="s">
+      <c r="E15" s="6" t="s">
         <v>37</v>
       </c>
       <c r="F15" s="2" t="s">
@@ -2624,7 +3161,7 @@
       <c r="D16" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="E16" s="2" t="s">
+      <c r="E16" s="6" t="s">
         <v>37</v>
       </c>
       <c r="F16" s="2" t="s">
@@ -2644,7 +3181,7 @@
       <c r="D17" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="E17" s="2" t="s">
+      <c r="E17" s="6" t="s">
         <v>37</v>
       </c>
       <c r="F17" s="2" t="s">
@@ -2664,7 +3201,7 @@
       <c r="D18" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="E18" s="2" t="s">
+      <c r="E18" s="6" t="s">
         <v>37</v>
       </c>
       <c r="F18" s="2" t="s">
@@ -2684,7 +3221,7 @@
       <c r="D19" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="E19" s="2" t="s">
+      <c r="E19" s="6" t="s">
         <v>37</v>
       </c>
       <c r="F19" s="2" t="s">
@@ -2704,7 +3241,7 @@
       <c r="D20" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="E20" s="2" t="s">
+      <c r="E20" s="6" t="s">
         <v>37</v>
       </c>
       <c r="F20" s="2" t="s">
@@ -2724,7 +3261,7 @@
       <c r="D21" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="E21" s="2" t="s">
+      <c r="E21" s="6" t="s">
         <v>37</v>
       </c>
       <c r="F21" s="2" t="s">
@@ -2744,7 +3281,7 @@
       <c r="D22" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="E22" s="2" t="s">
+      <c r="E22" s="6" t="s">
         <v>37</v>
       </c>
       <c r="F22" s="2" t="s">
@@ -2764,7 +3301,7 @@
       <c r="D23" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="E23" s="2" t="s">
+      <c r="E23" s="6" t="s">
         <v>37</v>
       </c>
       <c r="F23" s="2" t="s">
@@ -2784,7 +3321,7 @@
       <c r="D24" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="E24" s="2" t="s">
+      <c r="E24" s="6" t="s">
         <v>63</v>
       </c>
       <c r="F24" s="2" t="s">
@@ -2804,7 +3341,7 @@
       <c r="D25" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="E25" s="2" t="s">
+      <c r="E25" s="6" t="s">
         <v>67</v>
       </c>
       <c r="F25" s="2" t="s">
@@ -2824,7 +3361,7 @@
       <c r="D26" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="E26" s="2" t="s">
+      <c r="E26" s="6" t="s">
         <v>71</v>
       </c>
       <c r="F26" s="2" t="s">
@@ -2844,7 +3381,7 @@
       <c r="D27" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="E27" s="2" t="s">
+      <c r="E27" s="6" t="s">
         <v>74</v>
       </c>
       <c r="F27" s="2" t="s">
@@ -2864,7 +3401,7 @@
       <c r="D28" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="E28" s="2" t="s">
+      <c r="E28" s="6" t="s">
         <v>77</v>
       </c>
       <c r="F28" s="2" t="s">
@@ -2884,7 +3421,7 @@
       <c r="D29" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="E29" s="2" t="s">
+      <c r="E29" s="6" t="s">
         <v>80</v>
       </c>
       <c r="F29" s="2" t="s">
@@ -2904,7 +3441,7 @@
       <c r="D30" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="E30" s="2" t="s">
+      <c r="E30" s="6" t="s">
         <v>83</v>
       </c>
       <c r="F30" s="2" t="s">
@@ -2924,7 +3461,7 @@
       <c r="D31" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="E31" s="2" t="s">
+      <c r="E31" s="6" t="s">
         <v>86</v>
       </c>
       <c r="F31" s="2" t="s">
@@ -2944,7 +3481,7 @@
       <c r="D32" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="E32" s="2" t="s">
+      <c r="E32" s="6" t="s">
         <v>90</v>
       </c>
       <c r="F32" s="2" t="s">
@@ -2964,7 +3501,7 @@
       <c r="D33" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="E33" s="2" t="s">
+      <c r="E33" s="6" t="s">
         <v>93</v>
       </c>
       <c r="F33" s="2" t="s">
@@ -2984,7 +3521,7 @@
       <c r="D34" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="E34" s="2" t="s">
+      <c r="E34" s="6" t="s">
         <v>97</v>
       </c>
       <c r="F34" s="2" t="s">
@@ -3004,7 +3541,7 @@
       <c r="D35" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="E35" s="2" t="s">
+      <c r="E35" s="6" t="s">
         <v>101</v>
       </c>
       <c r="F35" s="2" t="s">
@@ -3024,7 +3561,7 @@
       <c r="D36" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="E36" s="2" t="s">
+      <c r="E36" s="6" t="s">
         <v>104</v>
       </c>
       <c r="F36" s="2" t="s">
@@ -3044,7 +3581,7 @@
       <c r="D37" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="E37" s="2" t="s">
+      <c r="E37" s="6" t="s">
         <v>107</v>
       </c>
       <c r="F37" s="2" t="s">
@@ -3064,7 +3601,7 @@
       <c r="D38" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="E38" s="2" t="s">
+      <c r="E38" s="6" t="s">
         <v>110</v>
       </c>
       <c r="F38" s="2" t="s">
@@ -3084,7 +3621,7 @@
       <c r="D39" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="E39" s="2" t="s">
+      <c r="E39" s="6" t="s">
         <v>113</v>
       </c>
       <c r="F39" s="2" t="s">
@@ -3104,7 +3641,7 @@
       <c r="D40" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="E40" s="2" t="s">
+      <c r="E40" s="6" t="s">
         <v>116</v>
       </c>
       <c r="F40" s="2" t="s">
@@ -3124,7 +3661,7 @@
       <c r="D41" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="E41" s="2" t="s">
+      <c r="E41" s="6" t="s">
         <v>119</v>
       </c>
       <c r="F41" s="2" t="s">
@@ -3144,7 +3681,7 @@
       <c r="D42" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="E42" s="2" t="s">
+      <c r="E42" s="6" t="s">
         <v>119</v>
       </c>
       <c r="F42" s="2" t="s">
@@ -3164,7 +3701,7 @@
       <c r="D43" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="E43" s="2" t="s">
+      <c r="E43" s="6" t="s">
         <v>101</v>
       </c>
       <c r="F43" s="2" t="s">
@@ -3184,7 +3721,7 @@
       <c r="D44" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="E44" s="2" t="s">
+      <c r="E44" s="6" t="s">
         <v>110</v>
       </c>
       <c r="F44" s="2" t="s">
@@ -3204,7 +3741,7 @@
       <c r="D45" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="E45" s="2" t="s">
+      <c r="E45" s="6" t="s">
         <v>128</v>
       </c>
       <c r="F45" s="2" t="s">
@@ -3224,7 +3761,7 @@
       <c r="D46" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="E46" s="2" t="s">
+      <c r="E46" s="6" t="s">
         <v>131</v>
       </c>
       <c r="F46" s="2" t="s">
@@ -3244,7 +3781,7 @@
       <c r="D47" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="E47" s="2" t="s">
+      <c r="E47" s="6" t="s">
         <v>134</v>
       </c>
       <c r="F47" s="2" t="s">
@@ -3264,7 +3801,7 @@
       <c r="D48" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="E48" s="2" t="s">
+      <c r="E48" s="6" t="s">
         <v>137</v>
       </c>
       <c r="F48" s="2" t="s">
@@ -3284,7 +3821,7 @@
       <c r="D49" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="E49" s="2" t="s">
+      <c r="E49" s="6" t="s">
         <v>140</v>
       </c>
       <c r="F49" s="2" t="s">
@@ -3304,7 +3841,7 @@
       <c r="D50" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="E50" s="2" t="s">
+      <c r="E50" s="6" t="s">
         <v>143</v>
       </c>
       <c r="F50" s="2" t="s">
@@ -3324,7 +3861,7 @@
       <c r="D51" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="E51" s="2" t="s">
+      <c r="E51" s="6" t="s">
         <v>147</v>
       </c>
       <c r="F51" s="2" t="s">
@@ -3344,7 +3881,7 @@
       <c r="D52" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="E52" s="2" t="s">
+      <c r="E52" s="6" t="s">
         <v>151</v>
       </c>
       <c r="F52" s="2" t="s">
@@ -3364,7 +3901,7 @@
       <c r="D53" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="E53" s="2" t="s">
+      <c r="E53" s="6" t="s">
         <v>156</v>
       </c>
       <c r="F53" s="2" t="s">
@@ -3384,7 +3921,7 @@
       <c r="D54" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="E54" s="2" t="s">
+      <c r="E54" s="6" t="s">
         <v>159</v>
       </c>
       <c r="F54" s="2" t="s">
@@ -3404,7 +3941,7 @@
       <c r="D55" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="E55" s="2" t="s">
+      <c r="E55" s="6" t="s">
         <v>162</v>
       </c>
       <c r="F55" s="2" t="s">
@@ -3424,7 +3961,7 @@
       <c r="D56" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="E56" s="2" t="s">
+      <c r="E56" s="6" t="s">
         <v>165</v>
       </c>
       <c r="F56" s="2" t="s">
@@ -3444,7 +3981,7 @@
       <c r="D57" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="E57" s="2" t="s">
+      <c r="E57" s="6" t="s">
         <v>165</v>
       </c>
       <c r="F57" s="2" t="s">
@@ -3464,7 +4001,7 @@
       <c r="D58" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="E58" s="2" t="s">
+      <c r="E58" s="6" t="s">
         <v>171</v>
       </c>
       <c r="F58" s="2" t="s">
@@ -3484,7 +4021,7 @@
       <c r="D59" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="E59" s="2" t="s">
+      <c r="E59" s="6" t="s">
         <v>175</v>
       </c>
       <c r="F59" s="2" t="s">
@@ -3504,7 +4041,7 @@
       <c r="D60" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="E60" s="2" t="s">
+      <c r="E60" s="6" t="s">
         <v>179</v>
       </c>
       <c r="F60" s="2" t="s">
@@ -3524,7 +4061,7 @@
       <c r="D61" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="E61" s="2" t="s">
+      <c r="E61" s="6" t="s">
         <v>182</v>
       </c>
       <c r="F61" s="2" t="s">
@@ -3544,7 +4081,7 @@
       <c r="D62" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="E62" s="2" t="s">
+      <c r="E62" s="6" t="s">
         <v>185</v>
       </c>
       <c r="F62" s="2" t="s">
@@ -3567,7 +4104,7 @@
       <c r="D63" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="E63" s="2" t="s">
+      <c r="E63" s="6" t="s">
         <v>188</v>
       </c>
       <c r="F63" s="2" t="s">
@@ -3590,7 +4127,7 @@
       <c r="D64" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="E64" s="2" t="s">
+      <c r="E64" s="6" t="s">
         <v>191</v>
       </c>
       <c r="F64" s="2" t="s">
@@ -3613,7 +4150,7 @@
       <c r="D65" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="E65" s="2" t="s">
+      <c r="E65" s="6" t="s">
         <v>194</v>
       </c>
       <c r="F65" s="2" t="s">
@@ -3636,7 +4173,7 @@
       <c r="D66" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="E66" s="2" t="s">
+      <c r="E66" s="6" t="s">
         <v>198</v>
       </c>
       <c r="F66" s="2" t="s">
@@ -3659,7 +4196,7 @@
       <c r="D67" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="E67" s="2" t="s">
+      <c r="E67" s="6" t="s">
         <v>202</v>
       </c>
       <c r="F67" s="2" t="s">
@@ -3682,7 +4219,7 @@
       <c r="D68" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="E68" s="2" t="s">
+      <c r="E68" s="6" t="s">
         <v>205</v>
       </c>
       <c r="F68" s="2" t="s">
@@ -3705,7 +4242,7 @@
       <c r="D69" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="E69" s="2" t="s">
+      <c r="E69" s="6" t="s">
         <v>209</v>
       </c>
       <c r="F69" s="2" t="s">
@@ -3728,7 +4265,7 @@
       <c r="D70" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="E70" s="2" t="s">
+      <c r="E70" s="6" t="s">
         <v>212</v>
       </c>
       <c r="F70" s="2" t="s">
@@ -3751,7 +4288,7 @@
       <c r="D71" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="E71" s="2" t="s">
+      <c r="E71" s="6" t="s">
         <v>216</v>
       </c>
       <c r="F71" s="2" t="s">
@@ -3774,7 +4311,7 @@
       <c r="D72" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="E72" s="2" t="s">
+      <c r="E72" s="6" t="s">
         <v>219</v>
       </c>
       <c r="F72" s="2" t="s">
@@ -3797,7 +4334,7 @@
       <c r="D73" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="E73" s="2" t="s">
+      <c r="E73" s="6" t="s">
         <v>223</v>
       </c>
       <c r="F73" s="2" t="s">
@@ -3820,7 +4357,7 @@
       <c r="D74" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="E74" s="2" t="s">
+      <c r="E74" s="6" t="s">
         <v>227</v>
       </c>
       <c r="F74" s="2" t="s">
@@ -3843,7 +4380,7 @@
       <c r="D75" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="E75" s="2" t="s">
+      <c r="E75" s="6" t="s">
         <v>231</v>
       </c>
       <c r="F75" s="2" t="s">
@@ -3866,7 +4403,7 @@
       <c r="D76" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="E76" s="2" t="s">
+      <c r="E76" s="6" t="s">
         <v>236</v>
       </c>
       <c r="F76" s="2" t="s">
@@ -3889,7 +4426,7 @@
       <c r="D77" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="E77" s="2" t="s">
+      <c r="E77" s="6" t="s">
         <v>240</v>
       </c>
       <c r="F77" s="2" t="s">
@@ -3912,7 +4449,7 @@
       <c r="D78" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="E78" s="2" t="s">
+      <c r="E78" s="6" t="s">
         <v>244</v>
       </c>
       <c r="F78" s="2" t="s">
@@ -3935,7 +4472,7 @@
       <c r="D79" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="E79" s="2" t="s">
+      <c r="E79" s="6" t="s">
         <v>248</v>
       </c>
       <c r="F79" s="2" t="s">
@@ -3958,7 +4495,7 @@
       <c r="D80" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="E80" s="2" t="s">
+      <c r="E80" s="6" t="s">
         <v>251</v>
       </c>
       <c r="F80" s="2" t="s">
@@ -3981,7 +4518,7 @@
       <c r="D81" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="E81" s="2" t="s">
+      <c r="E81" s="6" t="s">
         <v>254</v>
       </c>
       <c r="F81" s="2" t="s">
@@ -4004,7 +4541,7 @@
       <c r="D82" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="E82" s="2" t="s">
+      <c r="E82" s="6" t="s">
         <v>258</v>
       </c>
       <c r="F82" s="2" t="s">
@@ -4027,7 +4564,7 @@
       <c r="D83" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="E83" s="2" t="s">
+      <c r="E83" s="6" t="s">
         <v>262</v>
       </c>
       <c r="F83" s="2" t="s">
@@ -4050,7 +4587,7 @@
       <c r="D84" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="E84" s="2" t="s">
+      <c r="E84" s="6" t="s">
         <v>265</v>
       </c>
       <c r="F84" s="2" t="s">
@@ -4073,7 +4610,7 @@
       <c r="D85" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="E85" s="2" t="s">
+      <c r="E85" s="6" t="s">
         <v>269</v>
       </c>
       <c r="F85" s="2" t="s">
@@ -4096,7 +4633,7 @@
       <c r="D86" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="E86" s="2" t="s">
+      <c r="E86" s="6" t="s">
         <v>272</v>
       </c>
       <c r="F86" s="2" t="s">
@@ -4119,7 +4656,7 @@
       <c r="D87" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="E87" s="2" t="s">
+      <c r="E87" s="6" t="s">
         <v>275</v>
       </c>
       <c r="F87" s="2" t="s">
@@ -4142,7 +4679,7 @@
       <c r="D88" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="E88" s="2" t="s">
+      <c r="E88" s="6" t="s">
         <v>278</v>
       </c>
       <c r="F88" s="2" t="s">
@@ -4165,7 +4702,7 @@
       <c r="D89" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="E89" s="2" t="s">
+      <c r="E89" s="6" t="s">
         <v>282</v>
       </c>
       <c r="F89" s="2" t="s">
@@ -4188,7 +4725,7 @@
       <c r="D90" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="E90" s="2" t="s">
+      <c r="E90" s="6" t="s">
         <v>285</v>
       </c>
       <c r="F90" s="2" t="s">
@@ -4211,7 +4748,7 @@
       <c r="D91" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="E91" s="2" t="s">
+      <c r="E91" s="6" t="s">
         <v>288</v>
       </c>
       <c r="F91" s="2" t="s">
@@ -4234,7 +4771,7 @@
       <c r="D92" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="E92" s="2" t="s">
+      <c r="E92" s="6" t="s">
         <v>291</v>
       </c>
       <c r="F92" s="2" t="s">
@@ -4257,7 +4794,7 @@
       <c r="D93" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="E93" s="2" t="s">
+      <c r="E93" s="6" t="s">
         <v>296</v>
       </c>
       <c r="F93" s="2" t="s">
@@ -4280,7 +4817,7 @@
       <c r="D94" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="E94" s="2" t="s">
+      <c r="E94" s="6" t="s">
         <v>299</v>
       </c>
       <c r="F94" s="2" t="s">
@@ -4303,7 +4840,7 @@
       <c r="D95" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="E95" s="2" t="s">
+      <c r="E95" s="6" t="s">
         <v>303</v>
       </c>
       <c r="F95" s="2" t="s">
@@ -4326,7 +4863,7 @@
       <c r="D96" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="E96" s="2" t="s">
+      <c r="E96" s="6" t="s">
         <v>307</v>
       </c>
       <c r="F96" s="2" t="s">
@@ -4349,7 +4886,7 @@
       <c r="D97" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="E97" s="2" t="s">
+      <c r="E97" s="6" t="s">
         <v>310</v>
       </c>
       <c r="F97" s="2" t="s">
@@ -4372,7 +4909,7 @@
       <c r="D98" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="E98" s="2" t="s">
+      <c r="E98" s="6" t="s">
         <v>313</v>
       </c>
       <c r="F98" s="2" t="s">
@@ -4395,7 +4932,7 @@
       <c r="D99" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="E99" s="2" t="s">
+      <c r="E99" s="6" t="s">
         <v>316</v>
       </c>
       <c r="F99" s="2" t="s">
@@ -4418,7 +4955,7 @@
       <c r="D100" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="E100" s="2" t="s">
+      <c r="E100" s="6" t="s">
         <v>320</v>
       </c>
       <c r="F100" s="2" t="s">
@@ -4441,7 +4978,7 @@
       <c r="D101" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="E101" s="2" t="s">
+      <c r="E101" s="6" t="s">
         <v>323</v>
       </c>
       <c r="F101" s="2" t="s">
@@ -4464,7 +5001,7 @@
       <c r="D102" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="E102" s="2" t="s">
+      <c r="E102" s="6" t="s">
         <v>326</v>
       </c>
       <c r="F102" s="2" t="s">
@@ -4487,7 +5024,7 @@
       <c r="D103" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="E103" s="2" t="s">
+      <c r="E103" s="6" t="s">
         <v>329</v>
       </c>
       <c r="F103" s="2" t="s">
@@ -4510,7 +5047,7 @@
       <c r="D104" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="E104" s="2" t="s">
+      <c r="E104" s="6" t="s">
         <v>333</v>
       </c>
       <c r="F104" s="2" t="s">
@@ -4533,7 +5070,7 @@
       <c r="D105" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="E105" s="2" t="s">
+      <c r="E105" s="6" t="s">
         <v>337</v>
       </c>
       <c r="F105" s="2" t="s">
@@ -4556,7 +5093,7 @@
       <c r="D106" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="E106" s="2" t="s">
+      <c r="E106" s="6" t="s">
         <v>340</v>
       </c>
       <c r="F106" s="2" t="s">
@@ -4579,7 +5116,7 @@
       <c r="D107" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="E107" s="2" t="s">
+      <c r="E107" s="6" t="s">
         <v>344</v>
       </c>
       <c r="F107" s="2" t="s">
@@ -4602,7 +5139,7 @@
       <c r="D108" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="E108" s="2" t="s">
+      <c r="E108" s="6" t="s">
         <v>347</v>
       </c>
       <c r="F108" s="2" t="s">
@@ -4625,7 +5162,7 @@
       <c r="D109" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="E109" s="2" t="s">
+      <c r="E109" s="6" t="s">
         <v>350</v>
       </c>
       <c r="F109" s="2" t="s">
@@ -4648,7 +5185,7 @@
       <c r="D110" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="E110" s="2" t="s">
+      <c r="E110" s="6" t="s">
         <v>353</v>
       </c>
       <c r="F110" s="2" t="s">
@@ -4671,7 +5208,7 @@
       <c r="D111" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="E111" s="2" t="s">
+      <c r="E111" s="6" t="s">
         <v>357</v>
       </c>
       <c r="F111" s="2" t="s">
@@ -4694,7 +5231,7 @@
       <c r="D112" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="E112" s="2" t="s">
+      <c r="E112" s="6" t="s">
         <v>360</v>
       </c>
       <c r="F112" s="2" t="s">
@@ -4717,7 +5254,7 @@
       <c r="D113" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="E113" s="2" t="s">
+      <c r="E113" s="6" t="s">
         <v>364</v>
       </c>
       <c r="F113" s="2" t="s">
@@ -4740,7 +5277,7 @@
       <c r="D114" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="E114" s="2" t="s">
+      <c r="E114" s="6" t="s">
         <v>367</v>
       </c>
       <c r="F114" s="2" t="s">
@@ -4763,7 +5300,7 @@
       <c r="D115" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="E115" s="2" t="s">
+      <c r="E115" s="6" t="s">
         <v>370</v>
       </c>
       <c r="F115" s="2" t="s">
@@ -4786,7 +5323,7 @@
       <c r="D116" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="E116" s="2" t="s">
+      <c r="E116" s="6" t="s">
         <v>373</v>
       </c>
       <c r="F116" s="2" t="s">
@@ -4809,7 +5346,7 @@
       <c r="D117" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="E117" s="2" t="s">
+      <c r="E117" s="6" t="s">
         <v>377</v>
       </c>
       <c r="F117" s="2" t="s">
@@ -4832,7 +5369,7 @@
       <c r="D118" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="E118" s="2" t="s">
+      <c r="E118" s="6" t="s">
         <v>380</v>
       </c>
       <c r="F118" s="2" t="s">
@@ -4855,7 +5392,7 @@
       <c r="D119" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="E119" s="2" t="s">
+      <c r="E119" s="6" t="s">
         <v>383</v>
       </c>
       <c r="F119" s="2" t="s">
@@ -4878,7 +5415,7 @@
       <c r="D120" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="E120" s="2" t="s">
+      <c r="E120" s="6" t="s">
         <v>386</v>
       </c>
       <c r="F120" s="2" t="s">
@@ -4901,7 +5438,7 @@
       <c r="D121" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="E121" s="2" t="s">
+      <c r="E121" s="6" t="s">
         <v>389</v>
       </c>
       <c r="F121" s="2" t="s">
@@ -4924,7 +5461,7 @@
       <c r="D122" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="E122" s="2" t="s">
+      <c r="E122" s="6" t="s">
         <v>392</v>
       </c>
       <c r="F122" s="2" t="s">
@@ -4947,7 +5484,7 @@
       <c r="D123" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="E123" s="2" t="s">
+      <c r="E123" s="6" t="s">
         <v>395</v>
       </c>
       <c r="F123" s="2" t="s">
@@ -4970,7 +5507,7 @@
       <c r="D124" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="E124" s="2" t="s">
+      <c r="E124" s="6" t="s">
         <v>398</v>
       </c>
       <c r="F124" s="2" t="s">
@@ -4993,7 +5530,7 @@
       <c r="D125" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="E125" s="2" t="s">
+      <c r="E125" s="6" t="s">
         <v>402</v>
       </c>
       <c r="F125" s="2" t="s">
@@ -5016,7 +5553,7 @@
       <c r="D126" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="E126" s="2" t="s">
+      <c r="E126" s="6" t="s">
         <v>405</v>
       </c>
       <c r="F126" s="2" t="s">
@@ -5039,7 +5576,7 @@
       <c r="D127" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="E127" s="2" t="s">
+      <c r="E127" s="6" t="s">
         <v>408</v>
       </c>
       <c r="F127" s="2" t="s">
@@ -5062,7 +5599,7 @@
       <c r="D128" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="E128" s="2" t="s">
+      <c r="E128" s="6" t="s">
         <v>412</v>
       </c>
       <c r="F128" s="2" t="s">
@@ -5085,7 +5622,7 @@
       <c r="D129" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="E129" s="2" t="s">
+      <c r="E129" s="6" t="s">
         <v>415</v>
       </c>
       <c r="F129" s="2" t="s">
@@ -5108,7 +5645,7 @@
       <c r="D130" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="E130" s="2" t="s">
+      <c r="E130" s="6" t="s">
         <v>418</v>
       </c>
       <c r="F130" s="2" t="s">
@@ -5131,7 +5668,7 @@
       <c r="D131" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="E131" s="2" t="s">
+      <c r="E131" s="6" t="s">
         <v>421</v>
       </c>
       <c r="F131" s="2" t="s">
@@ -5154,7 +5691,7 @@
       <c r="D132" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="E132" s="2" t="s">
+      <c r="E132" s="6" t="s">
         <v>424</v>
       </c>
       <c r="F132" s="2" t="s">
@@ -5177,7 +5714,7 @@
       <c r="D133" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="E133" s="2" t="s">
+      <c r="E133" s="6" t="s">
         <v>427</v>
       </c>
       <c r="F133" s="2" t="s">
@@ -5200,7 +5737,7 @@
       <c r="D134" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="E134" s="2" t="s">
+      <c r="E134" s="6" t="s">
         <v>430</v>
       </c>
       <c r="F134" s="2" t="s">
@@ -5223,7 +5760,7 @@
       <c r="D135" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="E135" s="2" t="s">
+      <c r="E135" s="6" t="s">
         <v>433</v>
       </c>
       <c r="F135" s="2" t="s">
@@ -5246,7 +5783,7 @@
       <c r="D136" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="E136" s="2" t="s">
+      <c r="E136" s="6" t="s">
         <v>436</v>
       </c>
       <c r="F136" s="2" t="s">
@@ -5269,7 +5806,7 @@
       <c r="D137" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="E137" s="2" t="s">
+      <c r="E137" s="6" t="s">
         <v>439</v>
       </c>
       <c r="F137" s="2" t="s">
@@ -5292,7 +5829,7 @@
       <c r="D138" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="E138" s="2" t="s">
+      <c r="E138" s="6" t="s">
         <v>442</v>
       </c>
       <c r="F138" s="2" t="s">
@@ -5315,7 +5852,7 @@
       <c r="D139" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="E139" s="2" t="s">
+      <c r="E139" s="6" t="s">
         <v>446</v>
       </c>
       <c r="F139" s="2" t="s">
@@ -5338,7 +5875,7 @@
       <c r="D140" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="E140" s="2" t="s">
+      <c r="E140" s="6" t="s">
         <v>449</v>
       </c>
       <c r="F140" s="2" t="s">
@@ -5361,7 +5898,7 @@
       <c r="D141" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="E141" s="2" t="s">
+      <c r="E141" s="6" t="s">
         <v>452</v>
       </c>
       <c r="F141" s="2" t="s">
@@ -5384,7 +5921,7 @@
       <c r="D142" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="E142" s="2" t="s">
+      <c r="E142" s="6" t="s">
         <v>455</v>
       </c>
       <c r="F142" s="2" t="s">
@@ -5407,7 +5944,7 @@
       <c r="D143" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="E143" s="2" t="s">
+      <c r="E143" s="6" t="s">
         <v>458</v>
       </c>
       <c r="F143" s="2" t="s">
@@ -5430,7 +5967,7 @@
       <c r="D144" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="E144" s="2" t="s">
+      <c r="E144" s="6" t="s">
         <v>461</v>
       </c>
       <c r="F144" s="2" t="s">
@@ -5453,7 +5990,7 @@
       <c r="D145" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="E145" s="2" t="s">
+      <c r="E145" s="6" t="s">
         <v>465</v>
       </c>
       <c r="F145" s="2" t="s">
@@ -5476,7 +6013,7 @@
       <c r="D146" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="E146" s="2" t="s">
+      <c r="E146" s="6" t="s">
         <v>468</v>
       </c>
       <c r="F146" s="2" t="s">
@@ -5499,7 +6036,7 @@
       <c r="D147" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="E147" s="2" t="s">
+      <c r="E147" s="6" t="s">
         <v>471</v>
       </c>
       <c r="F147" s="2" t="s">
@@ -5522,13 +6059,13 @@
       <c r="D148" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="E148" s="2" t="s">
+      <c r="E148" s="6" t="s">
         <v>474</v>
       </c>
       <c r="F148" s="2" t="s">
         <v>475</v>
       </c>
-      <c r="G148" s="2">
+      <c r="G148" s="6">
         <v>1045790.89102869</v>
       </c>
     </row>
@@ -5545,13 +6082,13 @@
       <c r="D149" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="E149" s="2" t="s">
+      <c r="E149" s="6" t="s">
         <v>478</v>
       </c>
       <c r="F149" s="2" t="s">
         <v>479</v>
       </c>
-      <c r="G149" s="2">
+      <c r="G149" s="6">
         <v>1045790.89102869</v>
       </c>
     </row>
@@ -5568,13 +6105,13 @@
       <c r="D150" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="E150" s="2" t="s">
+      <c r="E150" s="6" t="s">
         <v>482</v>
       </c>
       <c r="F150" s="2" t="s">
         <v>483</v>
       </c>
-      <c r="G150" s="2">
+      <c r="G150" s="6">
         <v>945644.72921354999</v>
       </c>
     </row>
@@ -5591,13 +6128,13 @@
       <c r="D151" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="E151" s="2" t="s">
+      <c r="E151" s="6" t="s">
         <v>485</v>
       </c>
       <c r="F151" s="2" t="s">
         <v>486</v>
       </c>
-      <c r="G151" s="2">
+      <c r="G151" s="6">
         <v>1047681.82598463</v>
       </c>
     </row>
@@ -5614,13 +6151,13 @@
       <c r="D152" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="E152" s="2" t="s">
+      <c r="E152" s="6" t="s">
         <v>488</v>
       </c>
       <c r="F152" s="2" t="s">
         <v>489</v>
       </c>
-      <c r="G152" s="2">
+      <c r="G152" s="6">
         <v>1047681.82598463</v>
       </c>
     </row>
@@ -5637,13 +6174,13 @@
       <c r="D153" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="E153" s="2" t="s">
+      <c r="E153" s="6" t="s">
         <v>492</v>
       </c>
       <c r="F153" s="2" t="s">
         <v>493</v>
       </c>
-      <c r="G153" s="2">
+      <c r="G153" s="6">
         <v>105243.62273757</v>
       </c>
     </row>
@@ -5660,13 +6197,13 @@
       <c r="D154" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="E154" s="2" t="s">
+      <c r="E154" s="6" t="s">
         <v>495</v>
       </c>
       <c r="F154" s="2" t="s">
         <v>496</v>
       </c>
-      <c r="G154" s="2">
+      <c r="G154" s="6">
         <v>506395.72800374002</v>
       </c>
     </row>
@@ -5683,13 +6220,13 @@
       <c r="D155" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="E155" s="2" t="s">
+      <c r="E155" s="6" t="s">
         <v>499</v>
       </c>
       <c r="F155" s="2" t="s">
         <v>500</v>
       </c>
-      <c r="G155" s="2">
+      <c r="G155" s="6">
         <v>412217.56522570999</v>
       </c>
     </row>
@@ -5706,13 +6243,13 @@
       <c r="D156" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="E156" s="2" t="s">
+      <c r="E156" s="6" t="s">
         <v>502</v>
       </c>
       <c r="F156" s="2" t="s">
         <v>503</v>
       </c>
-      <c r="G156" s="2">
+      <c r="G156" s="6">
         <v>709094.54935302003</v>
       </c>
     </row>
@@ -5729,13 +6266,13 @@
       <c r="D157" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="E157" s="2" t="s">
+      <c r="E157" s="6" t="s">
         <v>506</v>
       </c>
       <c r="F157" s="2" t="s">
         <v>507</v>
       </c>
-      <c r="G157" s="2">
+      <c r="G157" s="6">
         <v>110858.92710052</v>
       </c>
     </row>
@@ -5752,13 +6289,13 @@
       <c r="D158" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="E158" s="2" t="s">
+      <c r="E158" s="6" t="s">
         <v>509</v>
       </c>
       <c r="F158" s="2" t="s">
         <v>510</v>
       </c>
-      <c r="G158" s="2">
+      <c r="G158" s="6">
         <v>611108.92710223002</v>
       </c>
     </row>
@@ -5775,13 +6312,13 @@
       <c r="D159" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="E159" s="2" t="s">
+      <c r="E159" s="6" t="s">
         <v>513</v>
       </c>
       <c r="F159" s="2" t="s">
         <v>514</v>
       </c>
-      <c r="G159" s="2">
+      <c r="G159" s="6">
         <v>912487.50583311997</v>
       </c>
     </row>
@@ -5798,14 +6335,497 @@
       <c r="D160" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="E160" s="2" t="s">
+      <c r="E160" s="6" t="s">
         <v>509</v>
       </c>
       <c r="F160" s="2" t="s">
         <v>516</v>
       </c>
-      <c r="G160" s="2">
+      <c r="G160" s="6">
         <v>1012537.50583284</v>
+      </c>
+    </row>
+    <row r="161" spans="1:7">
+      <c r="A161" s="2" t="s">
+        <v>517</v>
+      </c>
+      <c r="B161" s="2" t="s">
+        <v>518</v>
+      </c>
+      <c r="C161" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="D161" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E161" s="6">
+        <v>102413.1627988019</v>
+      </c>
+      <c r="F161" s="2" t="s">
+        <v>519</v>
+      </c>
+      <c r="G161" s="6">
+        <v>214400.66878244001</v>
+      </c>
+    </row>
+    <row r="162" spans="1:7">
+      <c r="A162" s="2" t="s">
+        <v>517</v>
+      </c>
+      <c r="B162" s="2" t="s">
+        <v>520</v>
+      </c>
+      <c r="C162" s="2" t="s">
+        <v>336</v>
+      </c>
+      <c r="D162" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E162" s="6" t="s">
+        <v>509</v>
+      </c>
+      <c r="F162" s="2" t="s">
+        <v>521</v>
+      </c>
+      <c r="G162" s="6">
+        <v>1014800.66866558</v>
+      </c>
+    </row>
+    <row r="163" spans="1:7">
+      <c r="A163" s="2" t="s">
+        <v>517</v>
+      </c>
+      <c r="B163" s="2" t="s">
+        <v>522</v>
+      </c>
+      <c r="C163" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="D163" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E163" s="6">
+        <v>99949.8298851</v>
+      </c>
+      <c r="F163" s="2" t="s">
+        <v>523</v>
+      </c>
+      <c r="G163" s="6">
+        <v>114250.70829949999</v>
+      </c>
+    </row>
+    <row r="164" spans="1:7">
+      <c r="A164" s="2" t="s">
+        <v>517</v>
+      </c>
+      <c r="B164" s="2" t="s">
+        <v>524</v>
+      </c>
+      <c r="C164" s="2" t="s">
+        <v>336</v>
+      </c>
+      <c r="D164" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E164" s="6">
+        <v>99949.999190404997</v>
+      </c>
+      <c r="F164" s="2" t="s">
+        <v>525</v>
+      </c>
+      <c r="G164" s="6">
+        <v>114150.70732582999</v>
+      </c>
+    </row>
+    <row r="165" spans="1:7">
+      <c r="A165" s="2" t="s">
+        <v>526</v>
+      </c>
+      <c r="B165" s="2" t="s">
+        <v>527</v>
+      </c>
+      <c r="C165" s="2" t="s">
+        <v>336</v>
+      </c>
+      <c r="D165" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E165" s="6">
+        <v>201736.57774525319</v>
+      </c>
+      <c r="F165" s="2" t="s">
+        <v>528</v>
+      </c>
+      <c r="G165" s="6">
+        <v>114150.70732582999</v>
+      </c>
+    </row>
+    <row r="166" spans="1:7">
+      <c r="A166" s="2" t="s">
+        <v>526</v>
+      </c>
+      <c r="B166" s="2" t="s">
+        <v>529</v>
+      </c>
+      <c r="C166" s="2" t="s">
+        <v>302</v>
+      </c>
+      <c r="D166" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E166" s="6" t="s">
+        <v>509</v>
+      </c>
+      <c r="F166" s="2" t="s">
+        <v>530</v>
+      </c>
+      <c r="G166" s="6">
+        <v>1016237.28534121</v>
+      </c>
+    </row>
+    <row r="167" spans="1:7">
+      <c r="A167" s="2" t="s">
+        <v>526</v>
+      </c>
+      <c r="B167" s="2" t="s">
+        <v>529</v>
+      </c>
+      <c r="C167" s="2" t="s">
+        <v>302</v>
+      </c>
+      <c r="D167" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E167" s="2" t="s">
+        <v>531</v>
+      </c>
+      <c r="F167" s="2" t="s">
+        <v>532</v>
+      </c>
+      <c r="G167" s="6">
+        <v>115787.28534672</v>
+      </c>
+    </row>
+    <row r="168" spans="1:7">
+      <c r="A168" s="2" t="s">
+        <v>526</v>
+      </c>
+      <c r="B168" s="2" t="s">
+        <v>533</v>
+      </c>
+      <c r="C168" s="2" t="s">
+        <v>302</v>
+      </c>
+      <c r="D168" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E168" s="2">
+        <v>99949.999995002509</v>
+      </c>
+      <c r="F168" s="2" t="s">
+        <v>534</v>
+      </c>
+      <c r="G168" s="6">
+        <v>115687.28534472</v>
+      </c>
+    </row>
+    <row r="169" spans="1:7">
+      <c r="A169" s="2" t="s">
+        <v>526</v>
+      </c>
+      <c r="B169" s="2" t="s">
+        <v>535</v>
+      </c>
+      <c r="C169" s="2" t="s">
+        <v>302</v>
+      </c>
+      <c r="D169" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E169" s="5">
+        <v>103183.6764674927</v>
+      </c>
+      <c r="F169" s="2" t="s">
+        <v>536</v>
+      </c>
+      <c r="G169" s="6">
+        <v>218870.96181221001</v>
+      </c>
+    </row>
+    <row r="170" spans="1:7">
+      <c r="A170" s="2" t="s">
+        <v>526</v>
+      </c>
+      <c r="B170" s="2" t="s">
+        <v>537</v>
+      </c>
+      <c r="C170" s="2" t="s">
+        <v>302</v>
+      </c>
+      <c r="D170" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E170" s="2" t="s">
+        <v>509</v>
+      </c>
+      <c r="F170" s="2" t="s">
+        <v>538</v>
+      </c>
+      <c r="G170" s="6">
+        <v>1019270.96181171</v>
+      </c>
+    </row>
+    <row r="171" spans="1:7">
+      <c r="A171" s="2" t="s">
+        <v>526</v>
+      </c>
+      <c r="B171" s="2" t="s">
+        <v>537</v>
+      </c>
+      <c r="C171" s="2" t="s">
+        <v>302</v>
+      </c>
+      <c r="D171" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E171" s="2" t="s">
+        <v>539</v>
+      </c>
+      <c r="F171" s="2" t="s">
+        <v>540</v>
+      </c>
+      <c r="G171" s="2">
+        <v>118820.96184433</v>
+      </c>
+    </row>
+    <row r="172" spans="1:7">
+      <c r="A172" s="2" t="s">
+        <v>526</v>
+      </c>
+      <c r="B172" s="2" t="s">
+        <v>541</v>
+      </c>
+      <c r="C172" s="2" t="s">
+        <v>302</v>
+      </c>
+      <c r="D172" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E172" s="5">
+        <v>102288.01167186871</v>
+      </c>
+      <c r="F172" s="2" t="s">
+        <v>542</v>
+      </c>
+      <c r="G172" s="2">
+        <v>221108.9735162</v>
+      </c>
+    </row>
+    <row r="173" spans="1:7">
+      <c r="A173" s="2" t="s">
+        <v>526</v>
+      </c>
+      <c r="B173" s="2" t="s">
+        <v>543</v>
+      </c>
+      <c r="C173" s="2" t="s">
+        <v>302</v>
+      </c>
+      <c r="D173" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E173" s="2">
+        <v>99382.102275907499</v>
+      </c>
+      <c r="F173" s="2" t="s">
+        <v>544</v>
+      </c>
+      <c r="G173" s="2">
+        <v>1020841.0757803</v>
+      </c>
+    </row>
+    <row r="174" spans="1:7">
+      <c r="A174" s="2" t="s">
+        <v>526</v>
+      </c>
+      <c r="B174" s="2" t="s">
+        <v>545</v>
+      </c>
+      <c r="C174" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="D174" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E174" s="2" t="s">
+        <v>509</v>
+      </c>
+      <c r="F174" s="2" t="s">
+        <v>546</v>
+      </c>
+      <c r="G174" s="2">
+        <v>1020841.0757803</v>
+      </c>
+    </row>
+    <row r="175" spans="1:7">
+      <c r="A175" s="2" t="s">
+        <v>526</v>
+      </c>
+      <c r="B175" s="2" t="s">
+        <v>547</v>
+      </c>
+      <c r="C175" s="2" t="s">
+        <v>302</v>
+      </c>
+      <c r="D175" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E175" s="2" t="s">
+        <v>509</v>
+      </c>
+      <c r="F175" s="2" t="s">
+        <v>548</v>
+      </c>
+      <c r="G175" s="2">
+        <v>120391.58979718</v>
+      </c>
+    </row>
+    <row r="176" spans="1:7">
+      <c r="A176" s="2" t="s">
+        <v>526</v>
+      </c>
+      <c r="B176" s="2" t="s">
+        <v>549</v>
+      </c>
+      <c r="C176" s="2" t="s">
+        <v>445</v>
+      </c>
+      <c r="D176" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E176" s="2" t="s">
+        <v>509</v>
+      </c>
+      <c r="F176" s="2" t="s">
+        <v>550</v>
+      </c>
+      <c r="G176" s="2">
+        <v>920691.27126799</v>
+      </c>
+    </row>
+    <row r="177" spans="1:7">
+      <c r="A177" s="2" t="s">
+        <v>526</v>
+      </c>
+      <c r="B177" s="2" t="s">
+        <v>551</v>
+      </c>
+      <c r="C177" s="2" t="s">
+        <v>445</v>
+      </c>
+      <c r="D177" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E177" s="5">
+        <v>101044.1692840788</v>
+      </c>
+      <c r="F177" s="2" t="s">
+        <v>552</v>
+      </c>
+      <c r="G177" s="2">
+        <v>121285.44079279</v>
+      </c>
+    </row>
+    <row r="178" spans="1:7">
+      <c r="A178" s="2" t="s">
+        <v>526</v>
+      </c>
+      <c r="B178" s="2" t="s">
+        <v>553</v>
+      </c>
+      <c r="C178" s="2" t="s">
+        <v>302</v>
+      </c>
+      <c r="D178" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E178" s="2" t="s">
+        <v>509</v>
+      </c>
+      <c r="F178" s="2" t="s">
+        <v>554</v>
+      </c>
+      <c r="G178" s="2">
+        <v>921685.44070955005</v>
+      </c>
+    </row>
+    <row r="179" spans="1:7">
+      <c r="A179" s="2" t="s">
+        <v>526</v>
+      </c>
+      <c r="B179" s="2" t="s">
+        <v>555</v>
+      </c>
+      <c r="C179" s="2" t="s">
+        <v>302</v>
+      </c>
+      <c r="D179" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E179" s="5">
+        <v>100785.23675670799</v>
+      </c>
+      <c r="F179" s="2" t="s">
+        <v>556</v>
+      </c>
+      <c r="G179" s="2">
+        <v>21235.44072051</v>
+      </c>
+    </row>
+    <row r="180" spans="1:7">
+      <c r="A180" s="2" t="s">
+        <v>526</v>
+      </c>
+      <c r="B180" s="2" t="s">
+        <v>557</v>
+      </c>
+      <c r="C180" s="2" t="s">
+        <v>302</v>
+      </c>
+      <c r="D180" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E180" s="2" t="s">
+        <v>509</v>
+      </c>
+      <c r="F180" s="2" t="s">
+        <v>558</v>
+      </c>
+      <c r="G180" s="2">
+        <v>922420.67747827002</v>
+      </c>
+    </row>
+    <row r="181" spans="1:7">
+      <c r="A181" t="s">
+        <v>526</v>
+      </c>
+      <c r="B181" t="s">
+        <v>559</v>
+      </c>
+      <c r="C181" t="s">
+        <v>302</v>
+      </c>
+      <c r="D181" t="s">
+        <v>10</v>
+      </c>
+      <c r="E181" t="s">
+        <v>560</v>
+      </c>
+      <c r="F181" t="s">
+        <v>561</v>
+      </c>
+      <c r="G181">
+        <v>21970.677508680001</v>
       </c>
     </row>
   </sheetData>
@@ -5816,13 +6836,13 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:G21"/>
+  <dimension ref="A1:G68"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="6" ySplit="1" topLeftCell="G2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="6" ySplit="1" topLeftCell="G15" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="G1" sqref="G1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="B27" sqref="B27"/>
+      <selection pane="bottomRight" activeCell="J39" sqref="J39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="18"/>
@@ -5833,6 +6853,7 @@
     <col min="4" max="4" width="19.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="16.5703125" style="1" customWidth="1"/>
     <col min="6" max="6" width="36" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.7109375" style="6" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="26" customHeight="1">
@@ -5854,7 +6875,7 @@
       <c r="F1" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="G1" s="6" t="s">
         <v>6</v>
       </c>
     </row>
@@ -5863,7 +6884,7 @@
         <v>490</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>517</v>
+        <v>562</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>96</v>
@@ -5875,9 +6896,9 @@
         <v>509</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>518</v>
-      </c>
-      <c r="G2" s="2">
+        <v>563</v>
+      </c>
+      <c r="G2" s="6">
         <v>1004718.89155784</v>
       </c>
     </row>
@@ -5886,7 +6907,7 @@
         <v>490</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>519</v>
+        <v>564</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>96</v>
@@ -5898,9 +6919,9 @@
         <v>509</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>520</v>
-      </c>
-      <c r="G3" s="2">
+        <v>565</v>
+      </c>
+      <c r="G3" s="6">
         <v>605493.62273929</v>
       </c>
     </row>
@@ -5909,7 +6930,7 @@
         <v>490</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>521</v>
+        <v>566</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>96</v>
@@ -5921,18 +6942,18 @@
         <v>509</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>522</v>
-      </c>
-      <c r="G4" s="2">
+        <v>567</v>
+      </c>
+      <c r="G4" s="6">
         <v>806545.72800430004</v>
       </c>
     </row>
     <row r="5" spans="1:7">
       <c r="A5" s="2" t="s">
-        <v>523</v>
+        <v>568</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>524</v>
+        <v>569</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>96</v>
@@ -5941,21 +6962,21 @@
         <v>10</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>525</v>
+        <v>570</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>526</v>
-      </c>
-      <c r="G5" s="2">
+        <v>571</v>
+      </c>
+      <c r="G5" s="6">
         <v>412217.56522570999</v>
       </c>
     </row>
     <row r="6" spans="1:7">
       <c r="A6" s="2" t="s">
-        <v>527</v>
+        <v>572</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>528</v>
+        <v>573</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>96</v>
@@ -5967,9 +6988,9 @@
         <v>502</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>529</v>
-      </c>
-      <c r="G6" s="2">
+        <v>574</v>
+      </c>
+      <c r="G6" s="6">
         <v>412217.56522570999</v>
       </c>
     </row>
@@ -5978,7 +6999,7 @@
         <v>490</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>530</v>
+        <v>575</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>96</v>
@@ -5987,21 +7008,21 @@
         <v>10</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>531</v>
+        <v>576</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>532</v>
-      </c>
-      <c r="G7" s="2">
+        <v>577</v>
+      </c>
+      <c r="G7" s="6">
         <v>412217.56522570999</v>
       </c>
     </row>
     <row r="8" spans="1:7">
       <c r="A8" s="2" t="s">
-        <v>527</v>
+        <v>572</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>533</v>
+        <v>578</v>
       </c>
       <c r="C8" s="2" t="s">
         <v>96</v>
@@ -6010,12 +7031,12 @@
         <v>10</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>534</v>
+        <v>579</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>535</v>
-      </c>
-      <c r="G8" s="2">
+        <v>580</v>
+      </c>
+      <c r="G8" s="6">
         <v>709094.54935302003</v>
       </c>
     </row>
@@ -6024,7 +7045,7 @@
         <v>497</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>536</v>
+        <v>581</v>
       </c>
       <c r="C9" s="2" t="s">
         <v>96</v>
@@ -6033,12 +7054,12 @@
         <v>10</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>537</v>
+        <v>582</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>538</v>
-      </c>
-      <c r="G9" s="2">
+        <v>583</v>
+      </c>
+      <c r="G9" s="6">
         <v>709094.54935302003</v>
       </c>
     </row>
@@ -6047,7 +7068,7 @@
         <v>497</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>539</v>
+        <v>584</v>
       </c>
       <c r="C10" s="2" t="s">
         <v>96</v>
@@ -6059,9 +7080,9 @@
         <v>509</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>540</v>
-      </c>
-      <c r="G10" s="2">
+        <v>585</v>
+      </c>
+      <c r="G10" s="6">
         <v>909194.54935310001</v>
       </c>
     </row>
@@ -6079,12 +7100,12 @@
         <v>10</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>541</v>
+        <v>586</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>542</v>
-      </c>
-      <c r="G11" s="2">
+        <v>587</v>
+      </c>
+      <c r="G11" s="6">
         <v>110858.92710052</v>
       </c>
     </row>
@@ -6102,12 +7123,12 @@
         <v>10</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>543</v>
+        <v>588</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>544</v>
-      </c>
-      <c r="G12" s="2">
+        <v>589</v>
+      </c>
+      <c r="G12" s="6">
         <v>110858.92710052</v>
       </c>
     </row>
@@ -6125,12 +7146,12 @@
         <v>10</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>545</v>
+        <v>590</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>546</v>
-      </c>
-      <c r="G13" s="2">
+        <v>591</v>
+      </c>
+      <c r="G13" s="6">
         <v>110858.92710052</v>
       </c>
     </row>
@@ -6148,12 +7169,12 @@
         <v>10</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>547</v>
+        <v>592</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>548</v>
-      </c>
-      <c r="G14" s="2">
+        <v>593</v>
+      </c>
+      <c r="G14" s="6">
         <v>110858.92710052</v>
       </c>
     </row>
@@ -6171,12 +7192,12 @@
         <v>10</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>537</v>
+        <v>582</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>549</v>
-      </c>
-      <c r="G15" s="2">
+        <v>594</v>
+      </c>
+      <c r="G15" s="6">
         <v>110858.92710052</v>
       </c>
     </row>
@@ -6185,7 +7206,7 @@
         <v>511</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>550</v>
+        <v>595</v>
       </c>
       <c r="C16" s="2" t="s">
         <v>28</v>
@@ -6197,9 +7218,9 @@
         <v>513</v>
       </c>
       <c r="F16" s="2" t="s">
-        <v>551</v>
-      </c>
-      <c r="G16" s="2">
+        <v>596</v>
+      </c>
+      <c r="G16" s="6">
         <v>310958.92710143997</v>
       </c>
     </row>
@@ -6208,7 +7229,7 @@
         <v>511</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>552</v>
+        <v>597</v>
       </c>
       <c r="C17" s="2" t="s">
         <v>28</v>
@@ -6217,12 +7238,12 @@
         <v>10</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>553</v>
+        <v>598</v>
       </c>
       <c r="F17" s="2" t="s">
-        <v>554</v>
-      </c>
-      <c r="G17" s="2">
+        <v>599</v>
+      </c>
+      <c r="G17" s="6">
         <v>310958.92710143997</v>
       </c>
     </row>
@@ -6231,7 +7252,7 @@
         <v>511</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>555</v>
+        <v>600</v>
       </c>
       <c r="C18" s="2" t="s">
         <v>28</v>
@@ -6240,12 +7261,12 @@
         <v>10</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>556</v>
+        <v>601</v>
       </c>
       <c r="F18" s="2" t="s">
-        <v>557</v>
-      </c>
-      <c r="G18" s="2">
+        <v>602</v>
+      </c>
+      <c r="G18" s="6">
         <v>310958.92710143997</v>
       </c>
     </row>
@@ -6254,7 +7275,7 @@
         <v>511</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>558</v>
+        <v>603</v>
       </c>
       <c r="C19" s="2" t="s">
         <v>28</v>
@@ -6263,12 +7284,12 @@
         <v>10</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>559</v>
+        <v>604</v>
       </c>
       <c r="F19" s="2" t="s">
-        <v>560</v>
-      </c>
-      <c r="G19" s="2">
+        <v>605</v>
+      </c>
+      <c r="G19" s="6">
         <v>310958.92710143997</v>
       </c>
     </row>
@@ -6277,7 +7298,7 @@
         <v>511</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>561</v>
+        <v>606</v>
       </c>
       <c r="C20" s="2" t="s">
         <v>28</v>
@@ -6286,12 +7307,12 @@
         <v>10</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>562</v>
+        <v>607</v>
       </c>
       <c r="F20" s="2" t="s">
-        <v>563</v>
-      </c>
-      <c r="G20" s="2">
+        <v>608</v>
+      </c>
+      <c r="G20" s="6">
         <v>310958.92710143997</v>
       </c>
     </row>
@@ -6300,7 +7321,7 @@
         <v>511</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>564</v>
+        <v>609</v>
       </c>
       <c r="C21" s="2" t="s">
         <v>28</v>
@@ -6309,13 +7330,1094 @@
         <v>10</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>565</v>
+        <v>610</v>
       </c>
       <c r="F21" s="2" t="s">
-        <v>566</v>
-      </c>
-      <c r="G21" s="2">
+        <v>611</v>
+      </c>
+      <c r="G21" s="6">
         <v>310958.92710143997</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7">
+      <c r="A22" s="2" t="s">
+        <v>517</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>612</v>
+      </c>
+      <c r="C22" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="D22" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E22" s="2" t="s">
+        <v>613</v>
+      </c>
+      <c r="F22" s="2" t="s">
+        <v>614</v>
+      </c>
+      <c r="G22" s="6">
+        <v>214400.66878244001</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7">
+      <c r="A23" s="2" t="s">
+        <v>517</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>615</v>
+      </c>
+      <c r="C23" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="D23" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E23" s="2" t="s">
+        <v>616</v>
+      </c>
+      <c r="F23" s="2" t="s">
+        <v>617</v>
+      </c>
+      <c r="G23" s="6">
+        <v>214400.66878244001</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7">
+      <c r="A24" s="2" t="s">
+        <v>517</v>
+      </c>
+      <c r="B24" s="2" t="s">
+        <v>618</v>
+      </c>
+      <c r="C24" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="D24" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E24" s="2" t="s">
+        <v>619</v>
+      </c>
+      <c r="F24" s="2" t="s">
+        <v>620</v>
+      </c>
+      <c r="G24" s="6">
+        <v>214400.66878244001</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7">
+      <c r="A25" s="2" t="s">
+        <v>517</v>
+      </c>
+      <c r="B25" s="2" t="s">
+        <v>621</v>
+      </c>
+      <c r="C25" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="D25" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E25" s="2" t="s">
+        <v>622</v>
+      </c>
+      <c r="F25" s="2" t="s">
+        <v>623</v>
+      </c>
+      <c r="G25" s="6">
+        <v>214400.66878244001</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7">
+      <c r="A26" s="2" t="s">
+        <v>517</v>
+      </c>
+      <c r="B26" s="2" t="s">
+        <v>624</v>
+      </c>
+      <c r="C26" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="D26" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E26" s="2" t="s">
+        <v>625</v>
+      </c>
+      <c r="F26" s="2" t="s">
+        <v>626</v>
+      </c>
+      <c r="G26" s="6">
+        <v>214400.66878244001</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7">
+      <c r="A27" s="2" t="s">
+        <v>517</v>
+      </c>
+      <c r="B27" s="2" t="s">
+        <v>627</v>
+      </c>
+      <c r="C27" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="D27" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E27" s="2" t="s">
+        <v>628</v>
+      </c>
+      <c r="F27" s="2" t="s">
+        <v>629</v>
+      </c>
+      <c r="G27" s="6">
+        <v>214400.66878244001</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7">
+      <c r="A28" s="2" t="s">
+        <v>517</v>
+      </c>
+      <c r="B28" s="2" t="s">
+        <v>630</v>
+      </c>
+      <c r="C28" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="D28" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E28" s="2" t="s">
+        <v>631</v>
+      </c>
+      <c r="F28" s="2" t="s">
+        <v>632</v>
+      </c>
+      <c r="G28" s="6">
+        <v>214400.66878244001</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7">
+      <c r="A29" s="2" t="s">
+        <v>517</v>
+      </c>
+      <c r="B29" s="2" t="s">
+        <v>633</v>
+      </c>
+      <c r="C29" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="D29" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E29" s="2" t="s">
+        <v>634</v>
+      </c>
+      <c r="F29" s="2" t="s">
+        <v>635</v>
+      </c>
+      <c r="G29" s="6">
+        <v>214400.66878244001</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7">
+      <c r="A30" s="2" t="s">
+        <v>526</v>
+      </c>
+      <c r="B30" s="2" t="s">
+        <v>636</v>
+      </c>
+      <c r="C30" s="2" t="s">
+        <v>336</v>
+      </c>
+      <c r="D30" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E30" s="2" t="s">
+        <v>637</v>
+      </c>
+      <c r="F30" s="2" t="s">
+        <v>638</v>
+      </c>
+      <c r="G30" s="6">
+        <v>114150.70732582999</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7">
+      <c r="A31" s="2" t="s">
+        <v>526</v>
+      </c>
+      <c r="B31" s="2" t="s">
+        <v>639</v>
+      </c>
+      <c r="C31" s="2" t="s">
+        <v>336</v>
+      </c>
+      <c r="D31" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E31" s="2" t="s">
+        <v>640</v>
+      </c>
+      <c r="F31" s="2" t="s">
+        <v>641</v>
+      </c>
+      <c r="G31" s="6">
+        <v>114150.70732582999</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7">
+      <c r="A32" s="2" t="s">
+        <v>526</v>
+      </c>
+      <c r="B32" s="2" t="s">
+        <v>642</v>
+      </c>
+      <c r="C32" s="2" t="s">
+        <v>336</v>
+      </c>
+      <c r="D32" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E32" s="2" t="s">
+        <v>643</v>
+      </c>
+      <c r="F32" s="2" t="s">
+        <v>644</v>
+      </c>
+      <c r="G32" s="6">
+        <v>114150.70732582999</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7">
+      <c r="A33" s="2" t="s">
+        <v>526</v>
+      </c>
+      <c r="B33" s="2" t="s">
+        <v>645</v>
+      </c>
+      <c r="C33" s="2" t="s">
+        <v>336</v>
+      </c>
+      <c r="D33" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E33" s="2" t="s">
+        <v>646</v>
+      </c>
+      <c r="F33" s="2" t="s">
+        <v>647</v>
+      </c>
+      <c r="G33" s="6">
+        <v>114150.70732582999</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7">
+      <c r="A34" s="2" t="s">
+        <v>526</v>
+      </c>
+      <c r="B34" s="2" t="s">
+        <v>648</v>
+      </c>
+      <c r="C34" s="2" t="s">
+        <v>336</v>
+      </c>
+      <c r="D34" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E34" s="2" t="s">
+        <v>649</v>
+      </c>
+      <c r="F34" s="2" t="s">
+        <v>650</v>
+      </c>
+      <c r="G34" s="6">
+        <v>114150.70732582999</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7">
+      <c r="A35" s="2" t="s">
+        <v>526</v>
+      </c>
+      <c r="B35" s="2" t="s">
+        <v>651</v>
+      </c>
+      <c r="C35" s="2" t="s">
+        <v>336</v>
+      </c>
+      <c r="D35" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E35" s="2" t="s">
+        <v>652</v>
+      </c>
+      <c r="F35" s="2" t="s">
+        <v>653</v>
+      </c>
+      <c r="G35" s="6">
+        <v>114150.70732582999</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7">
+      <c r="A36" s="2" t="s">
+        <v>526</v>
+      </c>
+      <c r="B36" s="2" t="s">
+        <v>654</v>
+      </c>
+      <c r="C36" s="2" t="s">
+        <v>336</v>
+      </c>
+      <c r="D36" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E36" s="2" t="s">
+        <v>655</v>
+      </c>
+      <c r="F36" s="2" t="s">
+        <v>656</v>
+      </c>
+      <c r="G36" s="6">
+        <v>114150.70732582999</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7">
+      <c r="A37" s="2" t="s">
+        <v>526</v>
+      </c>
+      <c r="B37" s="2" t="s">
+        <v>657</v>
+      </c>
+      <c r="C37" s="2" t="s">
+        <v>302</v>
+      </c>
+      <c r="D37" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E37" s="2" t="s">
+        <v>658</v>
+      </c>
+      <c r="F37" s="2" t="s">
+        <v>659</v>
+      </c>
+      <c r="G37" s="2">
+        <v>218870.96181221001</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7">
+      <c r="A38" s="2" t="s">
+        <v>526</v>
+      </c>
+      <c r="B38" s="2" t="s">
+        <v>660</v>
+      </c>
+      <c r="C38" s="2" t="s">
+        <v>302</v>
+      </c>
+      <c r="D38" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E38" s="2" t="s">
+        <v>661</v>
+      </c>
+      <c r="F38" s="2" t="s">
+        <v>662</v>
+      </c>
+      <c r="G38" s="2">
+        <v>218870.96181221001</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7">
+      <c r="A39" s="2" t="s">
+        <v>526</v>
+      </c>
+      <c r="B39" s="2" t="s">
+        <v>663</v>
+      </c>
+      <c r="C39" s="2" t="s">
+        <v>302</v>
+      </c>
+      <c r="D39" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E39" s="2" t="s">
+        <v>664</v>
+      </c>
+      <c r="F39" s="2" t="s">
+        <v>665</v>
+      </c>
+      <c r="G39" s="2">
+        <v>218870.96181221001</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7">
+      <c r="A40" s="2" t="s">
+        <v>526</v>
+      </c>
+      <c r="B40" s="2" t="s">
+        <v>666</v>
+      </c>
+      <c r="C40" s="2" t="s">
+        <v>302</v>
+      </c>
+      <c r="D40" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E40" s="2" t="s">
+        <v>667</v>
+      </c>
+      <c r="F40" s="2" t="s">
+        <v>668</v>
+      </c>
+      <c r="G40" s="2">
+        <v>218870.96181221001</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7">
+      <c r="A41" s="2" t="s">
+        <v>526</v>
+      </c>
+      <c r="B41" s="2" t="s">
+        <v>669</v>
+      </c>
+      <c r="C41" s="2" t="s">
+        <v>302</v>
+      </c>
+      <c r="D41" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E41" s="2" t="s">
+        <v>670</v>
+      </c>
+      <c r="F41" s="2" t="s">
+        <v>671</v>
+      </c>
+      <c r="G41" s="2">
+        <v>218870.96181221001</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7">
+      <c r="A42" s="2" t="s">
+        <v>526</v>
+      </c>
+      <c r="B42" s="2" t="s">
+        <v>672</v>
+      </c>
+      <c r="C42" s="2" t="s">
+        <v>302</v>
+      </c>
+      <c r="D42" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E42" s="2" t="s">
+        <v>673</v>
+      </c>
+      <c r="F42" s="2" t="s">
+        <v>674</v>
+      </c>
+      <c r="G42" s="2">
+        <v>218870.96181221001</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7">
+      <c r="A43" s="2" t="s">
+        <v>526</v>
+      </c>
+      <c r="B43" s="2" t="s">
+        <v>675</v>
+      </c>
+      <c r="C43" s="2" t="s">
+        <v>302</v>
+      </c>
+      <c r="D43" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E43" s="2" t="s">
+        <v>676</v>
+      </c>
+      <c r="F43" s="2" t="s">
+        <v>677</v>
+      </c>
+      <c r="G43" s="2">
+        <v>218870.96181221001</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7">
+      <c r="A44" s="2" t="s">
+        <v>526</v>
+      </c>
+      <c r="B44" s="2" t="s">
+        <v>678</v>
+      </c>
+      <c r="C44" s="2" t="s">
+        <v>302</v>
+      </c>
+      <c r="D44" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E44" s="2" t="s">
+        <v>531</v>
+      </c>
+      <c r="F44" s="2" t="s">
+        <v>679</v>
+      </c>
+      <c r="G44" s="2">
+        <v>218870.96181221001</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7">
+      <c r="A45" s="2" t="s">
+        <v>526</v>
+      </c>
+      <c r="B45" s="2" t="s">
+        <v>680</v>
+      </c>
+      <c r="C45" s="2" t="s">
+        <v>302</v>
+      </c>
+      <c r="D45" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E45" s="2" t="s">
+        <v>681</v>
+      </c>
+      <c r="F45" s="2" t="s">
+        <v>682</v>
+      </c>
+      <c r="G45" s="2">
+        <v>221108.9735162</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7">
+      <c r="A46" s="2" t="s">
+        <v>526</v>
+      </c>
+      <c r="B46" s="2" t="s">
+        <v>683</v>
+      </c>
+      <c r="C46" s="2" t="s">
+        <v>302</v>
+      </c>
+      <c r="D46" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E46" s="2" t="s">
+        <v>684</v>
+      </c>
+      <c r="F46" s="2" t="s">
+        <v>685</v>
+      </c>
+      <c r="G46" s="2">
+        <v>221108.9735162</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7">
+      <c r="A47" s="2" t="s">
+        <v>526</v>
+      </c>
+      <c r="B47" s="2" t="s">
+        <v>686</v>
+      </c>
+      <c r="C47" s="2" t="s">
+        <v>302</v>
+      </c>
+      <c r="D47" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E47" s="2" t="s">
+        <v>687</v>
+      </c>
+      <c r="F47" s="2" t="s">
+        <v>688</v>
+      </c>
+      <c r="G47" s="2">
+        <v>221108.9735162</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7">
+      <c r="A48" s="2" t="s">
+        <v>526</v>
+      </c>
+      <c r="B48" s="2" t="s">
+        <v>689</v>
+      </c>
+      <c r="C48" s="2" t="s">
+        <v>302</v>
+      </c>
+      <c r="D48" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E48" s="2" t="s">
+        <v>690</v>
+      </c>
+      <c r="F48" s="2" t="s">
+        <v>691</v>
+      </c>
+      <c r="G48" s="2">
+        <v>221108.9735162</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7">
+      <c r="A49" s="2" t="s">
+        <v>526</v>
+      </c>
+      <c r="B49" s="2" t="s">
+        <v>692</v>
+      </c>
+      <c r="C49" s="2" t="s">
+        <v>302</v>
+      </c>
+      <c r="D49" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E49" s="2" t="s">
+        <v>693</v>
+      </c>
+      <c r="F49" s="2" t="s">
+        <v>694</v>
+      </c>
+      <c r="G49" s="2">
+        <v>221108.9735162</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7">
+      <c r="A50" s="2" t="s">
+        <v>526</v>
+      </c>
+      <c r="B50" s="2" t="s">
+        <v>695</v>
+      </c>
+      <c r="C50" s="2" t="s">
+        <v>302</v>
+      </c>
+      <c r="D50" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E50" s="2" t="s">
+        <v>696</v>
+      </c>
+      <c r="F50" s="2" t="s">
+        <v>697</v>
+      </c>
+      <c r="G50" s="2">
+        <v>221108.9735162</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7">
+      <c r="A51" s="2" t="s">
+        <v>526</v>
+      </c>
+      <c r="B51" s="2" t="s">
+        <v>698</v>
+      </c>
+      <c r="C51" s="2" t="s">
+        <v>302</v>
+      </c>
+      <c r="D51" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E51" s="2" t="s">
+        <v>699</v>
+      </c>
+      <c r="F51" s="2" t="s">
+        <v>700</v>
+      </c>
+      <c r="G51" s="2">
+        <v>221108.9735162</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7">
+      <c r="A52" s="2" t="s">
+        <v>526</v>
+      </c>
+      <c r="B52" s="2" t="s">
+        <v>701</v>
+      </c>
+      <c r="C52" s="2" t="s">
+        <v>302</v>
+      </c>
+      <c r="D52" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E52" s="2" t="s">
+        <v>702</v>
+      </c>
+      <c r="F52" s="2" t="s">
+        <v>703</v>
+      </c>
+      <c r="G52" s="2">
+        <v>221108.9735162</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7">
+      <c r="A53" s="2" t="s">
+        <v>526</v>
+      </c>
+      <c r="B53" s="2" t="s">
+        <v>704</v>
+      </c>
+      <c r="C53" s="2" t="s">
+        <v>445</v>
+      </c>
+      <c r="D53" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E53" s="2" t="s">
+        <v>705</v>
+      </c>
+      <c r="F53" s="2" t="s">
+        <v>706</v>
+      </c>
+      <c r="G53" s="2">
+        <v>121285.44079279</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7">
+      <c r="A54" s="2" t="s">
+        <v>526</v>
+      </c>
+      <c r="B54" s="2" t="s">
+        <v>707</v>
+      </c>
+      <c r="C54" s="2" t="s">
+        <v>445</v>
+      </c>
+      <c r="D54" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E54" s="2" t="s">
+        <v>708</v>
+      </c>
+      <c r="F54" s="2" t="s">
+        <v>709</v>
+      </c>
+      <c r="G54" s="2">
+        <v>121285.44079279</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7">
+      <c r="A55" s="2" t="s">
+        <v>526</v>
+      </c>
+      <c r="B55" s="2" t="s">
+        <v>710</v>
+      </c>
+      <c r="C55" s="2" t="s">
+        <v>445</v>
+      </c>
+      <c r="D55" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E55" s="2" t="s">
+        <v>711</v>
+      </c>
+      <c r="F55" s="2" t="s">
+        <v>712</v>
+      </c>
+      <c r="G55" s="2">
+        <v>121285.44079279</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7">
+      <c r="A56" s="2" t="s">
+        <v>526</v>
+      </c>
+      <c r="B56" s="2" t="s">
+        <v>713</v>
+      </c>
+      <c r="C56" s="2" t="s">
+        <v>445</v>
+      </c>
+      <c r="D56" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E56" s="2" t="s">
+        <v>714</v>
+      </c>
+      <c r="F56" s="2" t="s">
+        <v>715</v>
+      </c>
+      <c r="G56" s="2">
+        <v>121285.44079279</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7">
+      <c r="A57" s="2" t="s">
+        <v>526</v>
+      </c>
+      <c r="B57" s="2" t="s">
+        <v>716</v>
+      </c>
+      <c r="C57" s="2" t="s">
+        <v>445</v>
+      </c>
+      <c r="D57" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E57" s="2" t="s">
+        <v>717</v>
+      </c>
+      <c r="F57" s="2" t="s">
+        <v>718</v>
+      </c>
+      <c r="G57" s="2">
+        <v>121285.44079279</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7">
+      <c r="A58" s="2" t="s">
+        <v>526</v>
+      </c>
+      <c r="B58" s="2" t="s">
+        <v>719</v>
+      </c>
+      <c r="C58" s="2" t="s">
+        <v>445</v>
+      </c>
+      <c r="D58" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E58" s="2" t="s">
+        <v>720</v>
+      </c>
+      <c r="F58" s="2" t="s">
+        <v>721</v>
+      </c>
+      <c r="G58" s="2">
+        <v>121285.44079279</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7">
+      <c r="A59" s="2" t="s">
+        <v>526</v>
+      </c>
+      <c r="B59" s="2" t="s">
+        <v>722</v>
+      </c>
+      <c r="C59" s="2" t="s">
+        <v>445</v>
+      </c>
+      <c r="D59" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E59" s="2" t="s">
+        <v>723</v>
+      </c>
+      <c r="F59" s="2" t="s">
+        <v>724</v>
+      </c>
+      <c r="G59" s="2">
+        <v>121285.44079279</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7">
+      <c r="A60" s="2" t="s">
+        <v>526</v>
+      </c>
+      <c r="B60" s="2" t="s">
+        <v>725</v>
+      </c>
+      <c r="C60" s="2" t="s">
+        <v>445</v>
+      </c>
+      <c r="D60" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E60" s="2" t="s">
+        <v>726</v>
+      </c>
+      <c r="F60" s="2" t="s">
+        <v>727</v>
+      </c>
+      <c r="G60" s="2">
+        <v>121285.44079279</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7">
+      <c r="A61" s="2" t="s">
+        <v>526</v>
+      </c>
+      <c r="B61" s="2" t="s">
+        <v>728</v>
+      </c>
+      <c r="C61" s="2" t="s">
+        <v>302</v>
+      </c>
+      <c r="D61" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E61" s="2" t="s">
+        <v>729</v>
+      </c>
+      <c r="F61" s="2" t="s">
+        <v>730</v>
+      </c>
+      <c r="G61" s="2">
+        <v>21235.44072051</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7">
+      <c r="A62" s="2" t="s">
+        <v>526</v>
+      </c>
+      <c r="B62" s="2" t="s">
+        <v>731</v>
+      </c>
+      <c r="C62" s="2" t="s">
+        <v>302</v>
+      </c>
+      <c r="D62" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E62" s="2" t="s">
+        <v>732</v>
+      </c>
+      <c r="F62" s="2" t="s">
+        <v>733</v>
+      </c>
+      <c r="G62" s="2">
+        <v>21235.44072051</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7">
+      <c r="A63" s="2" t="s">
+        <v>526</v>
+      </c>
+      <c r="B63" s="2" t="s">
+        <v>734</v>
+      </c>
+      <c r="C63" s="2" t="s">
+        <v>302</v>
+      </c>
+      <c r="D63" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E63" s="2" t="s">
+        <v>735</v>
+      </c>
+      <c r="F63" s="2" t="s">
+        <v>736</v>
+      </c>
+      <c r="G63" s="2">
+        <v>21235.44072051</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7">
+      <c r="A64" s="2" t="s">
+        <v>526</v>
+      </c>
+      <c r="B64" s="2" t="s">
+        <v>737</v>
+      </c>
+      <c r="C64" s="2" t="s">
+        <v>302</v>
+      </c>
+      <c r="D64" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E64" s="2" t="s">
+        <v>738</v>
+      </c>
+      <c r="F64" s="2" t="s">
+        <v>739</v>
+      </c>
+      <c r="G64" s="2">
+        <v>21235.44072051</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7">
+      <c r="A65" s="2" t="s">
+        <v>526</v>
+      </c>
+      <c r="B65" s="2" t="s">
+        <v>740</v>
+      </c>
+      <c r="C65" s="2" t="s">
+        <v>302</v>
+      </c>
+      <c r="D65" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E65" s="2" t="s">
+        <v>741</v>
+      </c>
+      <c r="F65" s="2" t="s">
+        <v>742</v>
+      </c>
+      <c r="G65" s="2">
+        <v>21235.44072051</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7">
+      <c r="A66" s="2" t="s">
+        <v>526</v>
+      </c>
+      <c r="B66" s="2" t="s">
+        <v>743</v>
+      </c>
+      <c r="C66" s="2" t="s">
+        <v>302</v>
+      </c>
+      <c r="D66" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E66" s="2" t="s">
+        <v>744</v>
+      </c>
+      <c r="F66" s="2" t="s">
+        <v>745</v>
+      </c>
+      <c r="G66" s="2">
+        <v>21235.44072051</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7">
+      <c r="A67" s="2" t="s">
+        <v>526</v>
+      </c>
+      <c r="B67" s="2" t="s">
+        <v>746</v>
+      </c>
+      <c r="C67" s="2" t="s">
+        <v>302</v>
+      </c>
+      <c r="D67" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E67" s="2" t="s">
+        <v>747</v>
+      </c>
+      <c r="F67" s="2" t="s">
+        <v>748</v>
+      </c>
+      <c r="G67" s="2">
+        <v>21235.44072051</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7">
+      <c r="A68" s="2" t="s">
+        <v>526</v>
+      </c>
+      <c r="B68" s="2" t="s">
+        <v>749</v>
+      </c>
+      <c r="C68" s="2" t="s">
+        <v>302</v>
+      </c>
+      <c r="D68" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E68" s="2" t="s">
+        <v>750</v>
+      </c>
+      <c r="F68" s="2" t="s">
+        <v>751</v>
+      </c>
+      <c r="G68" s="2">
+        <v>21235.44072051</v>
       </c>
     </row>
   </sheetData>
@@ -6326,13 +8428,13 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:H34"/>
+  <dimension ref="A1:H17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="8" ySplit="1" topLeftCell="I9" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="8" ySplit="1" topLeftCell="I12" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="I1" sqref="I1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="B19" sqref="B19"/>
+      <selection pane="bottomRight" activeCell="B38" sqref="B38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="18"/>
@@ -6345,742 +8447,396 @@
   <sheetData>
     <row r="1" spans="1:8" ht="37" customHeight="1">
       <c r="A1" s="3" t="s">
-        <v>567</v>
+        <v>752</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>568</v>
+        <v>753</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>569</v>
+        <v>754</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>570</v>
+        <v>755</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>571</v>
+        <v>756</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>572</v>
+        <v>757</v>
       </c>
       <c r="G1" s="3" t="s">
-        <v>573</v>
+        <v>758</v>
       </c>
       <c r="H1" s="3" t="s">
-        <v>574</v>
+        <v>759</v>
       </c>
     </row>
     <row r="2" spans="1:8">
       <c r="A2" s="2" t="s">
-        <v>575</v>
-      </c>
-      <c r="B2" s="7">
-        <v>44666.313312210637</v>
+        <v>760</v>
+      </c>
+      <c r="B2" s="9">
+        <v>44670.665079803242</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>150</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>576</v>
+        <v>761</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>577</v>
+        <v>762</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>578</v>
+        <v>763</v>
       </c>
     </row>
     <row r="3" spans="1:8">
       <c r="A3" s="2" t="s">
-        <v>579</v>
-      </c>
-      <c r="B3" s="7">
-        <v>44666.313312210637</v>
+        <v>764</v>
+      </c>
+      <c r="B3" s="9">
+        <v>44670.665079803242</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>150</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>580</v>
+        <v>765</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>581</v>
+        <v>766</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>578</v>
+        <v>763</v>
       </c>
     </row>
     <row r="4" spans="1:8">
       <c r="A4" s="2" t="s">
-        <v>582</v>
-      </c>
-      <c r="B4" s="7">
-        <v>44666.313312210637</v>
+        <v>767</v>
+      </c>
+      <c r="B4" s="9">
+        <v>44670.665079803242</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>150</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>583</v>
+        <v>768</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>581</v>
+        <v>762</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>578</v>
+        <v>763</v>
       </c>
     </row>
     <row r="5" spans="1:8">
       <c r="A5" s="2" t="s">
-        <v>584</v>
-      </c>
-      <c r="B5" s="7">
-        <v>44666.313312210637</v>
+        <v>769</v>
+      </c>
+      <c r="B5" s="9">
+        <v>44670.665079803242</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>150</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>585</v>
+        <v>770</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>581</v>
+        <v>762</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>578</v>
+        <v>763</v>
       </c>
     </row>
     <row r="6" spans="1:8">
       <c r="A6" s="2" t="s">
-        <v>586</v>
-      </c>
-      <c r="B6" s="7">
-        <v>44666.313312210637</v>
+        <v>771</v>
+      </c>
+      <c r="B6" s="9">
+        <v>44670.665079803242</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>150</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>587</v>
+        <v>772</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>581</v>
+        <v>762</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>578</v>
+        <v>763</v>
       </c>
     </row>
     <row r="7" spans="1:8">
       <c r="A7" s="2" t="s">
-        <v>588</v>
-      </c>
-      <c r="B7" s="7">
-        <v>44666.313312210637</v>
+        <v>773</v>
+      </c>
+      <c r="B7" s="9">
+        <v>44670.665079803242</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>150</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>589</v>
+        <v>774</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>581</v>
+        <v>762</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>578</v>
+        <v>763</v>
       </c>
     </row>
     <row r="8" spans="1:8">
       <c r="A8" s="2" t="s">
-        <v>590</v>
-      </c>
-      <c r="B8" s="7">
-        <v>44666.313312210637</v>
+        <v>775</v>
+      </c>
+      <c r="B8" s="9">
+        <v>44670.665079803242</v>
       </c>
       <c r="C8" s="2" t="s">
         <v>150</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>591</v>
+        <v>776</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>581</v>
+        <v>762</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>578</v>
+        <v>763</v>
       </c>
     </row>
     <row r="9" spans="1:8">
       <c r="A9" s="2" t="s">
-        <v>592</v>
-      </c>
-      <c r="B9" s="7">
-        <v>44666.313312210637</v>
+        <v>777</v>
+      </c>
+      <c r="B9" s="9">
+        <v>44670.665079803242</v>
       </c>
       <c r="C9" s="2" t="s">
         <v>150</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>593</v>
+        <v>778</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>581</v>
+        <v>762</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>578</v>
+        <v>763</v>
       </c>
     </row>
     <row r="10" spans="1:8">
       <c r="A10" s="2" t="s">
-        <v>542</v>
-      </c>
-      <c r="B10" s="7">
-        <v>44666.313312210637</v>
+        <v>779</v>
+      </c>
+      <c r="B10" s="9">
+        <v>44670.729345752312</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>96</v>
-      </c>
-      <c r="D10" s="2" t="s">
-        <v>541</v>
-      </c>
-      <c r="E10" s="2" t="s">
-        <v>581</v>
-      </c>
-      <c r="F10" s="2" t="s">
-        <v>578</v>
+        <v>302</v>
+      </c>
+      <c r="D10" s="2">
+        <v>1810</v>
+      </c>
+      <c r="E10" s="2">
+        <v>100000</v>
+      </c>
+      <c r="F10" s="2">
+        <v>50</v>
+      </c>
+      <c r="G10" s="2">
+        <v>1720</v>
+      </c>
+      <c r="H10" s="2" t="s">
+        <v>780</v>
       </c>
     </row>
     <row r="11" spans="1:8">
       <c r="A11" s="2" t="s">
-        <v>594</v>
-      </c>
-      <c r="B11" s="7">
-        <v>44666.313312210637</v>
+        <v>781</v>
+      </c>
+      <c r="B11" s="9">
+        <v>44670.729345752312</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>96</v>
-      </c>
-      <c r="D11" s="2" t="s">
-        <v>595</v>
-      </c>
-      <c r="E11" s="2" t="s">
-        <v>581</v>
-      </c>
-      <c r="F11" s="2" t="s">
-        <v>578</v>
+        <v>302</v>
+      </c>
+      <c r="D11" s="2">
+        <v>1810</v>
+      </c>
+      <c r="E11" s="2">
+        <v>100000</v>
+      </c>
+      <c r="F11" s="2">
+        <v>50</v>
+      </c>
+      <c r="G11" s="2">
+        <v>1670</v>
+      </c>
+      <c r="H11" s="2" t="s">
+        <v>780</v>
       </c>
     </row>
     <row r="12" spans="1:8">
       <c r="A12" s="2" t="s">
-        <v>544</v>
-      </c>
-      <c r="B12" s="7">
-        <v>44666.313312210637</v>
+        <v>782</v>
+      </c>
+      <c r="B12" s="9">
+        <v>44670.729345752312</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>96</v>
-      </c>
-      <c r="D12" s="2" t="s">
-        <v>543</v>
-      </c>
-      <c r="E12" s="2" t="s">
-        <v>581</v>
-      </c>
-      <c r="F12" s="2" t="s">
-        <v>578</v>
+        <v>302</v>
+      </c>
+      <c r="D12" s="2">
+        <v>1810</v>
+      </c>
+      <c r="E12" s="2">
+        <v>100000</v>
+      </c>
+      <c r="F12" s="2">
+        <v>50</v>
+      </c>
+      <c r="G12" s="2">
+        <v>1620</v>
+      </c>
+      <c r="H12" s="2" t="s">
+        <v>780</v>
       </c>
     </row>
     <row r="13" spans="1:8">
       <c r="A13" s="2" t="s">
-        <v>596</v>
-      </c>
-      <c r="B13" s="7">
-        <v>44666.313312210637</v>
+        <v>783</v>
+      </c>
+      <c r="B13" s="9">
+        <v>44670.729345752312</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>96</v>
-      </c>
-      <c r="D13" s="2" t="s">
-        <v>597</v>
-      </c>
-      <c r="E13" s="2" t="s">
-        <v>581</v>
-      </c>
-      <c r="F13" s="2" t="s">
-        <v>578</v>
+        <v>302</v>
+      </c>
+      <c r="D13" s="2">
+        <v>1810</v>
+      </c>
+      <c r="E13" s="2">
+        <v>100000</v>
+      </c>
+      <c r="F13" s="2">
+        <v>50</v>
+      </c>
+      <c r="G13" s="2">
+        <v>1570</v>
+      </c>
+      <c r="H13" s="2" t="s">
+        <v>780</v>
       </c>
     </row>
     <row r="14" spans="1:8">
       <c r="A14" s="2" t="s">
-        <v>546</v>
-      </c>
-      <c r="B14" s="7">
-        <v>44666.313312210637</v>
+        <v>784</v>
+      </c>
+      <c r="B14" s="9">
+        <v>44670.729345752312</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>96</v>
-      </c>
-      <c r="D14" s="2" t="s">
-        <v>545</v>
-      </c>
-      <c r="E14" s="2" t="s">
-        <v>581</v>
-      </c>
-      <c r="F14" s="2" t="s">
-        <v>578</v>
+        <v>302</v>
+      </c>
+      <c r="D14" s="2">
+        <v>1810</v>
+      </c>
+      <c r="E14" s="2">
+        <v>100000</v>
+      </c>
+      <c r="F14" s="2">
+        <v>50</v>
+      </c>
+      <c r="G14" s="2">
+        <v>1520</v>
+      </c>
+      <c r="H14" s="2" t="s">
+        <v>780</v>
       </c>
     </row>
     <row r="15" spans="1:8">
       <c r="A15" s="2" t="s">
-        <v>598</v>
-      </c>
-      <c r="B15" s="7">
-        <v>44666.313312210637</v>
+        <v>785</v>
+      </c>
+      <c r="B15" s="9">
+        <v>44670.729345752312</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>96</v>
-      </c>
-      <c r="D15" s="2" t="s">
-        <v>599</v>
-      </c>
-      <c r="E15" s="2" t="s">
-        <v>581</v>
-      </c>
-      <c r="F15" s="2" t="s">
-        <v>578</v>
+        <v>302</v>
+      </c>
+      <c r="D15" s="2">
+        <v>1810</v>
+      </c>
+      <c r="E15" s="2">
+        <v>100000</v>
+      </c>
+      <c r="F15" s="2">
+        <v>50</v>
+      </c>
+      <c r="G15" s="2">
+        <v>1470</v>
+      </c>
+      <c r="H15" s="2" t="s">
+        <v>780</v>
       </c>
     </row>
     <row r="16" spans="1:8">
       <c r="A16" s="2" t="s">
-        <v>548</v>
-      </c>
-      <c r="B16" s="7">
-        <v>44666.313312210637</v>
+        <v>786</v>
+      </c>
+      <c r="B16" s="9">
+        <v>44670.729345752312</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>96</v>
-      </c>
-      <c r="D16" s="2" t="s">
-        <v>547</v>
-      </c>
-      <c r="E16" s="2" t="s">
-        <v>581</v>
-      </c>
-      <c r="F16" s="2" t="s">
-        <v>578</v>
+        <v>302</v>
+      </c>
+      <c r="D16" s="2">
+        <v>1810</v>
+      </c>
+      <c r="E16" s="2">
+        <v>100000</v>
+      </c>
+      <c r="F16" s="2">
+        <v>50</v>
+      </c>
+      <c r="G16" s="2">
+        <v>1420</v>
+      </c>
+      <c r="H16" s="2" t="s">
+        <v>780</v>
       </c>
     </row>
     <row r="17" spans="1:8">
       <c r="A17" s="2" t="s">
-        <v>600</v>
-      </c>
-      <c r="B17" s="7">
-        <v>44666.313312210637</v>
+        <v>787</v>
+      </c>
+      <c r="B17" s="9">
+        <v>44670.771775046298</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>96</v>
-      </c>
-      <c r="D17" s="2" t="s">
-        <v>601</v>
-      </c>
-      <c r="E17" s="2" t="s">
-        <v>581</v>
-      </c>
-      <c r="F17" s="2" t="s">
-        <v>578</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8">
-      <c r="A18" s="2" t="s">
-        <v>549</v>
-      </c>
-      <c r="B18" s="7">
-        <v>44666.611313055553</v>
-      </c>
-      <c r="C18" s="2" t="s">
-        <v>96</v>
-      </c>
-      <c r="D18" s="2">
-        <v>184</v>
-      </c>
-      <c r="E18" s="2">
+        <v>302</v>
+      </c>
+      <c r="D17" s="2">
+        <v>1770</v>
+      </c>
+      <c r="E17" s="2">
         <v>100000</v>
       </c>
-      <c r="F18" s="2">
-        <v>5</v>
-      </c>
-      <c r="G18" s="2">
-        <v>178</v>
-      </c>
-      <c r="H18" s="2" t="s">
-        <v>602</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8">
-      <c r="A19" t="s">
-        <v>575</v>
-      </c>
-      <c r="B19" s="9">
-        <v>44667.504715946146</v>
-      </c>
-      <c r="C19" t="s">
-        <v>150</v>
-      </c>
-      <c r="D19" t="s">
-        <v>576</v>
-      </c>
-      <c r="E19" t="s">
-        <v>577</v>
-      </c>
-      <c r="F19" t="s">
-        <v>578</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8">
-      <c r="A20" t="s">
-        <v>579</v>
-      </c>
-      <c r="B20" s="9">
-        <v>44667.504715946146</v>
-      </c>
-      <c r="C20" t="s">
-        <v>150</v>
-      </c>
-      <c r="D20" t="s">
-        <v>580</v>
-      </c>
-      <c r="E20" t="s">
-        <v>581</v>
-      </c>
-      <c r="F20" t="s">
-        <v>578</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8">
-      <c r="A21" t="s">
-        <v>582</v>
-      </c>
-      <c r="B21" s="9">
-        <v>44667.504715946146</v>
-      </c>
-      <c r="C21" t="s">
-        <v>150</v>
-      </c>
-      <c r="D21" t="s">
-        <v>583</v>
-      </c>
-      <c r="E21" t="s">
-        <v>581</v>
-      </c>
-      <c r="F21" t="s">
-        <v>578</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8">
-      <c r="A22" t="s">
-        <v>584</v>
-      </c>
-      <c r="B22" s="9">
-        <v>44667.504715946146</v>
-      </c>
-      <c r="C22" t="s">
-        <v>150</v>
-      </c>
-      <c r="D22" t="s">
-        <v>585</v>
-      </c>
-      <c r="E22" t="s">
-        <v>581</v>
-      </c>
-      <c r="F22" t="s">
-        <v>578</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8">
-      <c r="A23" t="s">
-        <v>586</v>
-      </c>
-      <c r="B23" s="9">
-        <v>44667.504715946146</v>
-      </c>
-      <c r="C23" t="s">
-        <v>150</v>
-      </c>
-      <c r="D23" t="s">
-        <v>587</v>
-      </c>
-      <c r="E23" t="s">
-        <v>581</v>
-      </c>
-      <c r="F23" t="s">
-        <v>578</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8">
-      <c r="A24" t="s">
-        <v>588</v>
-      </c>
-      <c r="B24" s="9">
-        <v>44667.504715946146</v>
-      </c>
-      <c r="C24" t="s">
-        <v>150</v>
-      </c>
-      <c r="D24" t="s">
-        <v>589</v>
-      </c>
-      <c r="E24" t="s">
-        <v>581</v>
-      </c>
-      <c r="F24" t="s">
-        <v>578</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8">
-      <c r="A25" t="s">
-        <v>590</v>
-      </c>
-      <c r="B25" s="9">
-        <v>44667.504715946146</v>
-      </c>
-      <c r="C25" t="s">
-        <v>150</v>
-      </c>
-      <c r="D25" t="s">
-        <v>591</v>
-      </c>
-      <c r="E25" t="s">
-        <v>581</v>
-      </c>
-      <c r="F25" t="s">
-        <v>578</v>
-      </c>
-    </row>
-    <row r="26" spans="1:8">
-      <c r="A26" t="s">
-        <v>592</v>
-      </c>
-      <c r="B26" s="9">
-        <v>44667.504715946146</v>
-      </c>
-      <c r="C26" t="s">
-        <v>150</v>
-      </c>
-      <c r="D26" t="s">
-        <v>593</v>
-      </c>
-      <c r="E26" t="s">
-        <v>581</v>
-      </c>
-      <c r="F26" t="s">
-        <v>578</v>
-      </c>
-    </row>
-    <row r="27" spans="1:8">
-      <c r="A27" t="s">
-        <v>603</v>
-      </c>
-      <c r="B27" s="9">
-        <v>44667.505131071783</v>
-      </c>
-      <c r="C27" t="s">
-        <v>89</v>
-      </c>
-      <c r="D27">
-        <v>48160</v>
-      </c>
-      <c r="E27">
-        <v>100000</v>
-      </c>
-      <c r="F27">
-        <v>1440</v>
-      </c>
-      <c r="G27">
-        <v>46720</v>
-      </c>
-      <c r="H27" t="s">
-        <v>604</v>
-      </c>
-    </row>
-    <row r="28" spans="1:8">
-      <c r="A28" t="s">
-        <v>605</v>
-      </c>
-      <c r="B28" s="9">
-        <v>44667.505131071783</v>
-      </c>
-      <c r="C28" t="s">
-        <v>89</v>
-      </c>
-      <c r="D28">
-        <v>48160</v>
-      </c>
-      <c r="E28">
-        <v>100000</v>
-      </c>
-      <c r="F28">
-        <v>1440</v>
-      </c>
-      <c r="G28">
-        <v>45280</v>
-      </c>
-      <c r="H28" t="s">
-        <v>604</v>
-      </c>
-    </row>
-    <row r="29" spans="1:8">
-      <c r="A29" t="s">
-        <v>606</v>
-      </c>
-      <c r="B29" s="9">
-        <v>44667.505131071783</v>
-      </c>
-      <c r="C29" t="s">
-        <v>89</v>
-      </c>
-      <c r="D29">
-        <v>48160</v>
-      </c>
-      <c r="E29">
-        <v>100000</v>
-      </c>
-      <c r="F29">
-        <v>1440</v>
-      </c>
-      <c r="G29">
-        <v>43840</v>
-      </c>
-      <c r="H29" t="s">
-        <v>604</v>
-      </c>
-    </row>
-    <row r="30" spans="1:8">
-      <c r="A30" t="s">
-        <v>607</v>
-      </c>
-      <c r="B30" s="9">
-        <v>44667.505131071783</v>
-      </c>
-      <c r="C30" t="s">
-        <v>89</v>
-      </c>
-      <c r="D30">
-        <v>48160</v>
-      </c>
-      <c r="E30">
-        <v>100000</v>
-      </c>
-      <c r="F30">
-        <v>1440</v>
-      </c>
-      <c r="G30">
-        <v>42400</v>
-      </c>
-      <c r="H30" t="s">
-        <v>604</v>
-      </c>
-    </row>
-    <row r="31" spans="1:8">
-      <c r="A31" t="s">
-        <v>608</v>
-      </c>
-      <c r="B31" s="9">
-        <v>44667.505131071783</v>
-      </c>
-      <c r="C31" t="s">
-        <v>89</v>
-      </c>
-      <c r="D31">
-        <v>48160</v>
-      </c>
-      <c r="E31">
-        <v>100000</v>
-      </c>
-      <c r="F31">
-        <v>1440</v>
-      </c>
-      <c r="G31">
-        <v>40960</v>
-      </c>
-      <c r="H31" t="s">
-        <v>604</v>
-      </c>
-    </row>
-    <row r="32" spans="1:8">
-      <c r="A32" t="s">
-        <v>609</v>
-      </c>
-      <c r="B32" s="9">
-        <v>44667.505131071783</v>
-      </c>
-      <c r="C32" t="s">
-        <v>89</v>
-      </c>
-      <c r="D32">
-        <v>48160</v>
-      </c>
-      <c r="E32">
-        <v>100000</v>
-      </c>
-      <c r="F32">
-        <v>1440</v>
-      </c>
-      <c r="G32">
-        <v>39520</v>
-      </c>
-      <c r="H32" t="s">
-        <v>604</v>
-      </c>
-    </row>
-    <row r="33" spans="1:8">
-      <c r="A33" t="s">
-        <v>610</v>
-      </c>
-      <c r="B33" s="9">
-        <v>44667.505131071783</v>
-      </c>
-      <c r="C33" t="s">
-        <v>89</v>
-      </c>
-      <c r="D33">
-        <v>48160</v>
-      </c>
-      <c r="E33">
-        <v>100000</v>
-      </c>
-      <c r="F33">
-        <v>1440</v>
-      </c>
-      <c r="G33">
-        <v>38080</v>
-      </c>
-      <c r="H33" t="s">
-        <v>604</v>
-      </c>
-    </row>
-    <row r="34" spans="1:8">
-      <c r="A34" t="s">
-        <v>611</v>
-      </c>
-      <c r="B34" s="9">
-        <v>44667.505131071783</v>
-      </c>
-      <c r="C34" t="s">
-        <v>89</v>
-      </c>
-      <c r="D34">
-        <v>48160</v>
-      </c>
-      <c r="E34">
-        <v>100000</v>
-      </c>
-      <c r="F34">
-        <v>1440</v>
-      </c>
-      <c r="G34">
-        <v>36640</v>
-      </c>
-      <c r="H34" t="s">
-        <v>604</v>
+      <c r="F17" s="2">
+        <v>50</v>
+      </c>
+      <c r="G17" s="2">
+        <v>1820</v>
+      </c>
+      <c r="H17" s="2" t="s">
+        <v>788</v>
       </c>
     </row>
   </sheetData>
@@ -7091,10 +8847,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:E42"/>
+  <dimension ref="A1:E50"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="C38" sqref="C38"/>
+    <sheetView topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="D48" sqref="D48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="18"/>
@@ -7105,10 +8861,10 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" s="2" t="s">
-        <v>612</v>
+        <v>789</v>
       </c>
       <c r="B1" s="10" t="s">
-        <v>613</v>
+        <v>790</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -7532,11 +9288,75 @@
       </c>
     </row>
     <row r="42" spans="1:3">
-      <c r="A42" s="9">
+      <c r="A42" s="7">
         <v>44667.505131076388</v>
       </c>
       <c r="B42" s="10">
         <v>1012537.50583284</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3">
+      <c r="A43" s="7">
+        <v>44669.065295011576</v>
+      </c>
+      <c r="B43" s="10">
+        <v>1014800.66866558</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3">
+      <c r="A44" s="7">
+        <v>44670.385426932873</v>
+      </c>
+      <c r="B44" s="10">
+        <v>1016237.28534121</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3">
+      <c r="A45" s="7">
+        <v>44670.43782230324</v>
+      </c>
+      <c r="B45" s="10">
+        <v>1019270.96181171</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3">
+      <c r="A46" s="9">
+        <v>44670.659766423611</v>
+      </c>
+      <c r="B46" s="10">
+        <v>1020841.0757803</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3">
+      <c r="A47" s="9">
+        <v>44670.66052046296</v>
+      </c>
+      <c r="B47" s="10">
+        <v>120391.58979718</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3">
+      <c r="A48" s="9">
+        <v>44670.66548520833</v>
+      </c>
+      <c r="B48" s="10">
+        <v>920691.27126799</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2">
+      <c r="A49" s="9">
+        <v>44670.678593356482</v>
+      </c>
+      <c r="B49" s="10">
+        <v>921685.44070955005</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2">
+      <c r="A50" s="9">
+        <v>44670.729345752312</v>
+      </c>
+      <c r="B50" s="10">
+        <v>922420.67747827002</v>
       </c>
     </row>
   </sheetData>
